--- a/_localisation.xlsx
+++ b/_localisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Projects\Identifile\project-identifile-localisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E22ECF0-AC7F-4C64-AC25-CD79ED9FD837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7447DF50-F9FE-4E81-B68B-462BC433E49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{DD0ADE5A-0746-48DE-8950-17139D90D8DD}"/>
+    <workbookView xWindow="17100" yWindow="2520" windowWidth="17865" windowHeight="16170" firstSheet="3" activeTab="8" xr2:uid="{DD0ADE5A-0746-48DE-8950-17139D90D8DD}"/>
   </bookViews>
   <sheets>
     <sheet name="achievements" sheetId="2" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9442" uniqueCount="7870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10502" uniqueCount="9103">
   <si>
     <t>keys</t>
   </si>
@@ -23682,6 +23682,3705 @@
   </si>
   <si>
     <t>[レジェンダリ]</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_ADS</t>
+  </si>
+  <si>
+    <t>Advertisement</t>
+  </si>
+  <si>
+    <t>広告</t>
+  </si>
+  <si>
+    <t>广告</t>
+  </si>
+  <si>
+    <t>廣告</t>
+  </si>
+  <si>
+    <t>Propaganda</t>
+  </si>
+  <si>
+    <t>Реклама</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_EXE</t>
+  </si>
+  <si>
+    <t>Exe</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_FILE_EXPLORER</t>
+  </si>
+  <si>
+    <t>File Explorer</t>
+  </si>
+  <si>
+    <t>ファイルエクスプローラー</t>
+  </si>
+  <si>
+    <t>文件资源管理器</t>
+  </si>
+  <si>
+    <t>檔案總管</t>
+  </si>
+  <si>
+    <t>Explorador de Arquivos</t>
+  </si>
+  <si>
+    <t>Explorador de Archivos</t>
+  </si>
+  <si>
+    <t>Проводник</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_DINO_MINIGAME</t>
+  </si>
+  <si>
+    <t>Jumping Minigame</t>
+  </si>
+  <si>
+    <t>ジャンプミニゲーム</t>
+  </si>
+  <si>
+    <t>谷歌小恐龙小游戏</t>
+  </si>
+  <si>
+    <t>Google 小恐龍小遊戲</t>
+  </si>
+  <si>
+    <t>Minigame de Pulo</t>
+  </si>
+  <si>
+    <t>Minijuego de saltar</t>
+  </si>
+  <si>
+    <t>Мини-игра: Прыжки</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_AIM_MINIGAME</t>
+  </si>
+  <si>
+    <t>Aim Minigame</t>
+  </si>
+  <si>
+    <t>射撃ミニゲーム</t>
+  </si>
+  <si>
+    <t>决战上海滩小游戏</t>
+  </si>
+  <si>
+    <t>決戰上海灘小遊戲</t>
+  </si>
+  <si>
+    <t>Minigame de Mira</t>
+  </si>
+  <si>
+    <t>Minijuego de puntería</t>
+  </si>
+  <si>
+    <t>Мини-игра: Аим</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_CREDITS</t>
+  </si>
+  <si>
+    <t>Об авторах</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_CURSOR_SELECT</t>
+  </si>
+  <si>
+    <t>Cursor Select</t>
+  </si>
+  <si>
+    <t>カーソル選択</t>
+  </si>
+  <si>
+    <t>鼠标选择</t>
+  </si>
+  <si>
+    <t>滑鼠選擇</t>
+  </si>
+  <si>
+    <t>Seleção de Cursor</t>
+  </si>
+  <si>
+    <t>Selección de Cursor</t>
+  </si>
+  <si>
+    <t>Выбор курсора</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_CMD</t>
+  </si>
+  <si>
+    <t>Command Prompt</t>
+  </si>
+  <si>
+    <t>コマンドプロンプト</t>
+  </si>
+  <si>
+    <t>命令提示符</t>
+  </si>
+  <si>
+    <t>命令提示字元</t>
+  </si>
+  <si>
+    <t>Prompt de Comando</t>
+  </si>
+  <si>
+    <t>Командная строка</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_DATABASE</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_DEATH</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>デス</t>
+  </si>
+  <si>
+    <t>死亡</t>
+  </si>
+  <si>
+    <t>Morte</t>
+  </si>
+  <si>
+    <t>Muerte</t>
+  </si>
+  <si>
+    <t>Смерть</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_HEALTH</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_LEVEL_COMPLETE</t>
+  </si>
+  <si>
+    <t>Level Complete</t>
+  </si>
+  <si>
+    <t>クリア</t>
+  </si>
+  <si>
+    <t>关卡完成</t>
+  </si>
+  <si>
+    <t>關卡完成</t>
+  </si>
+  <si>
+    <t>Nível Concluído</t>
+  </si>
+  <si>
+    <t>Nivel Completado</t>
+  </si>
+  <si>
+    <t>Уровень завершен</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_LOOT</t>
+  </si>
+  <si>
+    <t>Loot</t>
+  </si>
+  <si>
+    <t>戦利品</t>
+  </si>
+  <si>
+    <t>战利品</t>
+  </si>
+  <si>
+    <t>戰利品</t>
+  </si>
+  <si>
+    <t>Saque</t>
+  </si>
+  <si>
+    <t>Botín</t>
+  </si>
+  <si>
+    <t>Лут</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_SECRETS</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_MODS</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_OPTION_CONFIRM</t>
+  </si>
+  <si>
+    <t>Confirmation</t>
+  </si>
+  <si>
+    <t>確認</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>Confirmação</t>
+  </si>
+  <si>
+    <t>Confirmación</t>
+  </si>
+  <si>
+    <t>Подтверждение</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_OPTIONS</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_PAUSE</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>ポーズ</t>
+  </si>
+  <si>
+    <t>暂停</t>
+  </si>
+  <si>
+    <t>暫停</t>
+  </si>
+  <si>
+    <t>Pausar</t>
+  </si>
+  <si>
+    <t>Pausa</t>
+  </si>
+  <si>
+    <t>Пауза</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_PROPERTIES</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>プロパティ</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>屬性</t>
+  </si>
+  <si>
+    <t>Propriedades</t>
+  </si>
+  <si>
+    <t>Propiedades</t>
+  </si>
+  <si>
+    <t>Свойства</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_QUIT_TO_MENU_CONFIRMATION</t>
+  </si>
+  <si>
+    <t>Quit To Menu</t>
+  </si>
+  <si>
+    <t>退出至主菜单</t>
+  </si>
+  <si>
+    <t>退出至主選單</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_REWARDS</t>
+  </si>
+  <si>
+    <t>Rewards</t>
+  </si>
+  <si>
+    <t>報酬</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>獎勵</t>
+  </si>
+  <si>
+    <t>Recompensas</t>
+  </si>
+  <si>
+    <t>Награды</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_SACRIFICE</t>
+  </si>
+  <si>
+    <t>捧げる</t>
+  </si>
+  <si>
+    <t>Жертвоприношение</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_SAVE_LOAD</t>
+  </si>
+  <si>
+    <t>Save/Load</t>
+  </si>
+  <si>
+    <t>セーブ/ロード</t>
+  </si>
+  <si>
+    <t>存档/读档</t>
+  </si>
+  <si>
+    <t>存檔／讀檔</t>
+  </si>
+  <si>
+    <t>Salvar/Carregar</t>
+  </si>
+  <si>
+    <t>Guardar/Cargar</t>
+  </si>
+  <si>
+    <t>Сохранение/Загрузка</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_SHOP</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_TUTORIAL</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>チュートリアル</t>
+  </si>
+  <si>
+    <t>教程</t>
+  </si>
+  <si>
+    <t>教學</t>
+  </si>
+  <si>
+    <t>Обучение</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_EXE_TUTORIAL</t>
+  </si>
+  <si>
+    <t>Tutorial Hint</t>
+  </si>
+  <si>
+    <t>ヒント</t>
+  </si>
+  <si>
+    <t>教程提示</t>
+  </si>
+  <si>
+    <t>教學提示</t>
+  </si>
+  <si>
+    <t>Dica de Tutorial</t>
+  </si>
+  <si>
+    <t>Pista de Tutorial</t>
+  </si>
+  <si>
+    <t>Подсказка</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_WIDGETS</t>
+  </si>
+  <si>
+    <t>Widgets</t>
+  </si>
+  <si>
+    <t>ウィジェット</t>
+  </si>
+  <si>
+    <t>Виджеты</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_DEATH_WISHLIST</t>
+  </si>
+  <si>
+    <t>Список желаемого</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_WISHLIST</t>
+  </si>
+  <si>
+    <t>Thank you for playing!</t>
+  </si>
+  <si>
+    <t>プレイしてくれてありがとう！</t>
+  </si>
+  <si>
+    <t>感谢游玩！</t>
+  </si>
+  <si>
+    <t>感謝遊玩！</t>
+  </si>
+  <si>
+    <t>Obrigado por jogar!</t>
+  </si>
+  <si>
+    <t>¡Gracias por jugar!</t>
+  </si>
+  <si>
+    <t>Спасибо за игру!</t>
+  </si>
+  <si>
+    <t>UI_ADS_WINDOW_OFFER_1</t>
+  </si>
+  <si>
+    <t>FREE KEYS!\n\nThat's right, I'm just that generous!\nUnlock zips and the secrets of the universe!\nJust don't ask me where the zips are..</t>
+  </si>
+  <si>
+    <t>ただいま、キー配布中！\n太っ腹でしょ？\nZIP解凍！宇宙の謎も解禁！\nまあ、ZIPファイルの在りかは教えないけどね～</t>
+  </si>
+  <si>
+    <t>免费钥匙大放送！\n\n你没看错，我就是这么豪！\n解封ZIP文件，解锁宇宙终极奥秘！\n……不过位置我是不会说的啦！</t>
+  </si>
+  <si>
+    <t>免費密鑰大放送！\n\n你沒看錯，我就是這麼豪！\n解封 ZIP 檔案，解鎖宇宙最終祕密！\n……不過地點我可不會告訴你啦！</t>
+  </si>
+  <si>
+    <t>CHAVES GRÁTIS!\n\nÉ isso aí, eu sou generoso assim mesmo!\nDesbloqueie zips e os segredos do universo!\nSó não me pergunte onde estão os zips..</t>
+  </si>
+  <si>
+    <t>¡LLAVES GRATIS!\n\n¡Has leido bien, solo soy generoso!\n¡Desbloquea zips y secretos del universo!\nAh si... No me preguntes donde encontrar los zips...</t>
+  </si>
+  <si>
+    <t>БЕСПЛАТНЫЕ КЛЮЧИ!\n\nТы не ослышался – сегодня я щедр, как никогда!\nОткрывай ZIP-файлы и тайны вселенной!\nТолько не спрашивай, где сами ZIP-файлы...</t>
+  </si>
+  <si>
+    <t>UI_ADS_WINDOW_OFFER_2</t>
+  </si>
+  <si>
+    <t>Subscription Plan Offer!\n\nFor just {x} coins, you'll receive {y} heart!\nA deal so good, your pixels will thank you!</t>
+  </si>
+  <si>
+    <t>サブスクプラン登場！\n\nたったコイン{x}枚でハートを{y}つゲット！\nお得すぎてウソかと思うでしょ？</t>
+  </si>
+  <si>
+    <t>订阅计划上线啦！\n\n只要{x}，就能获得{y}点心！\n好到像素都感动落泪！</t>
+  </si>
+  <si>
+    <t>訂閱方案上線啦！\n\n只要 {x}，就能獲得 {y} 顆心！\n好到讓像素都感動落淚！</t>
+  </si>
+  <si>
+    <t>Promoção de plano de assinatura!\n\nPor apenas {x} moedas, você receberá {y} corações!\nUma oferta tão boa que seus pixels irão agradecer!</t>
+  </si>
+  <si>
+    <t>¡Oferta del Plan Suscripción!\n\n¡Por solo {x} monedas, recibirás {y} corazones!\n¡Un intercambio tan bueno que hasta tus pixeles te lo agradecerán!</t>
+  </si>
+  <si>
+    <t>Предложение дня!\n\nВсего за {x} монет ты получишь {y} сердцe!\nСделка настолько выгодная, что даже твои пиксели скажут спасибо!</t>
+  </si>
+  <si>
+    <t>UI_ADS_WINDOW_OFFER_3</t>
+  </si>
+  <si>
+    <t>TRADE OFFER!\n\nWould you trade in {x} for this glorious {y}?\nImagine swapping a boring old paperclip for a magic stapler\nthat can hold any crumbling confidence together!</t>
+  </si>
+  <si>
+    <t>トレードタイム！\n\n{x}をこの超ラッキーな{y}と交換しない？\nしょぼいクリップが、何でも留められる魔法のホッチキスに大変身！\n崩れ落ちそうな自信もこいつでバチンさ！</t>
+  </si>
+  <si>
+    <t>交易邀请！\n\n愿拿{x}换这个超稀有{y}吗？\n想象一下，把一个平平无奇的回形针\n换成能拯救破碎自信的魔法订书机！</t>
+  </si>
+  <si>
+    <t>交易邀請！\n\n願意用 {x} 換這個超稀有 {y} 嗎？\n想像一下，把一根平凡無奇的迴紋針，\n換成能拯救破碎自信的魔法釘書機！</t>
+  </si>
+  <si>
+    <t>OFERTA DE TROCA!\n\nVocê trocaria {x} por este glorioso {y}?\nImagine trocar um clipe de papel por um grampeador mágico\nque pode manter qualquer autoconfiança abalada no lugar!</t>
+  </si>
+  <si>
+    <t>¡OFERTÓN!\n\nDame tu {x} por este magnífico {y}\n¡Imagina cambiar ese viejo y aburrido {x} por esta mágica adquisición\nque puede hacer tu vida más duradera!</t>
+  </si>
+  <si>
+    <t>ВЫГОДНЫЙ ОБМЕН!\n\nОбменяешь свой предмет {x} на нечто получше – {y}?\nПредставь, будто меняешь унылую скрепку на волшебный степлер –\nтот самый, что скрепит даже твою в клочья разорванную самооценку!</t>
+  </si>
+  <si>
+    <t>UI_ADS_WINDOW_SCAM_1</t>
+  </si>
+  <si>
+    <t>SCAMMED!\nLooks like I accidentally ran off with {x} of your keys! Maybe read the contract next time.. oh wait, there wasn't any!\nAnyway, good luck getting those zips opened without them!</t>
+  </si>
+  <si>
+    <t>おっと！\nうっかり手が滑ってキーを{x}本いただいちゃった。\n「次は契約書を読んで」って言いたいところだけど、\nそもそもそんなの無かったね。\nじゃ、キー無しでZIP解凍ガンバって！</t>
+  </si>
+  <si>
+    <t>被骗啦！\n\n哎呀，不小心顺走了你的{x}把钥匙！\n下次记得看合同啊……哦对，根本没合同！\n没有钥匙还想开ZIP？祝你好运咯！</t>
+  </si>
+  <si>
+    <t>被騙啦！\n\n哎呀，不小心順走了你的 {x} 把鑰匙！\n下次記得看合約啊……喔對，根本沒合約！\n沒有鑰匙還想開 ZIP？祝你好運啦～</t>
+  </si>
+  <si>
+    <t>OTÁRIO!\nParece que eu acidentalmente saí correndo com {x} das suas chaves! Tenta ler o contrato da próxima.. não, pera, não tinha contrato!\nDe qualquer forma, boa sorte pra abrir esses zips sem as chaves!</t>
+  </si>
+  <si>
+    <t>¡ESTAFADO!\n¡Parece que sin querer te he hecho perder {x} de tus llaves! Quizás deberías leer el contrato la siguiente vez.. Oh espera.. ¡No hay ninguno!\nNos vemos en la siguiente ¡ESTAFA! y suerte abriendo esos zips</t>
+  </si>
+  <si>
+    <t>ТЕБЯ ЗАСКАМИЛИ!\nПохоже, я ненароком прихватил у тебя пару ключей... точнее – {x}! Может, в следующий раз стоит внимательнее читать соглашение.. Хотя стоп, никакого соглашения ведь и не было!\nНу, удачи теперь открыть ZIP-файлы без них!</t>
+  </si>
+  <si>
+    <t>UI_ADS_WINDOW_SCAM_2</t>
+  </si>
+  <si>
+    <t>SCAMMED!\n\nThanks for the coins, bithead!\nNo refunds, but don't worry..\nYou're now officially part of my \"How to make BIG BUCKS\" seminar!</t>
+  </si>
+  <si>
+    <t>コイン、もーらいっ！\n返金はできないけど安心して…\nこれから「絶対もうかるセミナー」にご招待するから！</t>
+  </si>
+  <si>
+    <t>被骗啦！\n\n感谢付款的小傻瓜！\n不退款哦～不过别担心～\n你现在可是我的《如何赚大钱》讲座VIP！</t>
+  </si>
+  <si>
+    <t>被騙啦！\n\n感謝付款的小笨蛋！\n不退款喔～但別擔心～\n你現在可是我的《如何賺大錢》講座 VIP！</t>
+  </si>
+  <si>
+    <t>OTÁRIO!\n\nValeu pelas moedas, seu bitburro!\nSem reembolsos, não se preocupe..\nVocê agora é oficialmente parte do meu seminário de \Como fazer uma BUFUNFA BRABA\""!"</t>
+  </si>
+  <si>
+    <t>¡ESTAFADO!\n\n¡Gracias por tus monedas idiota!\nNo acepto devoluciones, pero no te preocupes..\nAhora oficialmente eres parte de mi seminario de: \"Como hacer MUCHO DINERO\"!</t>
+  </si>
+  <si>
+    <t>ТЕБЯ ЗАСКАМИЛИ!\n\nСпасибо за монетки, битоголовый!\nНикаких возвратов! Но ты не переживай...\nТеперь ты официально участник моего курса \"Как делать БОЛЬШИЕ БАБКИ\"!</t>
+  </si>
+  <si>
+    <t>UI_ADS_WINDOW_SCAM_3</t>
+  </si>
+  <si>
+    <t>SCAMMED!\n\nWhoa! Did your {x} just slipped right into my pocket?\nIt must have wanted to join my exclusive \Items that are too good for you\" collection\nDon't worry, I'll take good care of it for ya!"</t>
+  </si>
+  <si>
+    <t>いっただき～！\nあれ？何でキミの{x}がこっちのポケットに入ってるの？\n「キミにはもったいない物リスト」に入ってたとか？\n任せて！責任持って預かっとくから！</t>
+  </si>
+  <si>
+    <t>被骗啦！\n\n哇哦，你的{x}自己跑进我口袋了？\n它一定是想加入我的「你配不上系列」珍藏品！\n放心，我会好好替你保管哒！</t>
+  </si>
+  <si>
+    <t>被騙啦！\n\n哇哦，你的 {x} 自己跑進我口袋了？\n它一定想加入我的「你配不上系列」珍藏品！\n放心，我會幫你好好保管～</t>
+  </si>
+  <si>
+    <t>OTÁRIO!\n\nEita! O seu {x} acabou de escorregar pra dentro do meu bolso.\nDeve ter entrado pra minha coleção exclusiva de \Itens que são bons demais pra você\\nNão se preocupe"</t>
+  </si>
+  <si>
+    <t>¡ESTAFADO!\n\n¡Pero Bueno! ¿Acaba de tu {x} meterse en mi bolsillo?\nDebe haber querido unirse a mi exclusiva colección: \"Items que son DEMACIADO buenos para tí\"\nNo te preocupes,¡Lo cuidaré muy bien por ti idiota!</t>
+  </si>
+  <si>
+    <t>ТЕБЯ ЗАСКАМИЛИ!\n\nОго! Похоже, твой предмет {x} каким-то чудом оказался у меня в кармане!\nНаверное, он просто мечтал попасть в мою коллекцию \Предметы, которые тебе не по карману\"\nНе парься, я о нем позабочусь!"</t>
+  </si>
+  <si>
+    <t>UI_ADS_WINDOW_NOT_ENOUGH_FUNDS_1</t>
+  </si>
+  <si>
+    <t>NOT ENOUGH FUNDS!\nLook's like you have insufficient funds bud\nCome back another time, I'll be waiting..</t>
+  </si>
+  <si>
+    <t>コインが足りない！\nどうやら財布がスッカラカンみたいだな。\nひと稼ぎしてから、またおいで。</t>
+  </si>
+  <si>
+    <t>资金不足！\n看来你钱包不够鼓啊老弟\n改天再来吧，我在这儿等你</t>
+  </si>
+  <si>
+    <t>資金不足！\n看來你錢包不夠鼓啊兄弟。\n改天再來吧，我在這兒等你。</t>
+  </si>
+  <si>
+    <t>SALDO INSUFICIENTE!\nParece que o seu saldo é insuficiente, meu chapa.\nVolte mais tarde, vou estar esperando..</t>
+  </si>
+  <si>
+    <t>¡NO SUFICIENTE SALDO!\nVaya.. Parece que no tienes suficiente saldo amigo mio\nVuelve en otro momento, te estaré esperando..</t>
+  </si>
+  <si>
+    <t>НЕДОСТАТОЧНО СРЕДСТВ!\nПохоже, у тебя не хватает монет, дружище\nЗагляни позже, я буду ждать..</t>
+  </si>
+  <si>
+    <t>UI_ADS_WINDOW_SUCCESS_1</t>
+  </si>
+  <si>
+    <t>DEAL SUCCESS!\n\nNice doing business with ya!\nYou're now officially part of the Big Bit Club.\nHope to see you again</t>
+  </si>
+  <si>
+    <t>まいどあり！\n良い取引だった！\n今日からキミも「ビッグビット・クラブ」の会員だな。\nまた来てくれ！</t>
+  </si>
+  <si>
+    <t>交易成功！\n\n合作愉快！\n你现在正式加入「大比特俱乐部」啦\n期待下次再见！</t>
+  </si>
+  <si>
+    <t>交易成功！\n\n合作愉快！\n你現在正式成為「大比特俱樂部」的一員啦！\n期待下次再見～</t>
+  </si>
+  <si>
+    <t>NEGÓCIO FECHADO!\n\nPrazer fazer negócio contigo!\nVocê agora é oficialmente parte do Clube dos Estourados.\nEspero te ver de novo</t>
+  </si>
+  <si>
+    <t>¡INTERCAMBIO REALIZADO!\n\n¡Un placer haciendo negocios amigo!\nAhora eres oficialmente parte de mi Club "GRAN BIT".\nEspero verte otra vez!</t>
+  </si>
+  <si>
+    <t>СДЕЛКА СОСТОЯЛАСЬ!\n\nПриятно иметь с тобой дело!\nТеперь ты официальный член клуба Бит-Бит.\nНадеюсь, еще увидимся</t>
+  </si>
+  <si>
+    <t>UI_ADS_WINDOW_DEAL_1</t>
+  </si>
+  <si>
+    <t>DEAL!</t>
+  </si>
+  <si>
+    <t>まいどあり！</t>
+  </si>
+  <si>
+    <t>成交！</t>
+  </si>
+  <si>
+    <t>FEITO!</t>
+  </si>
+  <si>
+    <t>¡Intercambio!</t>
+  </si>
+  <si>
+    <t>ПО РУКАМ!</t>
+  </si>
+  <si>
+    <t>UI_ADS_WINDOW_RETURN_1</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>UI_ADS_WINDOW_RETURN_2</t>
+  </si>
+  <si>
+    <t>Maybe later..</t>
+  </si>
+  <si>
+    <t>また今度</t>
+  </si>
+  <si>
+    <t>下次再说吧～</t>
+  </si>
+  <si>
+    <t>下次再說吧～</t>
+  </si>
+  <si>
+    <t>Talvez mais tarde..</t>
+  </si>
+  <si>
+    <t>Quizás luego...</t>
+  </si>
+  <si>
+    <t>В другой раз..</t>
+  </si>
+  <si>
+    <t>UI_SACRIFICE_WINDOW_OFFER_1</t>
+  </si>
+  <si>
+    <t>Sacrifice 1 Heart for\nrandom chunk of coins</t>
+  </si>
+  <si>
+    <t>ハートを1つ捧げて\nランダムにコインをゲット</t>
+  </si>
+  <si>
+    <t>献祭1颗心\n随机获得一堆金币</t>
+  </si>
+  <si>
+    <t>獻祭 1 顆心\n隨機獲得一堆金幣</t>
+  </si>
+  <si>
+    <t>Sacrificar 1 Coração por\numa quantidade aleatória de moedas</t>
+  </si>
+  <si>
+    <t>Sacrifica 1 corazón por\nuna cantidad aleatoria de monedas</t>
+  </si>
+  <si>
+    <t>Пожертвовать 1 сердце ради\nслучайной горсти монет</t>
+  </si>
+  <si>
+    <t>UI_SACRIFICE_WINDOW_OFFER_2</t>
+  </si>
+  <si>
+    <t>Sacrifice 2 Hearts for\na random modifier</t>
+  </si>
+  <si>
+    <t>ハートを2つ捧げて\nランダムなMODをゲット</t>
+  </si>
+  <si>
+    <t>献祭2颗心\n随机获得一个词缀</t>
+  </si>
+  <si>
+    <t>獻祭 2 顆心\n隨機獲得一個詞綴</t>
+  </si>
+  <si>
+    <t>Sacrificar 2 Corações por\numa quantidade aleatória de moedas</t>
+  </si>
+  <si>
+    <t>Sacrifica 2 corazones por\nun modificador aleatorio</t>
+  </si>
+  <si>
+    <t>Пожертвовать 2 сердца ради\nслучайного модификатора</t>
+  </si>
+  <si>
+    <t>UI_SACRIFICE_WINDOW_ACCEPT</t>
+  </si>
+  <si>
+    <t>Пожертвовать</t>
+  </si>
+  <si>
+    <t>UI_SACRIFICE_WINDOW_REJECT</t>
+  </si>
+  <si>
+    <t>I'll pass</t>
+  </si>
+  <si>
+    <t>やめておく</t>
+  </si>
+  <si>
+    <t>跳过</t>
+  </si>
+  <si>
+    <t>跳過</t>
+  </si>
+  <si>
+    <t>Fica pra próxima</t>
+  </si>
+  <si>
+    <t>No gracias...</t>
+  </si>
+  <si>
+    <t>Я пас</t>
+  </si>
+  <si>
+    <t>UI_REWARD_WINDOW_PICK_YOUR_REWARD</t>
+  </si>
+  <si>
+    <t>Pick your reward</t>
+  </si>
+  <si>
+    <t>報酬を選択</t>
+  </si>
+  <si>
+    <t>选择奖励</t>
+  </si>
+  <si>
+    <t>選擇獎勵</t>
+  </si>
+  <si>
+    <t>Escolher uma recompensa</t>
+  </si>
+  <si>
+    <t>Escoge tu recompensa</t>
+  </si>
+  <si>
+    <t>Выбери награду</t>
+  </si>
+  <si>
+    <t>UI_MINIGAME_RANK_D</t>
+  </si>
+  <si>
+    <t>D Rank</t>
+  </si>
+  <si>
+    <t>Dランク</t>
+  </si>
+  <si>
+    <t>D级</t>
+  </si>
+  <si>
+    <t>D級</t>
+  </si>
+  <si>
+    <t>Rank D</t>
+  </si>
+  <si>
+    <t>Ранг D</t>
+  </si>
+  <si>
+    <t>UI_MINIGAME_RANK_C</t>
+  </si>
+  <si>
+    <t>C Rank</t>
+  </si>
+  <si>
+    <t>Cランク</t>
+  </si>
+  <si>
+    <t>C级</t>
+  </si>
+  <si>
+    <t>C級</t>
+  </si>
+  <si>
+    <t>Rank C</t>
+  </si>
+  <si>
+    <t>Ранг C</t>
+  </si>
+  <si>
+    <t>UI_MINIGAME_RANK_B</t>
+  </si>
+  <si>
+    <t>B Rank</t>
+  </si>
+  <si>
+    <t>Bランク</t>
+  </si>
+  <si>
+    <t>B级</t>
+  </si>
+  <si>
+    <t>B級</t>
+  </si>
+  <si>
+    <t>Rank B</t>
+  </si>
+  <si>
+    <t>Ранг B</t>
+  </si>
+  <si>
+    <t>UI_MINIGAME_RANK_A</t>
+  </si>
+  <si>
+    <t>A Rank</t>
+  </si>
+  <si>
+    <t>Aランク</t>
+  </si>
+  <si>
+    <t>A级</t>
+  </si>
+  <si>
+    <t>A級</t>
+  </si>
+  <si>
+    <t>Rank A</t>
+  </si>
+  <si>
+    <t>Ранг A</t>
+  </si>
+  <si>
+    <t>UI_MINIGAME_RANK_S</t>
+  </si>
+  <si>
+    <t>S Rank</t>
+  </si>
+  <si>
+    <t>Sランク</t>
+  </si>
+  <si>
+    <t>S级</t>
+  </si>
+  <si>
+    <t>S級</t>
+  </si>
+  <si>
+    <t>Rank S</t>
+  </si>
+  <si>
+    <t>Ранг S</t>
+  </si>
+  <si>
+    <t>UI_MINIGAME_ACCURACY</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>命中率</t>
+  </si>
+  <si>
+    <t>Precisão</t>
+  </si>
+  <si>
+    <t>Presición</t>
+  </si>
+  <si>
+    <t>Точность</t>
+  </si>
+  <si>
+    <t>UI_MINIGAME_SCORE</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>スコア</t>
+  </si>
+  <si>
+    <t>得分</t>
+  </si>
+  <si>
+    <t>Pontuação</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Очки</t>
+  </si>
+  <si>
+    <t>UI_MINIGAME_CLAIM_REWARD</t>
+  </si>
+  <si>
+    <t>Claim Reward</t>
+  </si>
+  <si>
+    <t>報酬を受け取る</t>
+  </si>
+  <si>
+    <t>领取奖励</t>
+  </si>
+  <si>
+    <t>領取獎勵</t>
+  </si>
+  <si>
+    <t>Pegar Recompensa</t>
+  </si>
+  <si>
+    <t>Recoger Recompensa</t>
+  </si>
+  <si>
+    <t>Забрать награду</t>
+  </si>
+  <si>
+    <t>UI_MINIGAME_WINDOW_DESC</t>
+  </si>
+  <si>
+    <t>Click on targets as they appear. \nGet rewards fitting of your score!</t>
+  </si>
+  <si>
+    <t>ターゲットをクリックして報酬をゲット！\nスコアに応じて報酬が変化！</t>
+  </si>
+  <si>
+    <t>目标出现就点击！\n根据得分领取专属奖励！</t>
+  </si>
+  <si>
+    <t>目標出現就點擊！\n根據得分領取專屬獎勵！</t>
+  </si>
+  <si>
+    <t>Clique em alvos conforme eles aparecem. \nGanhe recompensas de acordo com sua pontuação!</t>
+  </si>
+  <si>
+    <t>Click en los objetivos según vayan apareciendo.\n¡Consigue recompensas según tu puntuación!</t>
+  </si>
+  <si>
+    <t>Кликай по целям, когда они появляются. \nНаграда зависит от набранных очков!</t>
+  </si>
+  <si>
+    <t>UI_MINIGAME_DINO_DESC</t>
+  </si>
+  <si>
+    <t>Jump over obstacles\nTap to Start/Jump\nGain rewards based on your score</t>
+  </si>
+  <si>
+    <t>障害物をジャンプで回避しよう！\nクリック：スタート/ジャンプ\nスコアに応じた報酬をゲット</t>
+  </si>
+  <si>
+    <t>跳跃躲避障碍物\n点击开始/跳跃\n根据得分获得奖励</t>
+  </si>
+  <si>
+    <t>跳躍閃避障礙物\n點擊開始／跳躍\n根據得分獲得獎勵</t>
+  </si>
+  <si>
+    <t>Pule sobre obstáculos\nToque para Começar/Pular\nGanhe recompensas de acordo com sua pontuação</t>
+  </si>
+  <si>
+    <t>Salta sobre obstáculos\nToque para Empezar/Saltar\n¡Consigue recompensas según tu puntuación!</t>
+  </si>
+  <si>
+    <t>Прыгай через препятствия\nКликни, чтобы начать/прыгнуть\nНаграда зависит от набранных очков</t>
+  </si>
+  <si>
+    <t>UI_MINIGAME_GAMEOVER</t>
+  </si>
+  <si>
+    <t>GAME OVER</t>
+  </si>
+  <si>
+    <t>游戏结束</t>
+  </si>
+  <si>
+    <t>遊戲結束</t>
+  </si>
+  <si>
+    <t>FIM DE JOGO</t>
+  </si>
+  <si>
+    <t>FIN DEL MINIJUEGO</t>
+  </si>
+  <si>
+    <t>ИГРА ОКОНЧЕНА</t>
+  </si>
+  <si>
+    <t>UI_SHOP_NPC_WELCOME_1</t>
+  </si>
+  <si>
+    <t>Welcome to my shop! Mods, exes, and deals with no backup needed!</t>
+  </si>
+  <si>
+    <t>いらっしゃい！MODにEXE、バックアップ不要のお得な商談まで\nお任せあれ。</t>
+  </si>
+  <si>
+    <t>欢迎光临小店！MOD、EXE、无需备份的各种交易都有！</t>
+  </si>
+  <si>
+    <t>歡迎光臨小店！MOD、EXE，各種免備份交易通通有！</t>
+  </si>
+  <si>
+    <t>Bem-vindo à minha loja! Mods, exes e ofertas sem necessidade de backup!</t>
+  </si>
+  <si>
+    <t>¡Bienvenido a mi tienda! ¡Mods, exes, e intercambios sin necesidad de copia de seguridad!</t>
+  </si>
+  <si>
+    <t>Добро пожаловать в мой магазин! Моды, EXE и сделки без права на откат!</t>
+  </si>
+  <si>
+    <t>UI_SHOP_NPC_WELCOME_2</t>
+  </si>
+  <si>
+    <t>Ah, a customer! Let’s exchange currency, not conversation.</t>
+  </si>
+  <si>
+    <t>ああ～お客さん…話はいいから、まずはその懐にあるものを\n出してくれよ。</t>
+  </si>
+  <si>
+    <t>哟，来客了！咱们是来谈钱的，可不是来谈心的。</t>
+  </si>
+  <si>
+    <t>哟，有客人來啦！咱們是來談錢的，可不是來談心的。</t>
+  </si>
+  <si>
+    <t>Olha, um cliente! Vamos fazer negócios, não ficar de papo.</t>
+  </si>
+  <si>
+    <t>Ah, ¡un cliente! Intercambiemos dinero, no conversación.</t>
+  </si>
+  <si>
+    <t>А, покупатель! Предлагаю обменяться валютой, а не словами.</t>
+  </si>
+  <si>
+    <t>UI_SHOP_NPC_WELCOME_3</t>
+  </si>
+  <si>
+    <t>Step right up! I’ve got all the pixels and bits you’ll ever need.</t>
+  </si>
+  <si>
+    <t>さあさあ、寄ってって！\nピクセルからビットまで何でもあるよ。</t>
+  </si>
+  <si>
+    <t>随便看看呗！像素和比特我这儿全都有</t>
+  </si>
+  <si>
+    <t>隨便看看唄～像素、比特我這裡全都有。</t>
+  </si>
+  <si>
+    <t>Chega mais! Tenho todos os pixels e bits que você precisa.</t>
+  </si>
+  <si>
+    <t>¡Continua visitante! Tengo todos los pixeles y bits que siempre necesitarás.</t>
+  </si>
+  <si>
+    <t>Подходи ближе! У меня есть все биты и пиксели, какие только можно пожелать.</t>
+  </si>
+  <si>
+    <t>UI_SHOP_NPC_IDLE_1</t>
+  </si>
+  <si>
+    <t>Browsing or buying? Maybe browsing is your real hobby.</t>
+  </si>
+  <si>
+    <t>おっと、冷やかしかい？\nキミは“ブラウジング”そのものが好きってこと？</t>
+  </si>
+  <si>
+    <t>是来逛还是买？不过说真的，你可能只是喜欢看</t>
+  </si>
+  <si>
+    <t>是來逛還是買？不過說真的，你可能只是想看。</t>
+  </si>
+  <si>
+    <t>Vai ficar só olhando? Acho que é um hobby pra você.</t>
+  </si>
+  <si>
+    <t>¿Mirando o Comprando? Quizás mirar sea tu verdadero hobby.</t>
+  </si>
+  <si>
+    <t>Ты там плывешь по цифровому течению или покупаешь? Похоже, твое настоящее хобби – серфить.</t>
+  </si>
+  <si>
+    <t>UI_SHOP_NPC_IDLE_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you find something better than my shop, I’ll crash... </t>
+  </si>
+  <si>
+    <t>ウチより良い店があったら、クラッシュするわ。</t>
+  </si>
+  <si>
+    <t>如果你能找到比我店里更好的东西……那我就当场关店…</t>
+  </si>
+  <si>
+    <t>如果你能找到比我店裡更好的東西……那我就當場關店。</t>
+  </si>
+  <si>
+    <t>Se você encontrar algo melhor que a minha loja, eu vou travar...</t>
+  </si>
+  <si>
+    <t>Si encuentras algo mejor que mi tienda, la cerraré...</t>
+  </si>
+  <si>
+    <t>Если найдешь магазин получше – я крашнусь от зависти...</t>
+  </si>
+  <si>
+    <t>UI_SHOP_NPC_IDLE_3</t>
+  </si>
+  <si>
+    <t>Fun fact: You’ve been standing there for 120 lines of code.</t>
+  </si>
+  <si>
+    <t>豆知識：キミが買う物を決めるまでに\n120行分のコードが入力できました。</t>
+  </si>
+  <si>
+    <t>趣味冷知识：你已经在这杵了整整120行代码了</t>
+  </si>
+  <si>
+    <t>趣味冷知識：你已經在這裡發呆整整 120 行程式碼了。</t>
+  </si>
+  <si>
+    <t>Curiosidade: Você está parado aí há 120 linhas de código.</t>
+  </si>
+  <si>
+    <t>Curiosidad: Has estado ahí mirando 120 líneas de código</t>
+  </si>
+  <si>
+    <t>Забавный факт: ты стоишь тут уже 120 строк кода.</t>
+  </si>
+  <si>
+    <t>UI_SHOP_NPC_IDLE_4</t>
+  </si>
+  <si>
+    <t>I’d offer you a discount, but I’m only programmed for sarcasm.</t>
+  </si>
+  <si>
+    <t>割引は仕様に無いんだ。\n皮肉を言うことしかプログラムされてなくてな。</t>
+  </si>
+  <si>
+    <t>想打折？不好意思，我的设置里只有阴阳怪气</t>
+  </si>
+  <si>
+    <t>想打折？不好意思，我設定裡只有陰陽怪氣。</t>
+  </si>
+  <si>
+    <t>Eu até te daria um desconto, mas só estou programado pra ser sarcástico.</t>
+  </si>
+  <si>
+    <t>Te daré una oferta, pero mi nivel de sarcasmo es del 100%</t>
+  </si>
+  <si>
+    <t>Хотелось бы сделать скидку, но, увы, меня запрограммировали только на сарказм.</t>
+  </si>
+  <si>
+    <t>UI_SHOP_NPC_IDLE_5</t>
+  </si>
+  <si>
+    <t>Don’t worry, I’ve got all day. No, seriously, I literally can’t leave.</t>
+  </si>
+  <si>
+    <t>ゆっくりしてって。時間なら山ほどあるから…\nいや、仕様上マジでここから出られないの。</t>
+  </si>
+  <si>
+    <t>别担心，我有的是时间陪你耗——毕竟我也走不了</t>
+  </si>
+  <si>
+    <t>別擔心，我有的是時間陪你耗——反正我也走不了。</t>
+  </si>
+  <si>
+    <t>Não se preocupe, eu tenho o dia inteiro. É sério, eu literalmente não consigo sair.</t>
+  </si>
+  <si>
+    <t>No te preocupes, tengo todo el día. Te lo digo en serio, literalmente no puedo salir</t>
+  </si>
+  <si>
+    <t>Не спеши, я никуда не тороплюсь. Серьезно, я буквально не могу уйти отсюда.</t>
+  </si>
+  <si>
+    <t>UI_SHOP_NPC_IDLE_6</t>
+  </si>
+  <si>
+    <t>You’re still here? I get you, the music is pretty fire!</t>
+  </si>
+  <si>
+    <t>まだいたの？分かる～！ここのBGM、めっちゃ良いよな～！</t>
+  </si>
+  <si>
+    <t>你还在这儿？我懂你，这BGM确实超带感。</t>
+  </si>
+  <si>
+    <t>你還在這裡？我懂你，這 BGM 真的太洗腦了。</t>
+  </si>
+  <si>
+    <t>Ainda tá aqui? Te entendo, a música é top!</t>
+  </si>
+  <si>
+    <t>¿Sigues aquí? Te comprendo, la música es increible</t>
+  </si>
+  <si>
+    <t>Все еще тут? Понимаю, музыка ведь и правда огонь!</t>
+  </si>
+  <si>
+    <t>UI_SHOP_NPC_IDLE_7</t>
+  </si>
+  <si>
+    <t>I’m starting to think you enjoy staring at my inventory more than buying.</t>
+  </si>
+  <si>
+    <t>買わないんだよな？\n在庫眺めてる時間のほうが楽しいんだよな？</t>
+  </si>
+  <si>
+    <t>你再这么盯下去，我的家底都要被你看穿啦！</t>
+  </si>
+  <si>
+    <t>你再這樣盯下去，我的底細都要被你看穿啦！</t>
+  </si>
+  <si>
+    <t>Tou começando a achar que você prefere ficar olhando meu inventário do que comprar.</t>
+  </si>
+  <si>
+    <t>Estoy empezando a pensar que te gusta más apreciar mi inventario que comprarlo</t>
+  </si>
+  <si>
+    <t>Начинаю подозревать, что тебе больше нравится глазеть на мои товары, чем что-то покупать.</t>
+  </si>
+  <si>
+    <t>UI_SHOP_NPC_THANKS_1</t>
+  </si>
+  <si>
+    <t>Transaction successful! Enjoy your new virtual... thing.</t>
+  </si>
+  <si>
+    <t>どうも～！\n新しい、その…バーチャルなんとか？ってやつ楽しんで！</t>
+  </si>
+  <si>
+    <t>消费成功！享受你的新虚拟物品吧～</t>
+  </si>
+  <si>
+    <t>消費成功！享受你的新虛擬物品吧～</t>
+  </si>
+  <si>
+    <t>Transação bem sucedida! Aproveite o seu novo... treco virtual.</t>
+  </si>
+  <si>
+    <t>¡Transacción completada! Disfruta tu nueva.. lo que sea.. virtual</t>
+  </si>
+  <si>
+    <t>Транзакция завершена! Наслаждайся своей новой виртуальной... штуковиной.</t>
+  </si>
+  <si>
+    <t>UI_SHOP_NPC_THANKS_2</t>
+  </si>
+  <si>
+    <t>Thanks for your business! You’ve just helped keep my sarcasm processors running.</t>
+  </si>
+  <si>
+    <t>お買い上げどうも！\nおかげで、明日も皮肉プロセッサをぶん回せそう！</t>
+  </si>
+  <si>
+    <t>谢谢惠顾！你又给我的嘴贱系统多续了一天。</t>
+  </si>
+  <si>
+    <t>感謝惠顧！你又幫我的嘴砲系統多續了一天。</t>
+  </si>
+  <si>
+    <t>Obrigado pela preferência! Você acabou de ajudar a manter meus processadores de sarcasmo rodando.</t>
+  </si>
+  <si>
+    <t>¡Gracias por tu compra! Me has ayudado a mantener mis procesadores de sarcasmo.</t>
+  </si>
+  <si>
+    <t>Спасибо за покупку! Ты подпитываешь мои саркастичные процессоры.</t>
+  </si>
+  <si>
+    <t>UI_SHOP_NPC_THANKS_3</t>
+  </si>
+  <si>
+    <t>Ah, a satisfied customer! Or so my programming leads me to believe.</t>
+  </si>
+  <si>
+    <t>おお、ご満足いただけたようで！\n…少なくとも、プログラム上はそういう判定だけど。</t>
+  </si>
+  <si>
+    <t>哦豁，收获五星好评一枚！……至少我的程序是这么写的。</t>
+  </si>
+  <si>
+    <t>哦豁，收穫一枚五星好評！……至少程式是這麼寫的。</t>
+  </si>
+  <si>
+    <t>Eba, um cliente satistfeito! Pelo menos é o que a minha programação me diz.</t>
+  </si>
+  <si>
+    <t>¡Un cliente satisfecho! O eso quiero hacerme creer el programa...</t>
+  </si>
+  <si>
+    <t>А, покупатель доволен! Или, по крайней мере, так утверждает мой код.</t>
+  </si>
+  <si>
+    <t>UI_CURSOR_WINDOW_COSMETICS</t>
+  </si>
+  <si>
+    <t>Cursor Cosmetics</t>
+  </si>
+  <si>
+    <t>カーソル：コスメティック</t>
+  </si>
+  <si>
+    <t>鼠标指针皮肤</t>
+  </si>
+  <si>
+    <t>滑鼠指標皮膚</t>
+  </si>
+  <si>
+    <t>Cosméticos de Cursor</t>
+  </si>
+  <si>
+    <t>Cosméticos del cursor</t>
+  </si>
+  <si>
+    <t>Украшения курсора</t>
+  </si>
+  <si>
+    <t>UI_CURSOR_WINDOW_COSMETICS_DESC</t>
+  </si>
+  <si>
+    <t>Equip cosmetics here</t>
+  </si>
+  <si>
+    <t>カーソルの外観設定</t>
+  </si>
+  <si>
+    <t>在更换鼠标皮肤，让你的鼠标闪亮登场</t>
+  </si>
+  <si>
+    <t>更換滑鼠皮膚，讓你的滑鼠閃亮登場。</t>
+  </si>
+  <si>
+    <t>Equipe cosméticos aqui</t>
+  </si>
+  <si>
+    <t>Equipar cosméticos auí</t>
+  </si>
+  <si>
+    <t>Здесь можно приукрасить свой курсор</t>
+  </si>
+  <si>
+    <t>UI_CURSOR_WINDOW_WIDGET</t>
+  </si>
+  <si>
+    <t>组件</t>
+  </si>
+  <si>
+    <t>組件</t>
+  </si>
+  <si>
+    <t>UI_CURSOR_WINDOW_WIDGET_DESC</t>
+  </si>
+  <si>
+    <t>Starting items that you can bring along in the beginning of a run</t>
+  </si>
+  <si>
+    <t>スタート時点から持ち込めるアイテム。</t>
+  </si>
+  <si>
+    <t>开局就能带上的实用小玩意儿</t>
+  </si>
+  <si>
+    <t>開局就能攜帶的實用小工具。</t>
+  </si>
+  <si>
+    <t>Itens iniciais que você pode levar no começo de uma run</t>
+  </si>
+  <si>
+    <t>Empieza con items que te ayudaran desde el inicio de la partida</t>
+  </si>
+  <si>
+    <t>Стартовые предметы, которые можно взять с собой в начале забега</t>
+  </si>
+  <si>
+    <t>UI_CURSOR_WINDOW_MODIFIER</t>
+  </si>
+  <si>
+    <t>Modifiers</t>
+  </si>
+  <si>
+    <t>词缀</t>
+  </si>
+  <si>
+    <t>詞綴</t>
+  </si>
+  <si>
+    <t>Modificadores</t>
+  </si>
+  <si>
+    <t>Модификаторы</t>
+  </si>
+  <si>
+    <t>UI_CURSOR_WINDOW_MODIFIER_DESC</t>
+  </si>
+  <si>
+    <t>Modifiers lets you tweak Identifile to your playstyle</t>
+  </si>
+  <si>
+    <t>プレイスタイルに合わせて設定可能。</t>
+  </si>
+  <si>
+    <t>根据你的游玩风格自定义Identifile体验</t>
+  </si>
+  <si>
+    <t>根據你的遊玩風格，自訂 Identifile 體驗。</t>
+  </si>
+  <si>
+    <t>Modificadores te permitem ajustar Identifile para o seu estilo de jogo</t>
+  </si>
+  <si>
+    <t>Los modificadores te permiten cambiar Identifile a tu estilo de juego</t>
+  </si>
+  <si>
+    <t>Модификаторы позволяют настроить Identifile под свой стиль игры</t>
+  </si>
+  <si>
+    <t>UI_CURSOR_WINDOW_DIFFICULTY</t>
+  </si>
+  <si>
+    <t>Difficulties</t>
+  </si>
+  <si>
+    <t>難易度</t>
+  </si>
+  <si>
+    <t>难度设置</t>
+  </si>
+  <si>
+    <t>難度設定</t>
+  </si>
+  <si>
+    <t>Dificuldades</t>
+  </si>
+  <si>
+    <t>Dificultades</t>
+  </si>
+  <si>
+    <t>Сложность</t>
+  </si>
+  <si>
+    <t>UI_CURSOR_WINDOW_DIFFICULTY_DESC</t>
+  </si>
+  <si>
+    <t>Set difficulty level here</t>
+  </si>
+  <si>
+    <t>ここから難易度を変更できます。</t>
+  </si>
+  <si>
+    <t>在这里选择适合你的难度</t>
+  </si>
+  <si>
+    <t>選擇適合你的難度。</t>
+  </si>
+  <si>
+    <t>Defina o nível de dificuldade aqui</t>
+  </si>
+  <si>
+    <t>Selecciona tu dificultad aquí</t>
+  </si>
+  <si>
+    <t>Выберите уровень сложности</t>
+  </si>
+  <si>
+    <t>UI_CURSOR_WINDOW_DAILY_SEED</t>
+  </si>
+  <si>
+    <t>Daily Seed</t>
+  </si>
+  <si>
+    <t>デイリーシード</t>
+  </si>
+  <si>
+    <t>每日种子</t>
+  </si>
+  <si>
+    <t>每日種子</t>
+  </si>
+  <si>
+    <t>Seed Diária</t>
+  </si>
+  <si>
+    <t>Seed diaria</t>
+  </si>
+  <si>
+    <t>Seed дня</t>
+  </si>
+  <si>
+    <t>UI_CURSOR_WINDOW_DAILY_SEED_DESC</t>
+  </si>
+  <si>
+    <t>Set daily seed</t>
+  </si>
+  <si>
+    <t>デイリーシードの設定</t>
+  </si>
+  <si>
+    <t>设置每日种子</t>
+  </si>
+  <si>
+    <t>設定每日種子。</t>
+  </si>
+  <si>
+    <t>Definir seed diária</t>
+  </si>
+  <si>
+    <t>Selecciona tu seed diaria</t>
+  </si>
+  <si>
+    <t>Задать seed дня</t>
+  </si>
+  <si>
+    <t>UI_DIFFICULTY_1_DESC</t>
+  </si>
+  <si>
+    <t>Easy\nViruses -50% HP</t>
+  </si>
+  <si>
+    <t>Easy\nウイルス：HP-50％</t>
+  </si>
+  <si>
+    <t>简单\n病毒生命值减少50%</t>
+  </si>
+  <si>
+    <t>簡單\n病毒生命值減少 50%</t>
+  </si>
+  <si>
+    <t>Fácil\nVírus tem -50% HP</t>
+  </si>
+  <si>
+    <t>Fácil\nLos Virus tendrán -50% de Vida</t>
+  </si>
+  <si>
+    <t>Легко\nВирусы: -50% ОЗ</t>
+  </si>
+  <si>
+    <t>UI_DIFFICULTY_2_DESC</t>
+  </si>
+  <si>
+    <t>Normal\nRecommended difficulty</t>
+  </si>
+  <si>
+    <t>Normal\n推奨難易度</t>
+  </si>
+  <si>
+    <t>普通\n平衡模式，推荐难度</t>
+  </si>
+  <si>
+    <t>普通\n平衡模式，推薦難度。</t>
+  </si>
+  <si>
+    <t>Normal\nDificuldade recomendada</t>
+  </si>
+  <si>
+    <t>Normal\nDificultad Recomendada</t>
+  </si>
+  <si>
+    <t>Нормально\nРекомендуемая сложность</t>
+  </si>
+  <si>
+    <t>UI_DIFFICULTY_3_DESC</t>
+  </si>
+  <si>
+    <t>Hard\nViruses +25% HP &amp; +1 ATK</t>
+  </si>
+  <si>
+    <t>Hard\nウイルス：HP+25％、攻撃力+1</t>
+  </si>
+  <si>
+    <t>困难\n病毒生命值+25%且+1攻击力</t>
+  </si>
+  <si>
+    <t>困難\n病毒生命值 +25%，並附加 +1 攻擊力。</t>
+  </si>
+  <si>
+    <t>Difícil\nVírus tem +25% HP &amp; +1 ATK</t>
+  </si>
+  <si>
+    <t>Difícil\nLos Virus tendrán +25% de Vida y +1 de Ataque</t>
+  </si>
+  <si>
+    <t>Сложно\nВирусы: +25% ОЗ и +1 к атаке</t>
+  </si>
+  <si>
+    <t>UI_WIDGET_WINDOW_DESC</t>
+  </si>
+  <si>
+    <t>Widgets are starting items that players can bring along at the beginning of a new run.</t>
+  </si>
+  <si>
+    <t>ウィジェットとは、スタート時点から持ち込める初期アイテムのことです。</t>
+  </si>
+  <si>
+    <t>组件是每一次开局便能携带的道具</t>
+  </si>
+  <si>
+    <t>組件是每次開局便能攜帶的道具。</t>
+  </si>
+  <si>
+    <t>Widgets são itens iniciais que jogadores podem levar consigo no começo de cada run.</t>
+  </si>
+  <si>
+    <t>Widgets son items que puedes llevarte al inicio de tu partida</t>
+  </si>
+  <si>
+    <t>Виджеты – стартовые предметы, которые можно взять с собой в начале нового забега.</t>
+  </si>
+  <si>
+    <t>UI_WIDGET_WINDOW_SELECT_DESC</t>
+  </si>
+  <si>
+    <t>Select a Widget</t>
+  </si>
+  <si>
+    <t>ウィジェットの選択</t>
+  </si>
+  <si>
+    <t>选择一个组件</t>
+  </si>
+  <si>
+    <t>選擇一個組件。</t>
+  </si>
+  <si>
+    <t>Selecione um Widget</t>
+  </si>
+  <si>
+    <t>Selecciona un Widget</t>
+  </si>
+  <si>
+    <t>Выбор виджета</t>
+  </si>
+  <si>
+    <t>UI_SECRETS_DEMO_DESC</t>
+  </si>
+  <si>
+    <t>Unlock more secrets with data fragments.\n\nFeature is currently under development.\n\nNot available in Demo!</t>
+  </si>
+  <si>
+    <t>「データの断片」を使うことで\n解放可能。\nこの機能は現在開発中です。\nデモ版ではご利用いただけません。</t>
+  </si>
+  <si>
+    <t>用数据碎片\n解锁更多秘密。\n功能正在开发中。\n演示版暂不可用！</t>
+  </si>
+  <si>
+    <t>使用資料碎片\n解鎖更多祕密。\n功能開發中。\n試玩版暫不開放！</t>
+  </si>
+  <si>
+    <t>Desbloqueie mais segredos com fragmentos de dados.\n\nFuncionalidade ainda em desenvolvimento.\n\nIndisponível na Demo!</t>
+  </si>
+  <si>
+    <t>Desbloquea más secretos con fragmentos de datos.\n\nCaracterística en desarrollo.\n\n¡No disponible en la Demo!</t>
+  </si>
+  <si>
+    <t>Раскрывайте больше секретов, собирая фрагменты данных.\n\nФункция находится в разработке.\n\nНедоступно в демо!</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_DEMO_DESC</t>
+  </si>
+  <si>
+    <t>Database is where you explore every entry you have uncovered during your journey.\n\nFeature is currently under development.\n\nNot available in Demo!</t>
+  </si>
+  <si>
+    <t>データベースとは、これまでの探索で得た情報を閲覧できる場所です。\nこの機能は現在開発中です。\nデモ版では、一部の情報のみ閲覧できます。</t>
+  </si>
+  <si>
+    <t>数据库是你在旅程中\n发现的所有信息的归档地。\n功能正在开发中。\nDemo版暂不可用！</t>
+  </si>
+  <si>
+    <t>資料庫是你旅程中\n發現的所有資訊彙整地。\n功能開發中。\nDemo 版暫不開放！</t>
+  </si>
+  <si>
+    <t>O Banco de Dados é onde você pode explorar cada registro descoberto durante sua jornada.\n\nFuncionalidade em desenvolvimento\n\nIndisponível na Demo!</t>
+  </si>
+  <si>
+    <t>La Base de Datos es donde puedes explorar cada entrada que has desbloqueado durante tu aventura.\n\nCaracterística en Desarrollo.\n\n¡No disponible en la Demo!</t>
+  </si>
+  <si>
+    <t>База данных, где собраны все записи, найденные во время путешествия.\n\nФункция находится в разработке.\n\nНедоступно в демоверсии!</t>
+  </si>
+  <si>
+    <t>UI_DEATH_WISHLIST_DESC</t>
+  </si>
+  <si>
+    <t>More available in the full game! If you liked it, support us by wishlisting our game on steam :)</t>
+  </si>
+  <si>
+    <t>製品版では、さらに内容盛りだくさん！\nよかったら、Steamのウィッシュリストに入れて応援してください！</t>
+  </si>
+  <si>
+    <t>感谢试玩我们的Demo！\n喜欢的话记得在Steam上加入心愿单哦！</t>
+  </si>
+  <si>
+    <t>感謝試玩我們的 Demo！\n如果喜歡，記得在 Steam 上加入願望清單喔！</t>
+  </si>
+  <si>
+    <t>Tem mais disponível no jogo completo! Se você gostou, apoie a gente adicionando nosso jogo na lista de desejos da Steam :)</t>
+  </si>
+  <si>
+    <t>¡Más disponible en el juego completo! Si te ha gustado, apoyanos poniendo el juego en tu lista de deseados en steam :)</t>
+  </si>
+  <si>
+    <t>Больше контента – в полной версии! Если вам понравилось, поддержите нас, добавив игру в список желаемого в Steam :)</t>
+  </si>
+  <si>
+    <t>UI_QUIT_WISHLIST_DESC</t>
+  </si>
+  <si>
+    <t>Consider a wishlist :)\n\nWe hope you enjoyed the demo!\nIf you’d like to support us, please wishlist the game on Steam! It boosts our visibility and ensures you’re notified when we launch into Early Access. Also, join our Discord to chat with us and give us feedback on the game!</t>
+  </si>
+  <si>
+    <t>デモ版を遊んでいただき、ありがとうございます！\n応援していただけるようでしたら、ぜひ本作をウィッシュリストに追加してください。\n本作がSteamで見つけてもらいやすくなり、加えて、アーリーアクセス開始時にあなたの元へ通知が届くようになります。\nDiscordサーバーより、開発へのご意見・ご感想もお待ちしております！</t>
+  </si>
+  <si>
+    <t>帅哥美女考虑加个心愿单吧！\n\n感谢体验Alpha版！如果您喜欢这个游戏，请务必去我们的Steam页面添加至心愿单。\n这能提升我们在Steam上的曝光度，还能让您第一时间知道EA版上线消息！\n也欢迎加入我们的Discord群，直接跟我们交流反馈！</t>
+  </si>
+  <si>
+    <t>帥哥美女考慮加個願望清單吧！\n\n感謝體驗 Alpha 版！如果你喜歡這款遊戲，請一定到我們的 Steam 頁面加入願望清單。\n這能提升我們在 Steam 上的曝光度，也能讓你第一時間知道 EA 版上線消息！\n歡迎加入我們的 Discord 社群，直接跟製作組交流反饋！</t>
+  </si>
+  <si>
+    <t>Considere adicionar o jogo na lista de desejos :)\n\nEsperamos que tenha gostado da demo!\nSe quiser nos apoiar, adicione o jogo na sua lista de desejos da Steam! Isso amplia nossa visibilidade e permite que você seja notificado quando lançarmos nosso Acesso Antecipado. Além disso, entre no nosso Discord pra conversar com a gente e dar seu feedback sobre o game!</t>
+  </si>
+  <si>
+    <t>¡Esperamos que te haya gustado la demo!\nSi quieres apoyarnos, ¡Mete el juego en la lista de deseados en Steam! Aumenta nuestra visibilidad al resto del público y te notificará cuando saquemos el Acceso Anticipado. También, ¡Unete a nuestro Discord para hablar con nosotros y darnos tus opiniones del juego!</t>
+  </si>
+  <si>
+    <t>Добавьте игру в список желаемого :)\n\nНадеемся, вам понравилась демоверсия!\nЕсли хотите нас поддержать – добавьте игру в список желаемого в Steam! Это поможет нам стать заметнее и уведомит вас о выходе в ранний доступ. А еще загляните в наш Discord – там можно пообщаться с нами и оставить отзыв об игре!</t>
+  </si>
+  <si>
+    <t>UI_QUIT_WISHLIST_CONFIRMATION</t>
+  </si>
+  <si>
+    <t>Are you sure you want to quit?</t>
+  </si>
+  <si>
+    <t>本当に終了しますか？</t>
+  </si>
+  <si>
+    <t>真的要退出吗？</t>
+  </si>
+  <si>
+    <t>真的要退出嗎？</t>
+  </si>
+  <si>
+    <t>Tem certeza de que deseja sair?</t>
+  </si>
+  <si>
+    <t>¿Seguro que quieres salir?</t>
+  </si>
+  <si>
+    <t>Вы уверены, что хотите выйти?</t>
+  </si>
+  <si>
+    <t>UI_TUTORIAL_DIALOGUE_1</t>
+  </si>
+  <si>
+    <t>Uh-oh! Something just hijacked your PC and it’s not your average malware. INFECTED: 99%... SYSTEM CRITICAL</t>
+  </si>
+  <si>
+    <t>大変だ！何かにPCを乗っ取られた…しかも普通のマルウェアじゃない。感染率：99%…システムに重大な異常発生！</t>
+  </si>
+  <si>
+    <t>卧槽！病毒黑进了你的电脑，而且不是普通的病毒软件。感染进度：99%……系统严重错误</t>
+  </si>
+  <si>
+    <t>靠北！病毒入侵你的電腦啦，還不是普通那種。感染進度：99%……系統嚴重錯誤！</t>
+  </si>
+  <si>
+    <t>Ops! Alguma coisa invadiu seu PC e não é um malware qualquer. INFECTADO: 99%... FALHA CRÍTICA DE SISTEMA</t>
+  </si>
+  <si>
+    <t>¡Uh-oh! Algo ha hackeado tu PC y no es tu malware típico. INFECTADO: 99%... SISTEMA CRÍTICO</t>
+  </si>
+  <si>
+    <t>О-оу! Что-то только что взломало твой ПК, и это не обычный малварь. ИНФЕКЦИЯ: 99%... СИСТЕМА В КРИТИЧЕСКОМ СОСТОЯНИИ</t>
+  </si>
+  <si>
+    <t>UI_TUTORIAL_DIALOGUE_2</t>
+  </si>
+  <si>
+    <t>You’re about to become something... unexpected: the ultimate desktop cursor!</t>
+  </si>
+  <si>
+    <t>誰にも予想できなかった…いや、できるはずがなかった。まさか、キミが究極のマウスカーソルになるなんて！</t>
+  </si>
+  <si>
+    <t>你即将变成某种……意想不到的存在：究极鼠标指针！</t>
+  </si>
+  <si>
+    <t>你即將成為某種……意想不到的存在：究極滑鼠指標！</t>
+  </si>
+  <si>
+    <t>Você está prestes a se tornar algo... inesperado: o cursor de computador supremo!</t>
+  </si>
+  <si>
+    <t>Estás apunto de convertirte en algo... inesperado: ¡El definitivo cursor de escritorio!</t>
+  </si>
+  <si>
+    <t>Ты вот-вот станешь чем-то... неожиданным! – ультимативным курсором этой системы!</t>
+  </si>
+  <si>
+    <t>UI_TUTORIAL_DIALOGUE_3</t>
+  </si>
+  <si>
+    <t>Our antivirus system collapsed, it's up to you now to dive into the files and hunt the infection down!</t>
+  </si>
+  <si>
+    <t>ウイルス対策機能はダウン！ここからはキミの出番だ！ファイルの奥へと潜り、ウイルスたちを駆除しよう！</t>
+  </si>
+  <si>
+    <t>我们的杀毒系统已经崩溃，现在只能靠你深入文件系统，找到并清除所有病毒！</t>
+  </si>
+  <si>
+    <t>防毒系統已經崩潰，只能靠你深入檔案系統，找出並清除所有病毒！</t>
+  </si>
+  <si>
+    <t>Nosso sistema de antivírus colapsou, cabe a você navegar pelos arquivos e abater as infecções!</t>
+  </si>
+  <si>
+    <t>Nuestro sistema de antivirus ha colapsado, está en tus manos, ahora.. ¡Explora tus archivos y caza los virus!</t>
+  </si>
+  <si>
+    <t>Наша антивирусная система рухнула. Теперь все зависит от тебя – погрузись в файлы и выследи инфекцию!</t>
+  </si>
+  <si>
+    <t>UI_TUTORIAL_DIALOGUE_4</t>
+  </si>
+  <si>
+    <t>Hold your Left Click / 'X' to draw loops around the virus to deal damage!</t>
+  </si>
+  <si>
+    <t>左クリックか「X」を長押しして、ウイルスの周りをぐるっと線で囲んでみて！</t>
+  </si>
+  <si>
+    <t>长按左键或 'X' 键画圈，圈住病毒来造成伤害！</t>
+  </si>
+  <si>
+    <t>長按滑鼠左鍵或「X」鍵畫圈，圈住病毒造成傷害！</t>
+  </si>
+  <si>
+    <t>Segure o Clique Esquerdo / 'X' para desenhar círculos ao redor dos vírus e causar dano!</t>
+  </si>
+  <si>
+    <t>¡Mantén tu Click Izquierdo / 'X' para dibujar círculos alrededor de los virus para hacerles daño!</t>
+  </si>
+  <si>
+    <t>Зажми ЛКМ / «X» и обведи вирус курсором, чтобы нанести урон!</t>
+  </si>
+  <si>
+    <t>UI_TUTORIAL_DIALOGUE_5</t>
+  </si>
+  <si>
+    <t>Oh look how convenient, a virus lurking in plain sight. Think you can take it down?</t>
+  </si>
+  <si>
+    <t>ん？ウイルスが出てきたね。ちょうどいい！まずはこいつで試してみよう。</t>
+  </si>
+  <si>
+    <t>哎呀，真巧，这里正好有个落单的病毒。怎么样，你有信心干掉它吗？</t>
+  </si>
+  <si>
+    <t>哎呀，正好有隻落單的病毒。怎樣，有信心幹掉它嗎？</t>
+  </si>
+  <si>
+    <t>Olha que conveniente, um vírus 'escondido' na frente de todo mundo. Acha que consegue derrubá-lo?</t>
+  </si>
+  <si>
+    <t>Oh, mira que conveniente, un virus. ¿Crees que puedes vencerlo?</t>
+  </si>
+  <si>
+    <t>О, как удобно – вирус у нас прямо перед глазами. Как думаешь, справишься?</t>
+  </si>
+  <si>
+    <t>UI_TUTORIAL_DIALOGUE_6</t>
+  </si>
+  <si>
+    <t>Nice work! Remember: You are the cursor. You take any damage if attacks highlighted in red touches you!</t>
+  </si>
+  <si>
+    <t>ナイス！もうひとつ、覚えておいて。キミはカーソルそのもの。だから、赤く光っている攻撃に触れると、ダメージを受けてしまう。</t>
+  </si>
+  <si>
+    <t>干得漂亮！请注意：你是个鼠标指针。只要被红色高亮攻击碰到，就会扣血！</t>
+  </si>
+  <si>
+    <t>漂亮！提醒一下：你是個滑鼠指標。只要被紅色高亮攻擊碰到，就會扣血喔！</t>
+  </si>
+  <si>
+    <t>Bom trabalho! Lembre-se: Você é o cursor. Ataques destacados em vermelho te dão dano caso encostem em você!</t>
+  </si>
+  <si>
+    <t>¡Buen Trabajo! Recuerda: TÚ eres el cursor. ¡Recibirás daño si los ataques resaltados en rojo te tocan!</t>
+  </si>
+  <si>
+    <t>Отличная работа! Запомни: ты – курсор. Если атаки, подсвеченные красным, коснутся тебя – ты получишь урон!</t>
+  </si>
+  <si>
+    <t>UI_TUTORIAL_DIALOGUE_7</t>
+  </si>
+  <si>
+    <t>WATCH OUT! Dodge incoming threats and stay calm!</t>
+  </si>
+  <si>
+    <t>来るよ！落ち着いて、敵の攻撃を避けるんだ！</t>
+  </si>
+  <si>
+    <t>小心！前方有敌人，保持冷静，注意闪避！</t>
+  </si>
+  <si>
+    <t>小心！前方有敵人，保持冷靜，注意閃避！</t>
+  </si>
+  <si>
+    <t>CUIDADO! Esquive das ameaças e mantenha-se calmo!</t>
+  </si>
+  <si>
+    <t>¡Cuidado! Esquiva las amenazas y mantente en calma</t>
+  </si>
+  <si>
+    <t>ПОБЕРЕГИСЬ! Уворачивайся от атак и сохраняй спокойствие!</t>
+  </si>
+  <si>
+    <t>UI_TUTORIAL_DIALOGUE_8</t>
+  </si>
+  <si>
+    <t>I'm picking up interference.. by someone or something.. be careful... out there..</t>
+  </si>
+  <si>
+    <t>通信妨害だ…電波の発信源は不明…その先…気をつけて……</t>
+  </si>
+  <si>
+    <t>我探测到了干扰信号……不知道是什么人或什么东西造成的……在外面……千万小心……</t>
+  </si>
+  <si>
+    <t>我偵測到干擾訊號……不知道是誰或什麼東西造成的……在外面……千萬小心……</t>
+  </si>
+  <si>
+    <t>Estou captando interferência... de alguém... ou de alguma coisa... Cuidado... aí fora..</t>
+  </si>
+  <si>
+    <t>Estoy teniendo interferencias.. De alguien o algo.. Ten cuidado.. Ahí fuera..</t>
+  </si>
+  <si>
+    <t>Ловлю помехи.. кто-то.. что-то.. вмешивается в сигнал... осторожнее.. там..</t>
+  </si>
+  <si>
+    <t>UI_TUTORIAL_CLICK</t>
+  </si>
+  <si>
+    <t>Click anywhere to continue</t>
+  </si>
+  <si>
+    <t>クリックして続ける</t>
+  </si>
+  <si>
+    <t>点击任意位置继续</t>
+  </si>
+  <si>
+    <t>點擊任意位置繼續。</t>
+  </si>
+  <si>
+    <t>Clique em qualquer lugar para continuar</t>
+  </si>
+  <si>
+    <t>Click en cualquier lugar para continuar</t>
+  </si>
+  <si>
+    <t>Кликни, чтобы продолжить</t>
+  </si>
+  <si>
+    <t>UI_TUTORIAL_EXE_HINT</t>
+  </si>
+  <si>
+    <t>You just picked up an EXE!\nEXEs are items with limited charges that can be seen in the EXE window on the bottom right.\nRight Click / Z to activate the EXE, some only works in combat!</t>
+  </si>
+  <si>
+    <t>EXEを入手しました！\nEXEは使用回数が限られたアイテムで、画面右下のEXEウィンドウから確認できます。\n右クリックか「Z」で発動可能。なお、戦闘中でしか使えないEXEもあります。</t>
+  </si>
+  <si>
+    <t>你刚拾取了一个应用程序文件！\n应用程序文件是有使用次数限制的物品，可以在右下角的应用程序文件窗口中查看。\n点击右键或按下 Z 键可激活应用程务文件，其中有些物品只能在战斗中使用！</t>
+  </si>
+  <si>
+    <t>你剛撿到了一個應用程式檔案！\n應用程式是有使用次數限制的道具，可在右下角的應用程式介面中查看。\n右鍵點擊或按下 Z 鍵可啟動，有些只能在戰鬥中使用！</t>
+  </si>
+  <si>
+    <t>Você acabou de pegar um EXE!\nEXEs são itens com usos limitados que podem ser vistos na Janela EXE no canto inferior direito.\nBotão Direito / Z para ativar o EXE, alguns só funcionam em combate!</t>
+  </si>
+  <si>
+    <t>¡Has obtenido un EXE!\nEXEs son items con cargas limitadas que pueden verse en la pestaña 'EXE' en la parte inferior derecha.\nClick Derecho / Z para activar el EXE. ¡Algunos solo funcionarán en un combate!</t>
+  </si>
+  <si>
+    <t>Вы подобрали EXE!\nEXE – это предметы с ограниченным числом зарядов. Их можно увидеть в окне EXE в правом нижнем углу экрана.\nНажмите ПКМ / Z, чтобы активировать EXE. Некоторые из них работают только в бою!</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_HEADER_1</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_HEADER_2</t>
+  </si>
+  <si>
+    <t>EXEs</t>
+  </si>
+  <si>
+    <t>应用程序文件</t>
+  </si>
+  <si>
+    <t>應用程式檔案</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_HEADER_3</t>
+  </si>
+  <si>
+    <t>Viruses</t>
+  </si>
+  <si>
+    <t>ウイルス</t>
+  </si>
+  <si>
+    <t>病毒</t>
+  </si>
+  <si>
+    <t>Vírus</t>
+  </si>
+  <si>
+    <t>Virus</t>
+  </si>
+  <si>
+    <t>Вирусы</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_HEADER_4</t>
+  </si>
+  <si>
+    <t>Drives</t>
+  </si>
+  <si>
+    <t>ドライブ</t>
+  </si>
+  <si>
+    <t>驱动器</t>
+  </si>
+  <si>
+    <t>磁碟機</t>
+  </si>
+  <si>
+    <t>Discos</t>
+  </si>
+  <si>
+    <t>Диски</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_HEADER_5</t>
+  </si>
+  <si>
+    <t>Cursor Statistics</t>
+  </si>
+  <si>
+    <t>統計：カーソル</t>
+  </si>
+  <si>
+    <t>鼠标统计数据</t>
+  </si>
+  <si>
+    <t>滑鼠統計資料</t>
+  </si>
+  <si>
+    <t>Estatísticas do Cursor</t>
+  </si>
+  <si>
+    <t>Estadísticas del Cursor</t>
+  </si>
+  <si>
+    <t>Статистика курсора</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_HEADER_6</t>
+  </si>
+  <si>
+    <t>Cosmetics</t>
+  </si>
+  <si>
+    <t>コスメティック</t>
+  </si>
+  <si>
+    <t>皮肤</t>
+  </si>
+  <si>
+    <t>皮膚</t>
+  </si>
+  <si>
+    <t>Cosméticos</t>
+  </si>
+  <si>
+    <t>Украшения</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_HEADER_7</t>
+  </si>
+  <si>
+    <t>Achievements</t>
+  </si>
+  <si>
+    <t>実績</t>
+  </si>
+  <si>
+    <t>成就</t>
+  </si>
+  <si>
+    <t>Conquistas</t>
+  </si>
+  <si>
+    <t>Logros</t>
+  </si>
+  <si>
+    <t>Достижения</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_HEADER_8</t>
+  </si>
+  <si>
+    <t>General Statistics</t>
+  </si>
+  <si>
+    <t>統計：全体</t>
+  </si>
+  <si>
+    <t>总体统计数据</t>
+  </si>
+  <si>
+    <t>總體統計資料</t>
+  </si>
+  <si>
+    <t>Estatísticas Gerais</t>
+  </si>
+  <si>
+    <t>Estadísticas Generales</t>
+  </si>
+  <si>
+    <t>Общая статистика</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_HEADER_9</t>
+  </si>
+  <si>
+    <t>Play History</t>
+  </si>
+  <si>
+    <t>プレイ記録</t>
+  </si>
+  <si>
+    <t>游玩历史记录</t>
+  </si>
+  <si>
+    <t>遊玩紀錄</t>
+  </si>
+  <si>
+    <t>Histórico de Jogo</t>
+  </si>
+  <si>
+    <t>Historial del Juego</t>
+  </si>
+  <si>
+    <t>История игр</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_MOD_DESC_UNDISCOVERED</t>
+  </si>
+  <si>
+    <t>This modifier has not been obtained yet.</t>
+  </si>
+  <si>
+    <t>このMODはまだ入手していません。</t>
+  </si>
+  <si>
+    <t>尚未获得此模组。</t>
+  </si>
+  <si>
+    <t>尚未獲得此模組。</t>
+  </si>
+  <si>
+    <t>Este modificador ainda não foi obtido.</t>
+  </si>
+  <si>
+    <t>No has obtenido este modificador todavía</t>
+  </si>
+  <si>
+    <t>Этот модификатор еще не получен.</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_EXE_DESC_UNDISCOVERED</t>
+  </si>
+  <si>
+    <t>This EXE has not been obtained yet.</t>
+  </si>
+  <si>
+    <t>このEXEはまだ入手していません。</t>
+  </si>
+  <si>
+    <t>尚未获得该可执行文件。</t>
+  </si>
+  <si>
+    <t>尚未獲得此執行檔。</t>
+  </si>
+  <si>
+    <t>Esse EXE ainda não foi obtido.</t>
+  </si>
+  <si>
+    <t>No has obtenido este exe todavía</t>
+  </si>
+  <si>
+    <t>Этот EXE еще не получен.</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_VIRUS_DESC_UNDISCOVERED</t>
+  </si>
+  <si>
+    <t>This virus has not been identified yet.</t>
+  </si>
+  <si>
+    <t>このウイルスはまだ検出していません。</t>
+  </si>
+  <si>
+    <t>尚未识别该病毒。</t>
+  </si>
+  <si>
+    <t>尚未識別該病毒。</t>
+  </si>
+  <si>
+    <t>Este vírus ainda não foi identificado.</t>
+  </si>
+  <si>
+    <t>No has identificado este virus todavía</t>
+  </si>
+  <si>
+    <t>Этот вирус еще не идентифицирован.</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_DRIVE_DESC_UNDISCOVERED</t>
+  </si>
+  <si>
+    <t>This drive has not been explored yet.</t>
+  </si>
+  <si>
+    <t>このドライブはまだ調べたことがありません。</t>
+  </si>
+  <si>
+    <t>尚未探索该盘。</t>
+  </si>
+  <si>
+    <t>尚未探索該磁碟。</t>
+  </si>
+  <si>
+    <t>Este drive ainda não foi explorado.</t>
+  </si>
+  <si>
+    <t>Este disco no se ha explorado todavía</t>
+  </si>
+  <si>
+    <t>Этот диск еще не исследован.</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_DEMO_DESC_LOCKED</t>
+  </si>
+  <si>
+    <t>Coming soon in future patches.</t>
+  </si>
+  <si>
+    <t>今後のパッチで実装予定です。</t>
+  </si>
+  <si>
+    <t>将咋未来版本中开放。</t>
+  </si>
+  <si>
+    <t>將於未來版本開放。</t>
+  </si>
+  <si>
+    <t>Em breve em um update futuro.</t>
+  </si>
+  <si>
+    <t>Disponible en futuras actualizaciones</t>
+  </si>
+  <si>
+    <t>Скоро в будущих патчах.</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_DRIVE_NAME_1</t>
+  </si>
+  <si>
+    <t>C:/</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_DRIVE_DESC_1</t>
+  </si>
+  <si>
+    <t>An iconic time in the past when technology started to feel like a natural extension of the world around us.</t>
+  </si>
+  <si>
+    <t>テクノロジーが暮らしに自然と溶け込み始めた、あの象徴的な時代。</t>
+  </si>
+  <si>
+    <t>那是一段辉煌的往昔。彼时，科技已悄然融入，不再是冰冷的造物，而仿佛化作了我们感知世界的天然触须。</t>
+  </si>
+  <si>
+    <t>那是一段輝煌的過往。彼時，科技早已融入生活，不再冰冷，而成為我們感知世界的延伸。</t>
+  </si>
+  <si>
+    <t>Uma época icônica do passado, quando a tecnologia começou a parecer uma extensão natural do mundo ao nosso redor.</t>
+  </si>
+  <si>
+    <t>Un momento memorable del pasado de cuando la tecnología empezó a ser una extensión del mundo a nuestro alrededor.</t>
+  </si>
+  <si>
+    <t>Эпоха, когда технологии впервые стали естественным продолжением окружающего мира.</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_DRIVE_NAME_2</t>
+  </si>
+  <si>
+    <t>D:/</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_DRIVE_DESC_2</t>
+  </si>
+  <si>
+    <t>A rugged time in the earlier days that feels like exploring an uncharted territory, representing time of discovery and adventure</t>
+  </si>
+  <si>
+    <t>まるで未踏の地を探検しているかのような、発見と冒険を象徴する時代。</t>
+  </si>
+  <si>
+    <t>那是一段蛮荒而坚韧的拓荒岁月。每一次前行，都仿佛踏足无人涉足的疆域，那是一个属于发现与冒险的壮阔征程。</t>
+  </si>
+  <si>
+    <t>那是艱辛卻堅毅的開拓時代。每一步前進，都像踏入無人之境，那是屬於發現與冒險的壯闊篇章。</t>
+  </si>
+  <si>
+    <t>Uma época dura dos primórdios que parecia como explorar um território desconhecido, representando um tempo de descobertas e aventura</t>
+  </si>
+  <si>
+    <t>Una época escabrosa, donde en días tempranos se sintio como explorar un lugar desconocido, representando descubrimiento y aventura.</t>
+  </si>
+  <si>
+    <t>Суровые первые дни – ощущение неизведанных территорий, время открытий и цифровых приключений.</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_DRIVE_NAME_3</t>
+  </si>
+  <si>
+    <t>E:/</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_DRIVE_DESC_3</t>
+  </si>
+  <si>
+    <t>A time when humanity reached for the clouds not just with machines, but with dreams.</t>
+  </si>
+  <si>
+    <t>雲へ向かう手に、機械だけでなく夢も宿っていた時代。</t>
+  </si>
+  <si>
+    <t>彼时，凡人问鼎苍穹，所凭借的，不只是冰冷的机械，更是胸中滚烫的梦想。</t>
+  </si>
+  <si>
+    <t>彼時，凡人問鼎蒼穹，所倚靠的，不只是冷冽的機械，更是胸中滾燙的夢想。</t>
+  </si>
+  <si>
+    <t>Uma época em que a humanidade alcançou as nuvens não só com máquinas, mas com sonhos.</t>
+  </si>
+  <si>
+    <t>La época cuando la humanidad alcanzó las nubes no solamente con máquinas, sino también con sueños</t>
+  </si>
+  <si>
+    <t>Эпоха, когда человечество тянулось к облакам не только машинами, но и мечтами.</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_DRIVE_NAME_4</t>
+  </si>
+  <si>
+    <t>F:/</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_DRIVE_DESC_4</t>
+  </si>
+  <si>
+    <t>This is the age of the digital ghost in the machine… a neon-drenched future where flesh and circuit blur into one</t>
+  </si>
+  <si>
+    <t>機械にデジタル・ゴーストが宿る時代…ネオンに染まる未来で、肉と回路はその境目を失い、やがてひとつに融け合う。</t>
+  </si>
+  <si>
+    <t>这便是……栖于机骸的数字幽魂的纪元。一个被霓虹濡湿的未来，于此，血肉与硅晶的界限悄然消弭。</t>
+  </si>
+  <si>
+    <t>這是……棲於機骸的數位幽魂紀元。那個被霓虹濡濕的未來，血肉與晶片的界線早已模糊。</t>
+  </si>
+  <si>
+    <t>Esta é a era do fantasma na máquina... um futuro banhado em neon onde carne e circuitos se confundem</t>
+  </si>
+  <si>
+    <t>Esta es la era del fantasma digital en la máquina… un futuro bañado de neón donde carne y circuito se funden en uno solo.</t>
+  </si>
+  <si>
+    <t>Эпоха цифрового призрака, затерянного внутри машины... неонового будущего, где плоть и схема сливаются воедино</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_DRIVE_NAME_5</t>
+  </si>
+  <si>
+    <t>X:/</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_DRIVE_DESC_5</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>（現在開発中）</t>
+  </si>
+  <si>
+    <t>Em Desenvolvimento</t>
+  </si>
+  <si>
+    <t>En Desarrollo...</t>
+  </si>
+  <si>
+    <t>UI_LEVEL_COMPLETE_TITLE</t>
+  </si>
+  <si>
+    <t>TO BE CONTINUED</t>
+  </si>
+  <si>
+    <t>未完待续</t>
+  </si>
+  <si>
+    <t>未完待續</t>
+  </si>
+  <si>
+    <t>CONTINUA</t>
+  </si>
+  <si>
+    <t>CONTINUARÁ</t>
+  </si>
+  <si>
+    <t>ПРОДОЛЖЕНИЕ СЛЕДУЕТ</t>
+  </si>
+  <si>
+    <t>UI_LEVEL_COMPLETE_TITLE_2</t>
+  </si>
+  <si>
+    <t>YOU DIED :(</t>
+  </si>
+  <si>
+    <t>デリートされました :(</t>
+  </si>
+  <si>
+    <t>你死了 :(</t>
+  </si>
+  <si>
+    <t>FOI DE ARRASTA :(</t>
+  </si>
+  <si>
+    <t>HAS MUERTO :(</t>
+  </si>
+  <si>
+    <t>ТЫ УМЕР :(</t>
+  </si>
+  <si>
+    <t>UI_LEVEL_COMPLETE_CURSOR_LABEL</t>
+  </si>
+  <si>
+    <t>CURSOR</t>
+  </si>
+  <si>
+    <t>カーソルの種類</t>
+  </si>
+  <si>
+    <t>鼠标</t>
+  </si>
+  <si>
+    <t>滑鼠</t>
+  </si>
+  <si>
+    <t>КУРСОР</t>
+  </si>
+  <si>
+    <t>UI_LEVEL_COMPLETE_DRIVE_LABEL</t>
+  </si>
+  <si>
+    <t>DRIVE</t>
+  </si>
+  <si>
+    <t>到達したドライブ</t>
+  </si>
+  <si>
+    <t>DISCO</t>
+  </si>
+  <si>
+    <t>ДИСК</t>
+  </si>
+  <si>
+    <t>UI_LEVEL_COMPLETE_TIME_LABEL</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>タイム</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>時間</t>
+  </si>
+  <si>
+    <t>TEMPO</t>
+  </si>
+  <si>
+    <t>TIEMPO</t>
+  </si>
+  <si>
+    <t>ВРЕМЯ</t>
+  </si>
+  <si>
+    <t>UI_LEVEL_COMPLETE_IDENTIFIED_LABEL</t>
+  </si>
+  <si>
+    <t>IDENTIFIED</t>
+  </si>
+  <si>
+    <t>検出した数</t>
+  </si>
+  <si>
+    <t>已识别</t>
+  </si>
+  <si>
+    <t>已識別</t>
+  </si>
+  <si>
+    <t>IDENTIFICADO</t>
+  </si>
+  <si>
+    <t>ИДЕНТИФИЦИРОВАНО</t>
+  </si>
+  <si>
+    <t>UI_LEVEL_COMPLETE_DATA_FRAG_LABEL</t>
+  </si>
+  <si>
+    <t>DATA FRAG</t>
+  </si>
+  <si>
+    <t>データの断片</t>
+  </si>
+  <si>
+    <t>数据碎片</t>
+  </si>
+  <si>
+    <t>資料碎片</t>
+  </si>
+  <si>
+    <t>FRAG DE DADOS</t>
+  </si>
+  <si>
+    <t>FRAGMENTO DE DATOS</t>
+  </si>
+  <si>
+    <t>ФРАГМЕНТЫ ДАННЫХ</t>
+  </si>
+  <si>
+    <t>UI_LEVEL_COMPLETE_KILLED_BY_LABEL</t>
+  </si>
+  <si>
+    <t>KILLED BY</t>
+  </si>
+  <si>
+    <t>最後に遭遇したウイルス</t>
+  </si>
+  <si>
+    <t>死于</t>
+  </si>
+  <si>
+    <t>死於</t>
+  </si>
+  <si>
+    <t>MORTO POR</t>
+  </si>
+  <si>
+    <t>MUERTO POR</t>
+  </si>
+  <si>
+    <t>ПРИЧИНА СМЕРТИ</t>
+  </si>
+  <si>
+    <t>UI_LEVEL_COMPLETE_RESTART_BTN</t>
+  </si>
+  <si>
+    <t>RESTART</t>
+  </si>
+  <si>
+    <t>リスタート</t>
+  </si>
+  <si>
+    <t>重新开始</t>
+  </si>
+  <si>
+    <t>重新開始</t>
+  </si>
+  <si>
+    <t>REINICIAR</t>
+  </si>
+  <si>
+    <t>НАЧАТЬ ЗАНОВО</t>
+  </si>
+  <si>
+    <t>UI_LEVEL_COMPLETE_EXIT_BTN</t>
+  </si>
+  <si>
+    <t>EXIT TO MENU</t>
+  </si>
+  <si>
+    <t>メニュー画面に戻る</t>
+  </si>
+  <si>
+    <t>返回菜单</t>
+  </si>
+  <si>
+    <t>返回選單</t>
+  </si>
+  <si>
+    <t>SAIR PARA MENU</t>
+  </si>
+  <si>
+    <t>SALIR AL MENÚ</t>
+  </si>
+  <si>
+    <t>ВЫЙТИ В МЕНЮ</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_SPAWN_1</t>
+  </si>
+  <si>
+    <t>Bro this shop loop is so cringe!</t>
+  </si>
+  <si>
+    <t>このショップのBGM、永遠にループしてて地獄なんだけど！</t>
+  </si>
+  <si>
+    <t>铁子，这商店的循环音乐也太TM尬了！</t>
+  </si>
+  <si>
+    <t>兄弟，這商店的循環音樂也太尬了吧！</t>
+  </si>
+  <si>
+    <t>Mano esse loop da loja é cringe</t>
+  </si>
+  <si>
+    <t>¡Hermano, este bucle de la tienda da tanto cringe!</t>
+  </si>
+  <si>
+    <t>Бро, этот магазинный трек – полный кринж!</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_SPAWN_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAAAAAAAAAAA IM CRASHING OUT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">きゃあああーっ！！クラッシュする！！！ </t>
+  </si>
+  <si>
+    <t>啊啊啊啊啊啊我要蚌埠住了！</t>
+  </si>
+  <si>
+    <t>啊啊啊啊啊我真的要崩潰啦！</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAA TOU TRAVANDO</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAA ESTOY CRASHEANDO</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAA Я СЕЙЧАС КРАШНУСЬ</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_SPAWN_3</t>
+  </si>
+  <si>
+    <t>It's 2025, I need to touch some grass.</t>
+  </si>
+  <si>
+    <t>もう2025年か…そろそろ外に出ないとな</t>
+  </si>
+  <si>
+    <t>都2025年了，我真该出门治治社恐了。</t>
+  </si>
+  <si>
+    <t>都 2025 年了，我真的該出門治治社恐了。</t>
+  </si>
+  <si>
+    <t>É 2025, preciso tocar numa grama.</t>
+  </si>
+  <si>
+    <t>Es 2025, necesito tocar hierba</t>
+  </si>
+  <si>
+    <t>На дворе 2к25, пора уже выйти потрогать траву.</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_SPAWN_4</t>
+  </si>
+  <si>
+    <t>CRITICAL ERROR.. GENZ VIRUS DETECTED!</t>
+  </si>
+  <si>
+    <t>重大なエラー。Z世代ウイルスを検出！</t>
+  </si>
+  <si>
+    <t>致命错误... 检测到00后病毒！</t>
+  </si>
+  <si>
+    <t>致命錯誤……檢測到 00 後病毒！</t>
+  </si>
+  <si>
+    <t>ERRO CRÍTICO... VÍRUS GENZ DETECTADO!</t>
+  </si>
+  <si>
+    <t>ERROR CRÍTICO.. ¡VIRUS GENZ  DETECTADO!</t>
+  </si>
+  <si>
+    <t>КРИТИЧЕСКАЯ ОШИБКА... ОБНАРУЖЕН ЗУМЕРСКИЙ ВИРУС!</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_DEATH_1</t>
+  </si>
+  <si>
+    <t>CHAT WAS TOO BUSY SPAMMING 'L + RATIO'. I just wanted to make people happy…</t>
+  </si>
+  <si>
+    <t>チャット欄が炎上してる…ワタシはただ、みんなを幸せにしたかっただけなのに…</t>
+  </si>
+  <si>
+    <t>弹幕全在刷“你寄了”+“你不行”。我只是想让大家开心一点啊……</t>
+  </si>
+  <si>
+    <t>彈幕全在刷「你寄了」+「你不行」。我只是想讓大家開心一點啊……</t>
+  </si>
+  <si>
+    <t>CHAT TAVA SPAMMANDO `FLOP`. Eu só queria fazer as pessoas felizes…</t>
+  </si>
+  <si>
+    <t>CHAT ESTABA MUY OCUPADO SPAMEANDO 'L + RATIO': Yo solo quería hacer feliz a la gente</t>
+  </si>
+  <si>
+    <t>ЧАТТЕРСЫ ЗАСПАМИЛИ  «ОФАЙ С ПОЗОРОМ». А мне ведь посто хотелось сделать людей счастливыми...</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_HAPPY_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THANK YOU FOR THE BITS CHAT!!! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">投げ銭ありがとー！！！みんな、愛してるぜ！！ </t>
+  </si>
+  <si>
+    <t>感谢观众老爷们刷的礼物！！！</t>
+  </si>
+  <si>
+    <t>感謝觀眾老爺們的禮物！！！</t>
+  </si>
+  <si>
+    <t>VALEU PELOS BITS CHAT!!!</t>
+  </si>
+  <si>
+    <t>¡¡¡GRACIAS POR LOS BITS CHAT!!!</t>
+  </si>
+  <si>
+    <t>СПАСИБО ЗА БИТСЫ, ЧАТ!!!</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_HAPPY_2</t>
+  </si>
+  <si>
+    <t>Y'ALL ARE THE REAL MVPS!! NO CAP</t>
+  </si>
+  <si>
+    <t>おまいら、ガチで全員優勝！！ ！</t>
+  </si>
+  <si>
+    <t>你们才是真正的MVP！！不带虚的！</t>
+  </si>
+  <si>
+    <t>你們才是真正的 MVP！！不開玩笑的！</t>
+  </si>
+  <si>
+    <t>VCS SÃO TOP!!! SEM ZUERA</t>
+  </si>
+  <si>
+    <t>¡USTEDES SON LOS VERDADEROS MVP! ¡SIN MENTIRAS!</t>
+  </si>
+  <si>
+    <t>ВЫ РЕАЛЬНО ЛЕГЕНДЫ!! БЕЗ Б!</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_SAD_1</t>
+  </si>
+  <si>
+    <t>WHY U NOT SUBSCRIBED YET!? I'M LITERALLY BEGGING RN</t>
+  </si>
+  <si>
+    <t>なんでまだ登録してないの！？お願い、何でもするからぁ！</t>
+  </si>
+  <si>
+    <t>为什么你还没上舰啊！？我真是在求你们了啊！</t>
+  </si>
+  <si>
+    <t>為什麼你還沒上艦啊！？我真的是在求你們了啊！</t>
+  </si>
+  <si>
+    <t>PQ NÃO SE INSCREVEU AINDA!? EU TOU IMPLORANDO TLGD</t>
+  </si>
+  <si>
+    <t>¿POR QUÉ NO ESTÁS SUSCRITO? LITERALMENTE TE LO ESTOY PIDIENDO</t>
+  </si>
+  <si>
+    <t>ПОЧЕМУ ТЫ ЕЩЕ НЕ ПОДПИСАН!? Я ЧЕРТ ВОЗЬМИ УМОЛЯЮ</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_SCARY_1</t>
+  </si>
+  <si>
+    <t>!@JK%RH!L@KASDlKASJD@!HU(#)!</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_SMUG_1</t>
+  </si>
+  <si>
+    <t>CHAT! PLS SEND EMOTES</t>
+  </si>
+  <si>
+    <t>みんな！エモートぷりーず！</t>
+  </si>
+  <si>
+    <t>观众老爷们刷点弹幕吧</t>
+  </si>
+  <si>
+    <t>觀眾老爺們刷點彈幕吧～</t>
+  </si>
+  <si>
+    <t>CHAT! PLS MANDA EMOTE</t>
+  </si>
+  <si>
+    <t>¡CHAT! ¡ENVIAR EMOTES!</t>
+  </si>
+  <si>
+    <t>ЧАТ! ЗАСПАМЬТЕ ВСЕ СМАЙЛИКАМИ</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_SMUG_PROJ_1</t>
+  </si>
+  <si>
+    <t>POGGERS</t>
+  </si>
+  <si>
+    <t>ｷﾀ━(・∀・)━!!!!</t>
+  </si>
+  <si>
+    <t>666牛逼</t>
+  </si>
+  <si>
+    <t>666 牛逼</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_SMUG_PROJ_2</t>
+  </si>
+  <si>
+    <t>bro how???</t>
+  </si>
+  <si>
+    <t>どゆこと？？？</t>
+  </si>
+  <si>
+    <t>哥们儿这都行？？？</t>
+  </si>
+  <si>
+    <t>哥們這都行？？？</t>
+  </si>
+  <si>
+    <t>mano como???</t>
+  </si>
+  <si>
+    <t>Hermano ¿Cómo?</t>
+  </si>
+  <si>
+    <t>бро как???</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_SMUG_PROJ_3</t>
+  </si>
+  <si>
+    <t>he's cooked</t>
+  </si>
+  <si>
+    <t>詰んだな</t>
+  </si>
+  <si>
+    <t>他G了</t>
+  </si>
+  <si>
+    <t>他掛了</t>
+  </si>
+  <si>
+    <t>ele foi de base</t>
+  </si>
+  <si>
+    <t>Está cooked</t>
+  </si>
+  <si>
+    <t>тильтанул</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_SMUG_PROJ_4</t>
+  </si>
+  <si>
+    <t>Ratio'd</t>
+  </si>
+  <si>
+    <t>公開処刑</t>
+  </si>
+  <si>
+    <t>被骑脸了</t>
+  </si>
+  <si>
+    <t>被騎臉了</t>
+  </si>
+  <si>
+    <t>Flopou</t>
+  </si>
+  <si>
+    <t>переигран</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_SMUG_PROJ_5</t>
+  </si>
+  <si>
+    <t>AYAYA</t>
+  </si>
+  <si>
+    <t>かわE</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_SMUG_PROJ_6</t>
+  </si>
+  <si>
+    <t>MONKAW</t>
+  </si>
+  <si>
+    <t>ヒェッ</t>
+  </si>
+  <si>
+    <t>/冷汗</t>
+  </si>
+  <si>
+    <t>／冷汗</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_SMUG_PROJ_7</t>
+  </si>
+  <si>
+    <t>GGEZ</t>
+  </si>
+  <si>
+    <t>雑魚乙</t>
+  </si>
+  <si>
+    <t>GG IZI</t>
+  </si>
+  <si>
+    <t>ГГ ИЗИ</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_SMUG_PROJ_8</t>
+  </si>
+  <si>
+    <t>SUS</t>
+  </si>
+  <si>
+    <t>黒だな</t>
+  </si>
+  <si>
+    <t>你不对劲</t>
+  </si>
+  <si>
+    <t>你不對勁</t>
+  </si>
+  <si>
+    <t>ХММ</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_SMUG_PROJ_9</t>
+  </si>
+  <si>
+    <t>he's seething</t>
+  </si>
+  <si>
+    <t>効いてて草</t>
+  </si>
+  <si>
+    <t>他破防了</t>
+  </si>
+  <si>
+    <t>sentiu</t>
+  </si>
+  <si>
+    <t>Está furioso</t>
+  </si>
+  <si>
+    <t>сгорел</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_SMUG_PROJ_10</t>
+  </si>
+  <si>
+    <t>big cope</t>
+  </si>
+  <si>
+    <t>必死で笑う</t>
+  </si>
+  <si>
+    <t>纯做梦呢</t>
+  </si>
+  <si>
+    <t>純做夢</t>
+  </si>
+  <si>
+    <t>forçou d+</t>
+  </si>
+  <si>
+    <t>gran frente</t>
+  </si>
+  <si>
+    <t>да да как скажешь</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_SMUG_PROJ_11</t>
+  </si>
+  <si>
+    <t>CLIPPABLE</t>
+  </si>
+  <si>
+    <t>切り抜き確定</t>
+  </si>
+  <si>
+    <t>这段集锦了</t>
+  </si>
+  <si>
+    <t>這段可以剪精華了</t>
+  </si>
+  <si>
+    <t>CLIPÁVEL</t>
+  </si>
+  <si>
+    <t>Clipeable</t>
+  </si>
+  <si>
+    <t>НА КЛИП</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_SMUG_PROJ_12</t>
+  </si>
+  <si>
+    <t>clip that NOW!</t>
+  </si>
+  <si>
+    <t>ここ切り抜き</t>
+  </si>
+  <si>
+    <t>这段必剪</t>
+  </si>
+  <si>
+    <t>這段必剪</t>
+  </si>
+  <si>
+    <t>faz um corte AGORA!</t>
+  </si>
+  <si>
+    <t>¡Hacer clip a eso AHORA!</t>
+  </si>
+  <si>
+    <t>КЛИПАНИТЕ СРОЧНО!</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_SMUG_PROJ_13</t>
+  </si>
+  <si>
+    <t>LULW</t>
+  </si>
+  <si>
+    <t>大草原不可避</t>
+  </si>
+  <si>
+    <t>笑崩了</t>
+  </si>
+  <si>
+    <t>笑爆了</t>
+  </si>
+  <si>
+    <t>KKKK</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_SMUG_PROJ_14</t>
+  </si>
+  <si>
+    <t>BRUH</t>
+  </si>
+  <si>
+    <t>マジか</t>
+  </si>
+  <si>
+    <t>兄弟啊</t>
+  </si>
+  <si>
+    <t>MANO</t>
+  </si>
+  <si>
+    <t>BOSS_DIALOGUE_SMUG_PROJ_15</t>
+  </si>
+  <si>
+    <t>HYPEE</t>
+  </si>
+  <si>
+    <t>激アツ</t>
+  </si>
+  <si>
+    <t>起飞</t>
+  </si>
+  <si>
+    <t>起飛啦</t>
+  </si>
+  <si>
+    <t>ХАЙПИМ</t>
+  </si>
+  <si>
+    <t>UI_QUIT_EA_DESC</t>
+  </si>
+  <si>
+    <t>This isn't just Early Access, it's Early Chaos!\n\nWe genuinely hope to make this game awesome with your feedback!\nCome be part of Identifile's community by joining the Discord, talk to other players and roast the devs, we chill</t>
+  </si>
+  <si>
+    <t>これは通常のアーリーアクセスではありません。名付けてアーリー・カオス！\n\nみなさんのフィードバックを取り入れて、本作を最高のゲームにしていきたいと思っています！\nDiscordから、『Identifile』公式サーバーにご参加ください！雑談OK！開発者たちにも遠慮無くツッコミを。まったりした雰囲気です。</t>
+  </si>
+  <si>
+    <t>这不只是抢先体验，这可是抢先爽宴！\n\n我们真心希望能通过你们的反馈来把这个游戏变得更好玩！\n快来加入我们的 Discord，成为 Identifile 社区的一员！在这里你可以和其他玩家唠嗑，还能顺便拷打一下制作组。我们氛围超好，就等你了！</t>
+  </si>
+  <si>
+    <t>這不只是搶先體驗，這可是搶先爽宴！\n\n我們真心希望能透過你們的回饋，讓這款遊戲變得更好玩！\n快來加入我們的 Discord，成為 Identifile 社群的一員吧！\n在這裡你能和其他玩家聊天，順便「拷打」一下製作組。\n我們氣氛超好，就差你啦！</t>
+  </si>
+  <si>
+    <t>Não é só Acesso Antecipado, é Caos Antecipado!\n\nNós esperamos deixar esse jogo irado com o seu feedback!\nVenha fazer parte da comunidade do Identifile no Discord, fale com outros jogadores e zoar os devs, a gente é de boas</t>
+  </si>
+  <si>
+    <t>Esto es solo un Acceso Anticipado, es Caos Anticipado!\n\nEsperamos que podamos mejorar este juego con tu feedback!\nSe parte de la comunidad de Identifile uniéndote al Discord, habla con otros jugadores y crítica a los desarrolladores (Bromita)</t>
+  </si>
+  <si>
+    <t>Это не просто ранний доступ – это ранний хаос!\n\nМы искренне хотим сделать игру прекрасной – и не без вашей помощи!\nПрисоединяйтесь к сообществу Identifile в Discord – общайтесь с другими игроками и прожаривайте разрабов. Мы переживем!</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_MOD_SELECT</t>
+  </si>
+  <si>
+    <t>Modifier Select</t>
+  </si>
+  <si>
+    <t>MOD選択</t>
+  </si>
+  <si>
+    <t>Selecionar Modificador</t>
+  </si>
+  <si>
+    <t>Modificador Seleccionado</t>
+  </si>
+  <si>
+    <t>Выбор модификатора</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_CURSOR_COSMETICS</t>
+  </si>
+  <si>
+    <t>Cosméticos del Cursor</t>
+  </si>
+  <si>
+    <t>UI_WINDOW_NAME_PETS</t>
+  </si>
+  <si>
+    <t>Desktop Pets</t>
+  </si>
+  <si>
+    <t>デスクトップ・ペット</t>
+  </si>
+  <si>
+    <t>Pets de Desktop</t>
+  </si>
+  <si>
+    <t>Escritorio de Mascotas</t>
+  </si>
+  <si>
+    <t>Виртуальные питомцы</t>
+  </si>
+  <si>
+    <t>UI_SHOP_CATEGORY_CURSOR_SKIN</t>
+  </si>
+  <si>
+    <t>Cursor Skin</t>
+  </si>
+  <si>
+    <t>スキン：カーソル</t>
+  </si>
+  <si>
+    <t>Skin de Cursor</t>
+  </si>
+  <si>
+    <t>Skin del Cursor</t>
+  </si>
+  <si>
+    <t>Скин курсора</t>
+  </si>
+  <si>
+    <t>UI_SHOP_CATEGORY_CURSOR_TRAILS</t>
+  </si>
+  <si>
+    <t>Cursor Trails</t>
+  </si>
+  <si>
+    <t>Rastros del Cursor</t>
+  </si>
+  <si>
+    <t>След курсора</t>
+  </si>
+  <si>
+    <t>UI_SHOP_CATEGORY_MOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOD </t>
+  </si>
+  <si>
+    <t>МОД</t>
+  </si>
+  <si>
+    <t>UI_SHOP_CATEGORY_EXE</t>
+  </si>
+  <si>
+    <t>UI_SHOP_LABEL_DATAFRAG</t>
+  </si>
+  <si>
+    <t>Data Fragments</t>
+  </si>
+  <si>
+    <t>Fragmentos de dados</t>
+  </si>
+  <si>
+    <t>Fragmentos de datos</t>
+  </si>
+  <si>
+    <t>Фрагменты данных</t>
+  </si>
+  <si>
+    <t>UI_SHOP_LABEL_COST</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>コスト</t>
+  </si>
+  <si>
+    <t>Custo</t>
+  </si>
+  <si>
+    <t>Coste</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>UI_SHOP_LABEL_BUY</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>購入</t>
+  </si>
+  <si>
+    <t>Comprar</t>
+  </si>
+  <si>
+    <t>Купить</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_STAT_TOTAL_RUNS</t>
+  </si>
+  <si>
+    <t>Total Runs</t>
+  </si>
+  <si>
+    <t>合計：ラン数</t>
+  </si>
+  <si>
+    <t>Runs Totais</t>
+  </si>
+  <si>
+    <t>Partidas totales</t>
+  </si>
+  <si>
+    <t>Забегов</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_STAT_TOTAL_DEATHS</t>
+  </si>
+  <si>
+    <t>Total Deaths</t>
+  </si>
+  <si>
+    <t>合計：デス数</t>
+  </si>
+  <si>
+    <t>Mortes Totais</t>
+  </si>
+  <si>
+    <t>Muertes</t>
+  </si>
+  <si>
+    <t>Смертей</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_STAT_TOTAL_AFK_TIME</t>
+  </si>
+  <si>
+    <t>Total Time Spent AFK</t>
+  </si>
+  <si>
+    <t>合計：放置時間</t>
+  </si>
+  <si>
+    <t>Tempo Gasto AFK</t>
+  </si>
+  <si>
+    <t>Tiempo AFK</t>
+  </si>
+  <si>
+    <t>Времени в АФК</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_STAT_TOTAL_FILES_OPENED</t>
+  </si>
+  <si>
+    <t>Total Files Checked</t>
+  </si>
+  <si>
+    <t>合計：調べたファイルの数</t>
+  </si>
+  <si>
+    <t>Arquivos Checados</t>
+  </si>
+  <si>
+    <t>Archivos revisados</t>
+  </si>
+  <si>
+    <t>Файлов проверено</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_STAT_TOTAL_FOLDERS_OPENED</t>
+  </si>
+  <si>
+    <t>Total Folders Opened</t>
+  </si>
+  <si>
+    <t>合計：開いたフォルダの数</t>
+  </si>
+  <si>
+    <t>Pastas Abertas</t>
+  </si>
+  <si>
+    <t>Carpetas abiertas</t>
+  </si>
+  <si>
+    <t>Папок открыто</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_STAT_TOTAL_DRIVES_CLEARED</t>
+  </si>
+  <si>
+    <t>Total Drives Cleared</t>
+  </si>
+  <si>
+    <t>合計：クリーンにしたドライブの数</t>
+  </si>
+  <si>
+    <t>Drives Limpos</t>
+  </si>
+  <si>
+    <t>Discos completados</t>
+  </si>
+  <si>
+    <t>Дисков зачищено</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_STAT_TOTAL_MODS_OBTAINED</t>
+  </si>
+  <si>
+    <t>Total Mods Obtained</t>
+  </si>
+  <si>
+    <t>合計：入手したMODの数</t>
+  </si>
+  <si>
+    <t>Mods Obtidos</t>
+  </si>
+  <si>
+    <t>Mods obtenidos</t>
+  </si>
+  <si>
+    <t>Модификаторов получено</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_STAT_TOTAL_EXE_USED</t>
+  </si>
+  <si>
+    <t>Total Exe Used</t>
+  </si>
+  <si>
+    <t>合計：使用したEXEの数</t>
+  </si>
+  <si>
+    <t>EXEs utilizados</t>
+  </si>
+  <si>
+    <t>Exes usados</t>
+  </si>
+  <si>
+    <t>Exe использовано</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_STAT_TOTAL_EXE_RECHARGED</t>
+  </si>
+  <si>
+    <t>Total Exe Charges Recharged</t>
+  </si>
+  <si>
+    <t>合計：EXE使用回数を回復した数</t>
+  </si>
+  <si>
+    <t>Cargas de EXE recarregadas</t>
+  </si>
+  <si>
+    <t>Cargas de exes recargadas</t>
+  </si>
+  <si>
+    <t>Exe заряжено</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_STAT_TOTAL_ITEMS_PURCHASED</t>
+  </si>
+  <si>
+    <t>Total Items Purchased</t>
+  </si>
+  <si>
+    <t>合計：アイテム購入数</t>
+  </si>
+  <si>
+    <t>Total de Itens Comprados</t>
+  </si>
+  <si>
+    <t>Items comprados</t>
+  </si>
+  <si>
+    <t>Предметов куплено</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_STAT_TOTAL_COIN_SPENT</t>
+  </si>
+  <si>
+    <t>Total Coins Used</t>
+  </si>
+  <si>
+    <t>合計：使用したコイン枚数</t>
+  </si>
+  <si>
+    <t>Total de Moedas Usadas</t>
+  </si>
+  <si>
+    <t>Monedas usadas</t>
+  </si>
+  <si>
+    <t>Монет потрачено</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_STAT_TOTAL_COIN_OBTAINED</t>
+  </si>
+  <si>
+    <t>Total Coins Obtained</t>
+  </si>
+  <si>
+    <t>合計：入手したコイン枚数</t>
+  </si>
+  <si>
+    <t>Total de Moedas Obtidas</t>
+  </si>
+  <si>
+    <t>Monedas obtenidas</t>
+  </si>
+  <si>
+    <t>Монет получено</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_STAT_TOTAL_KEY_SPENT</t>
+  </si>
+  <si>
+    <t>Total Key Used</t>
+  </si>
+  <si>
+    <t>合計：使用したキーの数</t>
+  </si>
+  <si>
+    <t>Chaves Usadas</t>
+  </si>
+  <si>
+    <t>Llaves usadas</t>
+  </si>
+  <si>
+    <t>Ключей использовано</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_STAT_TOTAL_KEY_OBTAINED</t>
+  </si>
+  <si>
+    <t>Total Key Obtained</t>
+  </si>
+  <si>
+    <t>合計：入手したキーの数</t>
+  </si>
+  <si>
+    <t>Chaves Obtidas</t>
+  </si>
+  <si>
+    <t>Llaves obtenidas</t>
+  </si>
+  <si>
+    <t>Ключей получено</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_STAT_TOTAL_DAMAGE_DEALT</t>
+  </si>
+  <si>
+    <t>Total Damage Dealt</t>
+  </si>
+  <si>
+    <t>合計：与ダメージ</t>
+  </si>
+  <si>
+    <t>Dano Causado Total</t>
+  </si>
+  <si>
+    <t>Daño total inflingido</t>
+  </si>
+  <si>
+    <t>Урона нанесено</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_STAT_TOTAL_DAMAGE_TAKEN</t>
+  </si>
+  <si>
+    <t>Total Damage Taken</t>
+  </si>
+  <si>
+    <t>合計：被ダメージ</t>
+  </si>
+  <si>
+    <t>Dano Recebido Total</t>
+  </si>
+  <si>
+    <t>Daño total recibido</t>
+  </si>
+  <si>
+    <t>Урона получено</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_STAT_TOTAL_HEALTH_HEALED</t>
+  </si>
+  <si>
+    <t>Total Health Healed</t>
+  </si>
+  <si>
+    <t>合計：回復した体力の数</t>
+  </si>
+  <si>
+    <t>Vida Curada Total</t>
+  </si>
+  <si>
+    <t>Vida curada</t>
+  </si>
+  <si>
+    <t>Здоровья восстановлено</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_STAT_TOTAL_CRITICAL_HITS</t>
+  </si>
+  <si>
+    <t>Total Critical Hits</t>
+  </si>
+  <si>
+    <t>合計：クリティカルヒット数</t>
+  </si>
+  <si>
+    <t>Acertos Críticos</t>
+  </si>
+  <si>
+    <t>Golpes críticos</t>
+  </si>
+  <si>
+    <t>Критических ударов</t>
+  </si>
+  <si>
+    <t>UI_DATABASE_STAT_TOTAL_SHINY_IDENTIFIED</t>
+  </si>
+  <si>
+    <t>Total Shiny Viruses Identified</t>
+  </si>
+  <si>
+    <t>合計：検出した色違いウイルスの数</t>
+  </si>
+  <si>
+    <t>Vírus brilhantes identificados</t>
+  </si>
+  <si>
+    <t>Virus shinys identificados</t>
+  </si>
+  <si>
+    <t>Сияющих вирусов найдено</t>
   </si>
 </sst>
 </file>
@@ -24985,7 +28684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EBBEE6-3641-47DF-A45B-B07C4C2D09D6}">
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
@@ -55537,10 +59236,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF599B1-F8B5-4DBA-9047-BA68C344F099}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M189"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55588,1254 +59287,4716 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2439</v>
+        <v>7870</v>
       </c>
       <c r="B2" t="s">
-        <v>2440</v>
+        <v>7871</v>
       </c>
       <c r="C2" t="s">
-        <v>7418</v>
+        <v>7872</v>
       </c>
       <c r="D2" t="s">
-        <v>4495</v>
+        <v>7873</v>
       </c>
       <c r="E2" t="s">
-        <v>4496</v>
+        <v>7874</v>
       </c>
       <c r="F2" t="s">
-        <v>2630</v>
+        <v>7875</v>
       </c>
       <c r="G2" t="s">
-        <v>2630</v>
+        <v>2618</v>
       </c>
       <c r="J2" t="s">
-        <v>2669</v>
+        <v>7876</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2441</v>
+        <v>7877</v>
       </c>
       <c r="B3" t="s">
-        <v>2442</v>
+        <v>7878</v>
       </c>
       <c r="C3" t="s">
-        <v>7419</v>
+        <v>266</v>
       </c>
       <c r="D3" t="s">
-        <v>4497</v>
+        <v>7878</v>
       </c>
       <c r="E3" t="s">
-        <v>4498</v>
+        <v>7878</v>
       </c>
       <c r="F3" t="s">
-        <v>4454</v>
+        <v>7878</v>
       </c>
       <c r="G3" t="s">
-        <v>2631</v>
+        <v>7878</v>
       </c>
       <c r="J3" t="s">
-        <v>2670</v>
+        <v>7878</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2443</v>
+        <v>7879</v>
       </c>
       <c r="B4" t="s">
-        <v>2444</v>
+        <v>7880</v>
       </c>
       <c r="C4" t="s">
-        <v>7420</v>
+        <v>7881</v>
       </c>
       <c r="D4" t="s">
-        <v>4499</v>
+        <v>7882</v>
       </c>
       <c r="E4" t="s">
-        <v>4500</v>
+        <v>7883</v>
       </c>
       <c r="F4" t="s">
-        <v>4455</v>
+        <v>7884</v>
       </c>
       <c r="G4" t="s">
-        <v>2632</v>
+        <v>7885</v>
       </c>
       <c r="J4" t="s">
-        <v>2671</v>
+        <v>7886</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2445</v>
+        <v>7887</v>
       </c>
       <c r="B5" t="s">
-        <v>2446</v>
+        <v>7888</v>
       </c>
       <c r="C5" t="s">
-        <v>7421</v>
+        <v>7889</v>
       </c>
       <c r="D5" t="s">
-        <v>4501</v>
+        <v>7890</v>
       </c>
       <c r="E5" t="s">
-        <v>4502</v>
+        <v>7891</v>
       </c>
       <c r="F5" t="s">
-        <v>2633</v>
+        <v>7892</v>
       </c>
       <c r="G5" t="s">
-        <v>2633</v>
+        <v>7893</v>
       </c>
       <c r="J5" t="s">
-        <v>2672</v>
+        <v>7894</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2447</v>
+        <v>7895</v>
       </c>
       <c r="B6" t="s">
-        <v>2448</v>
+        <v>7896</v>
       </c>
       <c r="C6" t="s">
-        <v>7422</v>
+        <v>7897</v>
       </c>
       <c r="D6" t="s">
-        <v>4503</v>
+        <v>7898</v>
       </c>
       <c r="E6" t="s">
-        <v>4504</v>
+        <v>7899</v>
       </c>
       <c r="F6" t="s">
-        <v>4456</v>
+        <v>7900</v>
       </c>
       <c r="G6" t="s">
-        <v>2634</v>
+        <v>7901</v>
       </c>
       <c r="J6" t="s">
-        <v>2673</v>
+        <v>7902</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2449</v>
+        <v>7903</v>
       </c>
       <c r="B7" t="s">
-        <v>2450</v>
+        <v>427</v>
       </c>
       <c r="C7" t="s">
-        <v>7423</v>
+        <v>428</v>
       </c>
       <c r="D7" t="s">
-        <v>4505</v>
+        <v>429</v>
       </c>
       <c r="E7" t="s">
-        <v>4506</v>
+        <v>430</v>
       </c>
       <c r="F7" t="s">
-        <v>4457</v>
+        <v>431</v>
       </c>
       <c r="G7" t="s">
-        <v>2635</v>
+        <v>431</v>
       </c>
       <c r="J7" t="s">
-        <v>2674</v>
+        <v>7904</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2451</v>
+        <v>7905</v>
       </c>
       <c r="B8" t="s">
-        <v>2493</v>
+        <v>7906</v>
       </c>
       <c r="C8" t="s">
-        <v>7424</v>
+        <v>7907</v>
       </c>
       <c r="D8" t="s">
-        <v>4507</v>
+        <v>7908</v>
       </c>
       <c r="E8" t="s">
-        <v>4508</v>
+        <v>7909</v>
       </c>
       <c r="F8" t="s">
-        <v>4458</v>
+        <v>7910</v>
       </c>
       <c r="G8" t="s">
-        <v>2636</v>
+        <v>7911</v>
       </c>
       <c r="J8" t="s">
-        <v>6081</v>
+        <v>7912</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2452</v>
+        <v>7913</v>
       </c>
       <c r="B9" t="s">
-        <v>2659</v>
+        <v>7914</v>
       </c>
       <c r="C9" t="s">
-        <v>7425</v>
+        <v>7915</v>
       </c>
       <c r="D9" t="s">
-        <v>4509</v>
+        <v>7916</v>
       </c>
       <c r="E9" t="s">
-        <v>4510</v>
+        <v>7917</v>
       </c>
       <c r="F9" t="s">
-        <v>4459</v>
+        <v>7918</v>
       </c>
       <c r="G9" t="s">
-        <v>2637</v>
+        <v>7918</v>
       </c>
       <c r="J9" t="s">
-        <v>6082</v>
+        <v>7919</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2453</v>
+        <v>7920</v>
       </c>
       <c r="B10" t="s">
-        <v>2677</v>
+        <v>421</v>
       </c>
       <c r="C10" t="s">
-        <v>7426</v>
+        <v>422</v>
       </c>
       <c r="D10" t="s">
-        <v>4511</v>
+        <v>423</v>
       </c>
       <c r="E10" t="s">
-        <v>4512</v>
+        <v>4490</v>
       </c>
       <c r="F10" t="s">
-        <v>4460</v>
+        <v>424</v>
       </c>
       <c r="G10" t="s">
-        <v>6292</v>
+        <v>425</v>
       </c>
       <c r="J10" t="s">
-        <v>6083</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2454</v>
+        <v>7921</v>
       </c>
       <c r="B11" t="s">
-        <v>2494</v>
+        <v>7922</v>
       </c>
       <c r="C11" t="s">
-        <v>7427</v>
+        <v>7923</v>
       </c>
       <c r="D11" t="s">
-        <v>4513</v>
+        <v>7924</v>
       </c>
       <c r="E11" t="s">
-        <v>4514</v>
+        <v>7924</v>
       </c>
       <c r="F11" t="s">
-        <v>4461</v>
+        <v>7925</v>
       </c>
       <c r="G11" t="s">
-        <v>2638</v>
+        <v>7926</v>
       </c>
       <c r="J11" t="s">
-        <v>6084</v>
+        <v>7927</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2455</v>
+        <v>7928</v>
       </c>
       <c r="B12" t="s">
-        <v>2660</v>
+        <v>268</v>
       </c>
       <c r="C12" t="s">
-        <v>7428</v>
+        <v>269</v>
       </c>
       <c r="D12" t="s">
-        <v>4515</v>
+        <v>270</v>
       </c>
       <c r="E12" t="s">
-        <v>4516</v>
+        <v>270</v>
       </c>
       <c r="F12" t="s">
-        <v>4462</v>
+        <v>271</v>
       </c>
       <c r="G12" t="s">
-        <v>2639</v>
+        <v>271</v>
       </c>
       <c r="J12" t="s">
-        <v>6085</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2456</v>
+        <v>7929</v>
       </c>
       <c r="B13" t="s">
-        <v>2678</v>
+        <v>7930</v>
       </c>
       <c r="C13" t="s">
-        <v>7429</v>
+        <v>7931</v>
       </c>
       <c r="D13" t="s">
-        <v>4517</v>
+        <v>7932</v>
       </c>
       <c r="E13" t="s">
-        <v>4518</v>
+        <v>7933</v>
       </c>
       <c r="F13" t="s">
-        <v>4463</v>
+        <v>7934</v>
       </c>
       <c r="G13" t="s">
-        <v>6293</v>
+        <v>7935</v>
       </c>
       <c r="J13" t="s">
-        <v>6086</v>
+        <v>7936</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2457</v>
+        <v>7937</v>
       </c>
       <c r="B14" t="s">
-        <v>2495</v>
+        <v>7938</v>
       </c>
       <c r="C14" t="s">
-        <v>7430</v>
+        <v>7939</v>
       </c>
       <c r="D14" t="s">
-        <v>4519</v>
+        <v>7940</v>
       </c>
       <c r="E14" t="s">
-        <v>4520</v>
+        <v>7941</v>
       </c>
       <c r="F14" t="s">
-        <v>4464</v>
+        <v>7942</v>
       </c>
       <c r="G14" t="s">
-        <v>2640</v>
+        <v>7943</v>
       </c>
       <c r="J14" t="s">
-        <v>6087</v>
+        <v>7944</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2458</v>
+        <v>7945</v>
       </c>
       <c r="B15" t="s">
-        <v>5921</v>
+        <v>440</v>
       </c>
       <c r="C15" t="s">
-        <v>7431</v>
+        <v>441</v>
       </c>
       <c r="D15" t="s">
-        <v>4521</v>
+        <v>442</v>
       </c>
       <c r="E15" t="s">
-        <v>4522</v>
+        <v>443</v>
       </c>
       <c r="F15" t="s">
-        <v>6945</v>
+        <v>444</v>
       </c>
       <c r="G15" t="s">
-        <v>2641</v>
+        <v>445</v>
       </c>
       <c r="J15" t="s">
-        <v>6088</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>2459</v>
+        <v>7946</v>
       </c>
       <c r="B16" t="s">
-        <v>2679</v>
+        <v>1384</v>
       </c>
       <c r="C16" t="s">
-        <v>7432</v>
+        <v>1385</v>
       </c>
       <c r="D16" t="s">
-        <v>4523</v>
+        <v>1386</v>
       </c>
       <c r="E16" t="s">
-        <v>4524</v>
+        <v>1387</v>
       </c>
       <c r="F16" t="s">
-        <v>4465</v>
+        <v>1384</v>
       </c>
       <c r="G16" t="s">
-        <v>6294</v>
+        <v>1384</v>
       </c>
       <c r="J16" t="s">
-        <v>6089</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>2460</v>
+        <v>7947</v>
       </c>
       <c r="B17" t="s">
-        <v>2496</v>
+        <v>7948</v>
       </c>
       <c r="C17" t="s">
-        <v>7433</v>
+        <v>7949</v>
       </c>
       <c r="D17" t="s">
-        <v>4525</v>
+        <v>7950</v>
       </c>
       <c r="E17" t="s">
-        <v>4526</v>
+        <v>7949</v>
       </c>
       <c r="F17" t="s">
-        <v>4466</v>
+        <v>7951</v>
       </c>
       <c r="G17" t="s">
-        <v>2642</v>
+        <v>7952</v>
       </c>
       <c r="J17" t="s">
-        <v>6090</v>
+        <v>7953</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2461</v>
+        <v>7954</v>
       </c>
       <c r="B18" t="s">
-        <v>2661</v>
+        <v>402</v>
       </c>
       <c r="C18" t="s">
-        <v>7434</v>
+        <v>403</v>
       </c>
       <c r="D18" t="s">
-        <v>4527</v>
+        <v>404</v>
       </c>
       <c r="E18" t="s">
-        <v>4528</v>
+        <v>405</v>
       </c>
       <c r="F18" t="s">
-        <v>4467</v>
+        <v>406</v>
       </c>
       <c r="G18" t="s">
-        <v>2643</v>
+        <v>407</v>
       </c>
       <c r="J18" t="s">
-        <v>6091</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>2462</v>
+        <v>7955</v>
       </c>
       <c r="B19" t="s">
-        <v>2680</v>
+        <v>7956</v>
       </c>
       <c r="C19" t="s">
-        <v>7435</v>
+        <v>7957</v>
       </c>
       <c r="D19" t="s">
-        <v>4529</v>
+        <v>7958</v>
       </c>
       <c r="E19" t="s">
-        <v>4530</v>
+        <v>7959</v>
       </c>
       <c r="F19" t="s">
-        <v>4468</v>
+        <v>7960</v>
       </c>
       <c r="G19" t="s">
-        <v>6295</v>
+        <v>7961</v>
       </c>
       <c r="J19" t="s">
-        <v>6092</v>
+        <v>7962</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2463</v>
+        <v>7963</v>
       </c>
       <c r="B20" t="s">
-        <v>2662</v>
+        <v>7964</v>
       </c>
       <c r="C20" t="s">
-        <v>7436</v>
+        <v>7965</v>
       </c>
       <c r="D20" t="s">
-        <v>4531</v>
+        <v>7966</v>
       </c>
       <c r="E20" t="s">
-        <v>4532</v>
+        <v>7967</v>
       </c>
       <c r="F20" t="s">
-        <v>4469</v>
+        <v>7968</v>
       </c>
       <c r="G20" t="s">
-        <v>2644</v>
+        <v>7969</v>
       </c>
       <c r="J20" t="s">
-        <v>6093</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2464</v>
+        <v>7971</v>
       </c>
       <c r="B21" t="s">
-        <v>2663</v>
+        <v>7972</v>
       </c>
       <c r="C21" t="s">
-        <v>7437</v>
+        <v>472</v>
       </c>
       <c r="D21" t="s">
-        <v>4533</v>
+        <v>7973</v>
       </c>
       <c r="E21" t="s">
-        <v>4534</v>
+        <v>7974</v>
       </c>
       <c r="F21" t="s">
-        <v>4470</v>
+        <v>475</v>
       </c>
       <c r="G21" t="s">
-        <v>2645</v>
+        <v>476</v>
       </c>
       <c r="J21" t="s">
-        <v>6094</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2465</v>
+        <v>7975</v>
       </c>
       <c r="B22" t="s">
-        <v>2681</v>
+        <v>7976</v>
       </c>
       <c r="C22" t="s">
-        <v>7438</v>
+        <v>7977</v>
       </c>
       <c r="D22" t="s">
-        <v>4535</v>
+        <v>7978</v>
       </c>
       <c r="E22" t="s">
-        <v>4536</v>
+        <v>7979</v>
       </c>
       <c r="F22" t="s">
-        <v>4471</v>
+        <v>7980</v>
       </c>
       <c r="G22" t="s">
-        <v>6296</v>
+        <v>7980</v>
       </c>
       <c r="J22" t="s">
-        <v>6095</v>
+        <v>7981</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2466</v>
+        <v>7982</v>
       </c>
       <c r="B23" t="s">
-        <v>2497</v>
+        <v>1607</v>
       </c>
       <c r="C23" t="s">
-        <v>7439</v>
+        <v>7983</v>
       </c>
       <c r="D23" t="s">
-        <v>4537</v>
+        <v>1608</v>
       </c>
       <c r="E23" t="s">
-        <v>4538</v>
+        <v>1609</v>
       </c>
       <c r="F23" t="s">
-        <v>2646</v>
+        <v>2621</v>
       </c>
       <c r="G23" t="s">
-        <v>2646</v>
+        <v>2619</v>
       </c>
       <c r="J23" t="s">
-        <v>6096</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>2467</v>
+        <v>7985</v>
       </c>
       <c r="B24" t="s">
-        <v>2683</v>
+        <v>7986</v>
       </c>
       <c r="C24" t="s">
-        <v>7440</v>
+        <v>7987</v>
       </c>
       <c r="D24" t="s">
-        <v>4539</v>
+        <v>7988</v>
       </c>
       <c r="E24" t="s">
-        <v>4540</v>
+        <v>7989</v>
       </c>
       <c r="F24" t="s">
-        <v>4472</v>
+        <v>7990</v>
       </c>
       <c r="G24" t="s">
-        <v>2647</v>
+        <v>7991</v>
       </c>
       <c r="J24" t="s">
-        <v>6097</v>
+        <v>7992</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>2468</v>
+        <v>7993</v>
       </c>
       <c r="B25" t="s">
-        <v>2682</v>
+        <v>447</v>
       </c>
       <c r="C25" t="s">
-        <v>7441</v>
+        <v>448</v>
       </c>
       <c r="D25" t="s">
-        <v>4541</v>
+        <v>449</v>
       </c>
       <c r="E25" t="s">
-        <v>4542</v>
+        <v>449</v>
       </c>
       <c r="F25" t="s">
-        <v>4473</v>
+        <v>450</v>
       </c>
       <c r="G25" t="s">
-        <v>6297</v>
+        <v>451</v>
       </c>
       <c r="J25" t="s">
-        <v>6098</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>2469</v>
+        <v>7994</v>
       </c>
       <c r="B26" t="s">
-        <v>2498</v>
+        <v>7995</v>
       </c>
       <c r="C26" t="s">
-        <v>7442</v>
+        <v>7996</v>
       </c>
       <c r="D26" t="s">
-        <v>4543</v>
+        <v>7997</v>
       </c>
       <c r="E26" t="s">
-        <v>4544</v>
+        <v>7998</v>
       </c>
       <c r="F26" t="s">
-        <v>4474</v>
+        <v>7995</v>
       </c>
       <c r="G26" t="s">
-        <v>2648</v>
+        <v>7995</v>
       </c>
       <c r="J26" t="s">
-        <v>6099</v>
+        <v>7999</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>2470</v>
+        <v>8000</v>
       </c>
       <c r="B27" t="s">
-        <v>2664</v>
+        <v>8001</v>
       </c>
       <c r="C27" t="s">
-        <v>7443</v>
+        <v>8002</v>
       </c>
       <c r="D27" t="s">
-        <v>4545</v>
+        <v>8003</v>
       </c>
       <c r="E27" t="s">
-        <v>4546</v>
+        <v>8004</v>
       </c>
       <c r="F27" t="s">
-        <v>4475</v>
+        <v>8005</v>
       </c>
       <c r="G27" t="s">
-        <v>2649</v>
+        <v>8006</v>
       </c>
       <c r="J27" t="s">
-        <v>6100</v>
+        <v>8007</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>2471</v>
+        <v>8008</v>
       </c>
       <c r="B28" t="s">
-        <v>2684</v>
+        <v>8009</v>
       </c>
       <c r="C28" t="s">
-        <v>7444</v>
+        <v>8010</v>
       </c>
       <c r="D28" t="s">
-        <v>4547</v>
+        <v>1297</v>
       </c>
       <c r="E28" t="s">
-        <v>4548</v>
+        <v>4491</v>
       </c>
       <c r="F28" t="s">
-        <v>4476</v>
+        <v>8009</v>
       </c>
       <c r="G28" t="s">
-        <v>6298</v>
+        <v>8009</v>
       </c>
       <c r="J28" t="s">
-        <v>6101</v>
+        <v>8011</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>2472</v>
+        <v>8012</v>
       </c>
       <c r="B29" t="s">
-        <v>2499</v>
+        <v>433</v>
       </c>
       <c r="C29" t="s">
-        <v>7445</v>
+        <v>434</v>
       </c>
       <c r="D29" t="s">
-        <v>4549</v>
+        <v>435</v>
       </c>
       <c r="E29" t="s">
-        <v>4550</v>
+        <v>4492</v>
       </c>
       <c r="F29" t="s">
-        <v>2650</v>
+        <v>436</v>
       </c>
       <c r="G29" t="s">
-        <v>2650</v>
+        <v>2620</v>
       </c>
       <c r="J29" t="s">
-        <v>6102</v>
+        <v>8013</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2473</v>
+        <v>8014</v>
       </c>
       <c r="B30" t="s">
-        <v>2685</v>
+        <v>8015</v>
       </c>
       <c r="C30" t="s">
-        <v>7446</v>
+        <v>8016</v>
       </c>
       <c r="D30" t="s">
-        <v>4551</v>
+        <v>8017</v>
       </c>
       <c r="E30" t="s">
-        <v>4552</v>
+        <v>8018</v>
       </c>
       <c r="F30" t="s">
-        <v>4477</v>
+        <v>8019</v>
       </c>
       <c r="G30" t="s">
-        <v>2651</v>
+        <v>8020</v>
       </c>
       <c r="J30" t="s">
-        <v>6103</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>2474</v>
+        <v>8022</v>
       </c>
       <c r="B31" t="s">
-        <v>2686</v>
+        <v>8023</v>
       </c>
       <c r="C31" t="s">
-        <v>7447</v>
+        <v>8024</v>
       </c>
       <c r="D31" t="s">
-        <v>4553</v>
+        <v>8025</v>
       </c>
       <c r="E31" t="s">
-        <v>4554</v>
+        <v>8026</v>
       </c>
       <c r="F31" t="s">
-        <v>4478</v>
+        <v>8027</v>
       </c>
       <c r="G31" t="s">
-        <v>6299</v>
+        <v>8028</v>
       </c>
       <c r="J31" t="s">
-        <v>6104</v>
+        <v>8029</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2475</v>
+        <v>8030</v>
       </c>
       <c r="B32" t="s">
-        <v>2665</v>
+        <v>8031</v>
       </c>
       <c r="C32" t="s">
-        <v>7448</v>
+        <v>8032</v>
       </c>
       <c r="D32" t="s">
-        <v>4555</v>
+        <v>8033</v>
       </c>
       <c r="E32" t="s">
-        <v>4556</v>
+        <v>8034</v>
       </c>
       <c r="F32" t="s">
-        <v>4479</v>
+        <v>8035</v>
       </c>
       <c r="G32" t="s">
-        <v>2652</v>
+        <v>8036</v>
       </c>
       <c r="J32" t="s">
-        <v>6105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8037</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>2476</v>
+        <v>8038</v>
       </c>
       <c r="B33" t="s">
-        <v>2666</v>
+        <v>8039</v>
       </c>
       <c r="C33" t="s">
-        <v>7449</v>
+        <v>8040</v>
       </c>
       <c r="D33" t="s">
-        <v>4557</v>
+        <v>8041</v>
       </c>
       <c r="E33" t="s">
-        <v>4558</v>
+        <v>8042</v>
       </c>
       <c r="F33" t="s">
-        <v>4480</v>
+        <v>8043</v>
       </c>
       <c r="G33" t="s">
-        <v>2653</v>
+        <v>8044</v>
       </c>
       <c r="J33" t="s">
-        <v>6106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8045</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>2477</v>
+        <v>8046</v>
       </c>
       <c r="B34" t="s">
-        <v>2687</v>
+        <v>8047</v>
       </c>
       <c r="C34" t="s">
-        <v>7450</v>
+        <v>8048</v>
       </c>
       <c r="D34" t="s">
-        <v>4559</v>
+        <v>8049</v>
       </c>
       <c r="E34" t="s">
-        <v>4560</v>
+        <v>8050</v>
       </c>
       <c r="F34" t="s">
-        <v>4481</v>
+        <v>8051</v>
       </c>
       <c r="G34" t="s">
-        <v>6300</v>
+        <v>8052</v>
       </c>
       <c r="J34" t="s">
-        <v>6107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8053</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>2478</v>
+        <v>8054</v>
       </c>
       <c r="B35" t="s">
-        <v>2667</v>
+        <v>8055</v>
       </c>
       <c r="C35" t="s">
-        <v>7451</v>
+        <v>8056</v>
       </c>
       <c r="D35" t="s">
-        <v>4561</v>
+        <v>8057</v>
       </c>
       <c r="E35" t="s">
-        <v>4562</v>
+        <v>8058</v>
       </c>
       <c r="F35" t="s">
-        <v>4482</v>
+        <v>8059</v>
       </c>
       <c r="G35" t="s">
-        <v>2654</v>
+        <v>8060</v>
       </c>
       <c r="J35" t="s">
-        <v>6108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8061</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>2479</v>
+        <v>8062</v>
       </c>
       <c r="B36" t="s">
-        <v>2668</v>
+        <v>8063</v>
       </c>
       <c r="C36" t="s">
-        <v>7452</v>
+        <v>8064</v>
       </c>
       <c r="D36" t="s">
-        <v>4563</v>
+        <v>8065</v>
       </c>
       <c r="E36" t="s">
-        <v>4564</v>
+        <v>8066</v>
       </c>
       <c r="F36" t="s">
-        <v>4483</v>
+        <v>8067</v>
       </c>
       <c r="G36" t="s">
-        <v>2655</v>
+        <v>8068</v>
       </c>
       <c r="J36" t="s">
-        <v>6109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8069</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>2480</v>
+        <v>8070</v>
       </c>
       <c r="B37" t="s">
-        <v>2688</v>
+        <v>8071</v>
       </c>
       <c r="C37" t="s">
-        <v>7453</v>
+        <v>8072</v>
       </c>
       <c r="D37" t="s">
-        <v>4565</v>
+        <v>8073</v>
       </c>
       <c r="E37" t="s">
-        <v>4566</v>
+        <v>8074</v>
       </c>
       <c r="F37" t="s">
-        <v>4484</v>
+        <v>8075</v>
       </c>
       <c r="G37" t="s">
-        <v>6301</v>
+        <v>8076</v>
       </c>
       <c r="J37" t="s">
-        <v>6110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8077</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>2481</v>
+        <v>8078</v>
       </c>
       <c r="B38" t="s">
-        <v>2691</v>
+        <v>8079</v>
       </c>
       <c r="C38" t="s">
-        <v>7454</v>
+        <v>8080</v>
       </c>
       <c r="D38" t="s">
-        <v>4567</v>
+        <v>8081</v>
       </c>
       <c r="E38" t="s">
-        <v>4568</v>
+        <v>8082</v>
       </c>
       <c r="F38" t="s">
-        <v>4485</v>
+        <v>8083</v>
       </c>
       <c r="G38" t="s">
-        <v>6302</v>
+        <v>8084</v>
       </c>
       <c r="J38" t="s">
-        <v>6111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8085</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>2482</v>
+        <v>8086</v>
       </c>
       <c r="B39" t="s">
-        <v>2689</v>
+        <v>8087</v>
       </c>
       <c r="C39" t="s">
-        <v>7455</v>
+        <v>8088</v>
       </c>
       <c r="D39" t="s">
-        <v>4569</v>
+        <v>8089</v>
       </c>
       <c r="E39" t="s">
-        <v>4570</v>
+        <v>8089</v>
       </c>
       <c r="F39" t="s">
-        <v>4486</v>
+        <v>8090</v>
       </c>
       <c r="G39" t="s">
-        <v>6303</v>
+        <v>8091</v>
       </c>
       <c r="J39" t="s">
-        <v>6112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8092</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>2483</v>
+        <v>8093</v>
       </c>
       <c r="B40" t="s">
-        <v>2690</v>
+        <v>8094</v>
       </c>
       <c r="C40" t="s">
-        <v>7456</v>
+        <v>239</v>
       </c>
       <c r="D40" t="s">
-        <v>4571</v>
+        <v>240</v>
       </c>
       <c r="E40" t="s">
-        <v>4572</v>
+        <v>240</v>
       </c>
       <c r="F40" t="s">
-        <v>4487</v>
+        <v>241</v>
       </c>
       <c r="G40" t="s">
-        <v>6304</v>
+        <v>242</v>
       </c>
       <c r="J40" t="s">
-        <v>6113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>2484</v>
+        <v>8095</v>
       </c>
       <c r="B41" t="s">
-        <v>2501</v>
+        <v>8096</v>
       </c>
       <c r="C41" t="s">
-        <v>7457</v>
+        <v>8097</v>
       </c>
       <c r="D41" t="s">
-        <v>2501</v>
+        <v>8098</v>
       </c>
       <c r="E41" t="s">
-        <v>2501</v>
+        <v>8099</v>
       </c>
       <c r="F41" t="s">
-        <v>2501</v>
+        <v>8100</v>
       </c>
       <c r="G41" t="s">
-        <v>2501</v>
-      </c>
-      <c r="H41" t="s">
-        <v>2501</v>
-      </c>
-      <c r="I41" t="s">
-        <v>2501</v>
+        <v>8101</v>
       </c>
       <c r="J41" t="s">
-        <v>2501</v>
-      </c>
-      <c r="K41" t="s">
-        <v>2501</v>
-      </c>
-      <c r="L41" t="s">
-        <v>2501</v>
-      </c>
-      <c r="M41" t="s">
-        <v>2501</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>2485</v>
+        <v>8103</v>
       </c>
       <c r="B42" t="s">
-        <v>2500</v>
+        <v>8104</v>
       </c>
       <c r="C42" t="s">
-        <v>7458</v>
+        <v>8105</v>
       </c>
       <c r="D42" t="s">
-        <v>4573</v>
+        <v>8106</v>
       </c>
       <c r="E42" t="s">
-        <v>4574</v>
+        <v>8107</v>
       </c>
       <c r="F42" t="s">
-        <v>3996</v>
+        <v>8108</v>
       </c>
       <c r="G42" t="s">
-        <v>2656</v>
+        <v>8109</v>
       </c>
       <c r="J42" t="s">
-        <v>6114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>2486</v>
+        <v>8111</v>
       </c>
       <c r="B43" t="s">
-        <v>2500</v>
+        <v>8112</v>
       </c>
       <c r="C43" t="s">
-        <v>7458</v>
+        <v>8113</v>
       </c>
       <c r="D43" t="s">
-        <v>4573</v>
+        <v>8114</v>
       </c>
       <c r="E43" t="s">
-        <v>4574</v>
+        <v>8115</v>
       </c>
       <c r="F43" t="s">
-        <v>3996</v>
+        <v>8116</v>
       </c>
       <c r="G43" t="s">
-        <v>2656</v>
+        <v>8117</v>
       </c>
       <c r="J43" t="s">
-        <v>6114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>2487</v>
+        <v>8119</v>
       </c>
       <c r="B44" t="s">
-        <v>2501</v>
+        <v>1607</v>
       </c>
       <c r="C44" t="s">
-        <v>7457</v>
+        <v>7983</v>
       </c>
       <c r="D44" t="s">
-        <v>2501</v>
+        <v>1608</v>
       </c>
       <c r="E44" t="s">
-        <v>2501</v>
+        <v>1609</v>
       </c>
       <c r="F44" t="s">
-        <v>2501</v>
+        <v>2621</v>
       </c>
       <c r="G44" t="s">
-        <v>2501</v>
-      </c>
-      <c r="H44" t="s">
-        <v>2501</v>
-      </c>
-      <c r="I44" t="s">
-        <v>2501</v>
+        <v>2621</v>
       </c>
       <c r="J44" t="s">
-        <v>2501</v>
-      </c>
-      <c r="K44" t="s">
-        <v>2501</v>
-      </c>
-      <c r="L44" t="s">
-        <v>2501</v>
-      </c>
-      <c r="M44" t="s">
-        <v>2501</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>2488</v>
+        <v>8121</v>
       </c>
       <c r="B45" t="s">
-        <v>2500</v>
+        <v>8122</v>
       </c>
       <c r="C45" t="s">
-        <v>7458</v>
+        <v>8123</v>
       </c>
       <c r="D45" t="s">
-        <v>4573</v>
+        <v>8124</v>
       </c>
       <c r="E45" t="s">
-        <v>4574</v>
+        <v>8125</v>
       </c>
       <c r="F45" t="s">
-        <v>3996</v>
+        <v>8126</v>
       </c>
       <c r="G45" t="s">
-        <v>2656</v>
+        <v>8127</v>
       </c>
       <c r="J45" t="s">
-        <v>6114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>2489</v>
+        <v>8129</v>
       </c>
       <c r="B46" t="s">
-        <v>2500</v>
+        <v>8130</v>
       </c>
       <c r="C46" t="s">
-        <v>7458</v>
+        <v>8131</v>
       </c>
       <c r="D46" t="s">
-        <v>4573</v>
+        <v>8132</v>
       </c>
       <c r="E46" t="s">
-        <v>4574</v>
+        <v>8133</v>
       </c>
       <c r="F46" t="s">
-        <v>3996</v>
+        <v>8134</v>
       </c>
       <c r="G46" t="s">
-        <v>2656</v>
+        <v>8135</v>
       </c>
       <c r="J46" t="s">
-        <v>6114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>2490</v>
+        <v>8137</v>
       </c>
       <c r="B47" t="s">
-        <v>563</v>
+        <v>8138</v>
       </c>
       <c r="C47" t="s">
-        <v>564</v>
+        <v>8139</v>
       </c>
       <c r="D47" t="s">
-        <v>565</v>
+        <v>8140</v>
       </c>
       <c r="E47" t="s">
-        <v>566</v>
+        <v>8141</v>
       </c>
       <c r="F47" t="s">
-        <v>3998</v>
+        <v>8142</v>
       </c>
       <c r="G47" t="s">
-        <v>2657</v>
+        <v>8138</v>
       </c>
       <c r="J47" t="s">
-        <v>2675</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>2491</v>
+        <v>8144</v>
       </c>
       <c r="B48" t="s">
-        <v>2492</v>
+        <v>8145</v>
       </c>
       <c r="C48" t="s">
-        <v>7459</v>
+        <v>8146</v>
       </c>
       <c r="D48" t="s">
-        <v>4575</v>
+        <v>8147</v>
       </c>
       <c r="E48" t="s">
-        <v>4576</v>
+        <v>8148</v>
       </c>
       <c r="F48" t="s">
-        <v>4488</v>
+        <v>8149</v>
       </c>
       <c r="G48" t="s">
-        <v>2658</v>
+        <v>8145</v>
       </c>
       <c r="J48" t="s">
-        <v>2676</v>
+        <v>8150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>8151</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8152</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8153</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8154</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8155</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8156</v>
+      </c>
+      <c r="G49" t="s">
+        <v>8152</v>
+      </c>
+      <c r="J49" t="s">
+        <v>8157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>8158</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8159</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8160</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8161</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8162</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8163</v>
+      </c>
+      <c r="G50" t="s">
+        <v>8159</v>
+      </c>
+      <c r="J50" t="s">
+        <v>8164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>8165</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8166</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8167</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8168</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8169</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8170</v>
+      </c>
+      <c r="G51" t="s">
+        <v>8166</v>
+      </c>
+      <c r="J51" t="s">
+        <v>8171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>8172</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8173</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8174</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8174</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8174</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8175</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8176</v>
+      </c>
+      <c r="J52" t="s">
+        <v>8177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>8178</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8179</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8180</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8181</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8181</v>
+      </c>
+      <c r="F53" t="s">
+        <v>8182</v>
+      </c>
+      <c r="G53" t="s">
+        <v>8183</v>
+      </c>
+      <c r="J53" t="s">
+        <v>8184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>8185</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8186</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8187</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8188</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8189</v>
+      </c>
+      <c r="F54" t="s">
+        <v>8190</v>
+      </c>
+      <c r="G54" t="s">
+        <v>8191</v>
+      </c>
+      <c r="J54" t="s">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>8193</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8194</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8195</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8196</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8197</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8198</v>
+      </c>
+      <c r="G55" t="s">
+        <v>8199</v>
+      </c>
+      <c r="J55" t="s">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>8201</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8202</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8203</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8204</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8205</v>
+      </c>
+      <c r="F56" t="s">
+        <v>8206</v>
+      </c>
+      <c r="G56" t="s">
+        <v>8207</v>
+      </c>
+      <c r="J56" t="s">
+        <v>8208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>8209</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8210</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8210</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8211</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8212</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8213</v>
+      </c>
+      <c r="G57" t="s">
+        <v>8214</v>
+      </c>
+      <c r="J57" t="s">
+        <v>8215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>8216</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8217</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8218</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8219</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8220</v>
+      </c>
+      <c r="F58" t="s">
+        <v>8221</v>
+      </c>
+      <c r="G58" t="s">
+        <v>8222</v>
+      </c>
+      <c r="J58" t="s">
+        <v>8223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>8224</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8225</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8226</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8227</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8228</v>
+      </c>
+      <c r="F59" t="s">
+        <v>8229</v>
+      </c>
+      <c r="G59" t="s">
+        <v>8230</v>
+      </c>
+      <c r="J59" t="s">
+        <v>8231</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>8232</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8233</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8234</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8235</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8236</v>
+      </c>
+      <c r="F60" t="s">
+        <v>8237</v>
+      </c>
+      <c r="G60" t="s">
+        <v>8238</v>
+      </c>
+      <c r="J60" t="s">
+        <v>8239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>8240</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8241</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8242</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8243</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8244</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8245</v>
+      </c>
+      <c r="G61" t="s">
+        <v>8246</v>
+      </c>
+      <c r="J61" t="s">
+        <v>8247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>8248</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8249</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8250</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8251</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8252</v>
+      </c>
+      <c r="F62" t="s">
+        <v>8253</v>
+      </c>
+      <c r="G62" t="s">
+        <v>8254</v>
+      </c>
+      <c r="J62" t="s">
+        <v>8255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>8256</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8257</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8258</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8259</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8260</v>
+      </c>
+      <c r="F63" t="s">
+        <v>8261</v>
+      </c>
+      <c r="G63" t="s">
+        <v>8262</v>
+      </c>
+      <c r="J63" t="s">
+        <v>8263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>8264</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8265</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8266</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8267</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8268</v>
+      </c>
+      <c r="F64" t="s">
+        <v>8269</v>
+      </c>
+      <c r="G64" t="s">
+        <v>8270</v>
+      </c>
+      <c r="J64" t="s">
+        <v>8271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>8272</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8273</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8274</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8275</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8276</v>
+      </c>
+      <c r="F65" t="s">
+        <v>8277</v>
+      </c>
+      <c r="G65" t="s">
+        <v>8278</v>
+      </c>
+      <c r="J65" t="s">
+        <v>8279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>8280</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8281</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8282</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8283</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8284</v>
+      </c>
+      <c r="F66" t="s">
+        <v>8285</v>
+      </c>
+      <c r="G66" t="s">
+        <v>8286</v>
+      </c>
+      <c r="J66" t="s">
+        <v>8287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>8288</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8289</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8290</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8291</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8292</v>
+      </c>
+      <c r="F67" t="s">
+        <v>8293</v>
+      </c>
+      <c r="G67" t="s">
+        <v>8294</v>
+      </c>
+      <c r="J67" t="s">
+        <v>8295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>8296</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8297</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8298</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8299</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8300</v>
+      </c>
+      <c r="F68" t="s">
+        <v>8301</v>
+      </c>
+      <c r="G68" t="s">
+        <v>8302</v>
+      </c>
+      <c r="J68" t="s">
+        <v>8303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>8304</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8305</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8306</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8307</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8308</v>
+      </c>
+      <c r="F69" t="s">
+        <v>8309</v>
+      </c>
+      <c r="G69" t="s">
+        <v>8310</v>
+      </c>
+      <c r="J69" t="s">
+        <v>8311</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>8312</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8313</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8314</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8315</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8316</v>
+      </c>
+      <c r="F70" t="s">
+        <v>8317</v>
+      </c>
+      <c r="G70" t="s">
+        <v>8318</v>
+      </c>
+      <c r="J70" t="s">
+        <v>8319</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>8320</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8321</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8322</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8323</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8324</v>
+      </c>
+      <c r="F71" t="s">
+        <v>8325</v>
+      </c>
+      <c r="G71" t="s">
+        <v>8326</v>
+      </c>
+      <c r="J71" t="s">
+        <v>8327</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>8328</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8329</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8330</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8331</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8332</v>
+      </c>
+      <c r="F72" t="s">
+        <v>8333</v>
+      </c>
+      <c r="G72" t="s">
+        <v>8334</v>
+      </c>
+      <c r="J72" t="s">
+        <v>8335</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>8336</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8009</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8010</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8337</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8338</v>
+      </c>
+      <c r="F73" t="s">
+        <v>8009</v>
+      </c>
+      <c r="G73" t="s">
+        <v>8009</v>
+      </c>
+      <c r="J73" t="s">
+        <v>8011</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>8339</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8340</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8341</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8342</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8343</v>
+      </c>
+      <c r="F74" t="s">
+        <v>8344</v>
+      </c>
+      <c r="G74" t="s">
+        <v>8345</v>
+      </c>
+      <c r="J74" t="s">
+        <v>8346</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>8347</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8348</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8349</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8350</v>
+      </c>
+      <c r="F75" t="s">
+        <v>8351</v>
+      </c>
+      <c r="G75" t="s">
+        <v>8351</v>
+      </c>
+      <c r="J75" t="s">
+        <v>8352</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>8353</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8354</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8355</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8356</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8357</v>
+      </c>
+      <c r="F76" t="s">
+        <v>8358</v>
+      </c>
+      <c r="G76" t="s">
+        <v>8359</v>
+      </c>
+      <c r="J76" t="s">
+        <v>8360</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>8361</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8362</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8363</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8364</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8365</v>
+      </c>
+      <c r="F77" t="s">
+        <v>8366</v>
+      </c>
+      <c r="G77" t="s">
+        <v>8367</v>
+      </c>
+      <c r="J77" t="s">
+        <v>8368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>8369</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8370</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8371</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8372</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8373</v>
+      </c>
+      <c r="F78" t="s">
+        <v>8374</v>
+      </c>
+      <c r="G78" t="s">
+        <v>8375</v>
+      </c>
+      <c r="J78" t="s">
+        <v>8376</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>8377</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8378</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8379</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8380</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8381</v>
+      </c>
+      <c r="F79" t="s">
+        <v>8382</v>
+      </c>
+      <c r="G79" t="s">
+        <v>8383</v>
+      </c>
+      <c r="J79" t="s">
+        <v>8384</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>8385</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8386</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8387</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8388</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8389</v>
+      </c>
+      <c r="F80" t="s">
+        <v>8390</v>
+      </c>
+      <c r="G80" t="s">
+        <v>8391</v>
+      </c>
+      <c r="J80" t="s">
+        <v>8392</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>8393</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8394</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8395</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8396</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8397</v>
+      </c>
+      <c r="F81" t="s">
+        <v>8398</v>
+      </c>
+      <c r="G81" t="s">
+        <v>8399</v>
+      </c>
+      <c r="J81" t="s">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>8401</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8402</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8403</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8404</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8405</v>
+      </c>
+      <c r="F82" t="s">
+        <v>8406</v>
+      </c>
+      <c r="G82" t="s">
+        <v>8407</v>
+      </c>
+      <c r="J82" t="s">
+        <v>8408</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>8409</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8410</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8411</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8412</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8413</v>
+      </c>
+      <c r="F83" t="s">
+        <v>8414</v>
+      </c>
+      <c r="G83" t="s">
+        <v>8415</v>
+      </c>
+      <c r="J83" t="s">
+        <v>8416</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>8417</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8418</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8419</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8420</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8421</v>
+      </c>
+      <c r="F84" t="s">
+        <v>8422</v>
+      </c>
+      <c r="G84" t="s">
+        <v>8423</v>
+      </c>
+      <c r="J84" t="s">
+        <v>8424</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>8425</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8426</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8427</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8428</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8429</v>
+      </c>
+      <c r="F85" t="s">
+        <v>8430</v>
+      </c>
+      <c r="G85" t="s">
+        <v>8431</v>
+      </c>
+      <c r="J85" t="s">
+        <v>8432</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>8433</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8434</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8435</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8436</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8437</v>
+      </c>
+      <c r="F86" t="s">
+        <v>8438</v>
+      </c>
+      <c r="G86" t="s">
+        <v>8439</v>
+      </c>
+      <c r="J86" t="s">
+        <v>8440</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>8441</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8442</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8443</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8444</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8445</v>
+      </c>
+      <c r="F87" t="s">
+        <v>8446</v>
+      </c>
+      <c r="G87" t="s">
+        <v>8447</v>
+      </c>
+      <c r="J87" t="s">
+        <v>8448</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>8449</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8450</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8451</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8452</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8453</v>
+      </c>
+      <c r="F88" t="s">
+        <v>8454</v>
+      </c>
+      <c r="G88" t="s">
+        <v>8455</v>
+      </c>
+      <c r="J88" t="s">
+        <v>8456</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>8457</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8458</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8459</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8460</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8461</v>
+      </c>
+      <c r="F89" t="s">
+        <v>8462</v>
+      </c>
+      <c r="G89" t="s">
+        <v>8463</v>
+      </c>
+      <c r="J89" t="s">
+        <v>8464</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>8465</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8466</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8467</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8468</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8469</v>
+      </c>
+      <c r="F90" t="s">
+        <v>8470</v>
+      </c>
+      <c r="G90" t="s">
+        <v>8471</v>
+      </c>
+      <c r="J90" t="s">
+        <v>8472</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>8473</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8474</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8475</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8476</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8477</v>
+      </c>
+      <c r="F91" t="s">
+        <v>8478</v>
+      </c>
+      <c r="G91" t="s">
+        <v>8479</v>
+      </c>
+      <c r="J91" t="s">
+        <v>8480</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>8481</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8482</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8483</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8484</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8485</v>
+      </c>
+      <c r="F92" t="s">
+        <v>8486</v>
+      </c>
+      <c r="G92" t="s">
+        <v>8487</v>
+      </c>
+      <c r="J92" t="s">
+        <v>8488</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>8489</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8490</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8491</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8492</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8493</v>
+      </c>
+      <c r="F93" t="s">
+        <v>8494</v>
+      </c>
+      <c r="G93" t="s">
+        <v>8495</v>
+      </c>
+      <c r="J93" t="s">
+        <v>8496</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>8497</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8498</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8499</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8500</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8501</v>
+      </c>
+      <c r="F94" t="s">
+        <v>8502</v>
+      </c>
+      <c r="G94" t="s">
+        <v>8503</v>
+      </c>
+      <c r="J94" t="s">
+        <v>8504</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>8505</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8506</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8507</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8508</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8509</v>
+      </c>
+      <c r="F95" t="s">
+        <v>8510</v>
+      </c>
+      <c r="G95" t="s">
+        <v>8511</v>
+      </c>
+      <c r="J95" t="s">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>8513</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8514</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8515</v>
+      </c>
+      <c r="D96" t="s">
+        <v>8516</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8517</v>
+      </c>
+      <c r="F96" t="s">
+        <v>8518</v>
+      </c>
+      <c r="G96" t="s">
+        <v>8519</v>
+      </c>
+      <c r="J96" t="s">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>8521</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8522</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8523</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8524</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8525</v>
+      </c>
+      <c r="F97" t="s">
+        <v>8526</v>
+      </c>
+      <c r="G97" t="s">
+        <v>8527</v>
+      </c>
+      <c r="J97" t="s">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>8529</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8530</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8531</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8532</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8533</v>
+      </c>
+      <c r="F98" t="s">
+        <v>8534</v>
+      </c>
+      <c r="G98" t="s">
+        <v>8535</v>
+      </c>
+      <c r="J98" t="s">
+        <v>8536</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>8537</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8538</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8539</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8540</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8541</v>
+      </c>
+      <c r="F99" t="s">
+        <v>8542</v>
+      </c>
+      <c r="G99" t="s">
+        <v>8543</v>
+      </c>
+      <c r="J99" t="s">
+        <v>8544</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>8545</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8546</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8547</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8548</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8549</v>
+      </c>
+      <c r="F100" t="s">
+        <v>8550</v>
+      </c>
+      <c r="G100" t="s">
+        <v>8551</v>
+      </c>
+      <c r="J100" t="s">
+        <v>8552</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>8553</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1384</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1384</v>
+      </c>
+      <c r="J101" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>8554</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8555</v>
+      </c>
+      <c r="C102" t="s">
+        <v>266</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8556</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8557</v>
+      </c>
+      <c r="F102" t="s">
+        <v>8555</v>
+      </c>
+      <c r="G102" t="s">
+        <v>8555</v>
+      </c>
+      <c r="J102" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>8558</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8559</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8560</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8561</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8561</v>
+      </c>
+      <c r="F103" t="s">
+        <v>8562</v>
+      </c>
+      <c r="G103" t="s">
+        <v>8563</v>
+      </c>
+      <c r="J103" t="s">
+        <v>8564</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>8565</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8566</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8567</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8568</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8569</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8566</v>
+      </c>
+      <c r="G104" t="s">
+        <v>8570</v>
+      </c>
+      <c r="J104" t="s">
+        <v>8571</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>8572</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8573</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8574</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8575</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8576</v>
+      </c>
+      <c r="F105" t="s">
+        <v>8577</v>
+      </c>
+      <c r="G105" t="s">
+        <v>8578</v>
+      </c>
+      <c r="J105" t="s">
+        <v>8579</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>8580</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8581</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8582</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8583</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8584</v>
+      </c>
+      <c r="F106" t="s">
+        <v>8585</v>
+      </c>
+      <c r="G106" t="s">
+        <v>8585</v>
+      </c>
+      <c r="J106" t="s">
+        <v>8586</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>8587</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8588</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8589</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8590</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8590</v>
+      </c>
+      <c r="F107" t="s">
+        <v>8591</v>
+      </c>
+      <c r="G107" t="s">
+        <v>8592</v>
+      </c>
+      <c r="J107" t="s">
+        <v>8593</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>8594</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8595</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8596</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8597</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8598</v>
+      </c>
+      <c r="F108" t="s">
+        <v>8599</v>
+      </c>
+      <c r="G108" t="s">
+        <v>8600</v>
+      </c>
+      <c r="J108" t="s">
+        <v>8601</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>8602</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8603</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8604</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8605</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8606</v>
+      </c>
+      <c r="F109" t="s">
+        <v>8607</v>
+      </c>
+      <c r="G109" t="s">
+        <v>8608</v>
+      </c>
+      <c r="J109" t="s">
+        <v>8609</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>8610</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8612</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8613</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8614</v>
+      </c>
+      <c r="F110" t="s">
+        <v>8615</v>
+      </c>
+      <c r="G110" t="s">
+        <v>8616</v>
+      </c>
+      <c r="J110" t="s">
+        <v>8617</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>8618</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8619</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8620</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8621</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8622</v>
+      </c>
+      <c r="F111" t="s">
+        <v>8623</v>
+      </c>
+      <c r="G111" t="s">
+        <v>8624</v>
+      </c>
+      <c r="J111" t="s">
+        <v>8625</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>8626</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8627</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8628</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8629</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8630</v>
+      </c>
+      <c r="F112" t="s">
+        <v>8631</v>
+      </c>
+      <c r="G112" t="s">
+        <v>8632</v>
+      </c>
+      <c r="J112" t="s">
+        <v>8633</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>8634</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8635</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8636</v>
+      </c>
+      <c r="D113" t="s">
+        <v>8637</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8638</v>
+      </c>
+      <c r="F113" t="s">
+        <v>8639</v>
+      </c>
+      <c r="G113" t="s">
+        <v>8640</v>
+      </c>
+      <c r="J113" t="s">
+        <v>8641</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>8642</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8643</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8644</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8645</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8646</v>
+      </c>
+      <c r="F114" t="s">
+        <v>8647</v>
+      </c>
+      <c r="G114" t="s">
+        <v>8648</v>
+      </c>
+      <c r="J114" t="s">
+        <v>8649</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>8650</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8651</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8651</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8651</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8651</v>
+      </c>
+      <c r="F115" t="s">
+        <v>8651</v>
+      </c>
+      <c r="G115" t="s">
+        <v>8651</v>
+      </c>
+      <c r="J115" t="s">
+        <v>8651</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>8652</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8653</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8654</v>
+      </c>
+      <c r="D116" t="s">
+        <v>8655</v>
+      </c>
+      <c r="E116" t="s">
+        <v>8656</v>
+      </c>
+      <c r="F116" t="s">
+        <v>8657</v>
+      </c>
+      <c r="G116" t="s">
+        <v>8658</v>
+      </c>
+      <c r="J116" t="s">
+        <v>8659</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>8660</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8661</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8661</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8661</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8661</v>
+      </c>
+      <c r="F117" t="s">
+        <v>8661</v>
+      </c>
+      <c r="G117" t="s">
+        <v>8661</v>
+      </c>
+      <c r="J117" t="s">
+        <v>8661</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>8662</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8663</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8664</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8665</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8666</v>
+      </c>
+      <c r="F118" t="s">
+        <v>8667</v>
+      </c>
+      <c r="G118" t="s">
+        <v>8668</v>
+      </c>
+      <c r="J118" t="s">
+        <v>8669</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>8670</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8671</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8671</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8671</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8671</v>
+      </c>
+      <c r="F119" t="s">
+        <v>8671</v>
+      </c>
+      <c r="G119" t="s">
+        <v>8671</v>
+      </c>
+      <c r="J119" t="s">
+        <v>8671</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>8672</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8673</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8674</v>
+      </c>
+      <c r="D120" t="s">
+        <v>8675</v>
+      </c>
+      <c r="E120" t="s">
+        <v>8676</v>
+      </c>
+      <c r="F120" t="s">
+        <v>8677</v>
+      </c>
+      <c r="G120" t="s">
+        <v>8678</v>
+      </c>
+      <c r="J120" t="s">
+        <v>8679</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>8680</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8681</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8681</v>
+      </c>
+      <c r="D121" t="s">
+        <v>8681</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8681</v>
+      </c>
+      <c r="F121" t="s">
+        <v>8681</v>
+      </c>
+      <c r="G121" t="s">
+        <v>8681</v>
+      </c>
+      <c r="J121" t="s">
+        <v>8681</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>8682</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8683</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8684</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8685</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8686</v>
+      </c>
+      <c r="F122" t="s">
+        <v>8687</v>
+      </c>
+      <c r="G122" t="s">
+        <v>8688</v>
+      </c>
+      <c r="J122" t="s">
+        <v>8689</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>8690</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8691</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8691</v>
+      </c>
+      <c r="D123" t="s">
+        <v>8691</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8691</v>
+      </c>
+      <c r="F123" t="s">
+        <v>8691</v>
+      </c>
+      <c r="G123" t="s">
+        <v>8691</v>
+      </c>
+      <c r="J123" t="s">
+        <v>8691</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>8692</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8693</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8694</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4493</v>
+      </c>
+      <c r="E124" t="s">
+        <v>4494</v>
+      </c>
+      <c r="F124" t="s">
+        <v>8695</v>
+      </c>
+      <c r="G124" t="s">
+        <v>8696</v>
+      </c>
+      <c r="J124" t="s">
+        <v>8693</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>8697</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8698</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8698</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8699</v>
+      </c>
+      <c r="E125" t="s">
+        <v>8700</v>
+      </c>
+      <c r="F125" t="s">
+        <v>8701</v>
+      </c>
+      <c r="G125" t="s">
+        <v>8702</v>
+      </c>
+      <c r="J125" t="s">
+        <v>8703</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>8704</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8705</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8706</v>
+      </c>
+      <c r="D126" t="s">
+        <v>8707</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8707</v>
+      </c>
+      <c r="F126" t="s">
+        <v>8708</v>
+      </c>
+      <c r="G126" t="s">
+        <v>8709</v>
+      </c>
+      <c r="J126" t="s">
+        <v>8710</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>8711</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8712</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8713</v>
+      </c>
+      <c r="D127" t="s">
+        <v>8714</v>
+      </c>
+      <c r="E127" t="s">
+        <v>8715</v>
+      </c>
+      <c r="F127" t="s">
+        <v>8712</v>
+      </c>
+      <c r="G127" t="s">
+        <v>8712</v>
+      </c>
+      <c r="J127" t="s">
+        <v>8716</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>8717</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8718</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8719</v>
+      </c>
+      <c r="D128" t="s">
+        <v>8568</v>
+      </c>
+      <c r="E128" t="s">
+        <v>8569</v>
+      </c>
+      <c r="F128" t="s">
+        <v>8718</v>
+      </c>
+      <c r="G128" t="s">
+        <v>8720</v>
+      </c>
+      <c r="J128" t="s">
+        <v>8721</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>8722</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8723</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8724</v>
+      </c>
+      <c r="D129" t="s">
+        <v>8725</v>
+      </c>
+      <c r="E129" t="s">
+        <v>8726</v>
+      </c>
+      <c r="F129" t="s">
+        <v>8727</v>
+      </c>
+      <c r="G129" t="s">
+        <v>8728</v>
+      </c>
+      <c r="J129" t="s">
+        <v>8729</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>8730</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8731</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8732</v>
+      </c>
+      <c r="D130" t="s">
+        <v>8733</v>
+      </c>
+      <c r="E130" t="s">
+        <v>8734</v>
+      </c>
+      <c r="F130" t="s">
+        <v>8735</v>
+      </c>
+      <c r="G130" t="s">
+        <v>8735</v>
+      </c>
+      <c r="J130" t="s">
+        <v>8736</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>8737</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8738</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8739</v>
+      </c>
+      <c r="D131" t="s">
+        <v>8740</v>
+      </c>
+      <c r="E131" t="s">
+        <v>8741</v>
+      </c>
+      <c r="F131" t="s">
+        <v>8742</v>
+      </c>
+      <c r="G131" t="s">
+        <v>8743</v>
+      </c>
+      <c r="J131" t="s">
+        <v>8744</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>8745</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8746</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8747</v>
+      </c>
+      <c r="D132" t="s">
+        <v>8748</v>
+      </c>
+      <c r="E132" t="s">
+        <v>8749</v>
+      </c>
+      <c r="F132" t="s">
+        <v>8750</v>
+      </c>
+      <c r="G132" t="s">
+        <v>8751</v>
+      </c>
+      <c r="J132" t="s">
+        <v>8752</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>8753</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8754</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8755</v>
+      </c>
+      <c r="D133" t="s">
+        <v>8756</v>
+      </c>
+      <c r="E133" t="s">
+        <v>8757</v>
+      </c>
+      <c r="F133" t="s">
+        <v>8758</v>
+      </c>
+      <c r="G133" t="s">
+        <v>8758</v>
+      </c>
+      <c r="J133" t="s">
+        <v>8759</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>8760</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8761</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8762</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8763</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8764</v>
+      </c>
+      <c r="F134" t="s">
+        <v>8765</v>
+      </c>
+      <c r="G134" t="s">
+        <v>8766</v>
+      </c>
+      <c r="J134" t="s">
+        <v>8767</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>8768</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8769</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8770</v>
+      </c>
+      <c r="D135" t="s">
+        <v>8771</v>
+      </c>
+      <c r="E135" t="s">
+        <v>8772</v>
+      </c>
+      <c r="F135" t="s">
+        <v>8773</v>
+      </c>
+      <c r="G135" t="s">
+        <v>8774</v>
+      </c>
+      <c r="J135" t="s">
+        <v>8775</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>8776</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8777</v>
+      </c>
+      <c r="C136" t="s">
+        <v>8778</v>
+      </c>
+      <c r="D136" t="s">
+        <v>8779</v>
+      </c>
+      <c r="E136" t="s">
+        <v>8780</v>
+      </c>
+      <c r="F136" t="s">
+        <v>8781</v>
+      </c>
+      <c r="G136" t="s">
+        <v>8782</v>
+      </c>
+      <c r="J136" t="s">
+        <v>8783</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>8784</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8785</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8786</v>
+      </c>
+      <c r="D137" t="s">
+        <v>8787</v>
+      </c>
+      <c r="E137" t="s">
+        <v>8788</v>
+      </c>
+      <c r="F137" t="s">
+        <v>8789</v>
+      </c>
+      <c r="G137" t="s">
+        <v>8790</v>
+      </c>
+      <c r="J137" t="s">
+        <v>8791</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>8792</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8793</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8794</v>
+      </c>
+      <c r="D138" t="s">
+        <v>8795</v>
+      </c>
+      <c r="E138" t="s">
+        <v>8796</v>
+      </c>
+      <c r="F138" t="s">
+        <v>8797</v>
+      </c>
+      <c r="G138" t="s">
+        <v>8798</v>
+      </c>
+      <c r="J138" t="s">
+        <v>8799</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>8800</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8801</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8802</v>
+      </c>
+      <c r="D139" t="s">
+        <v>8803</v>
+      </c>
+      <c r="E139" t="s">
+        <v>8804</v>
+      </c>
+      <c r="F139" t="s">
+        <v>8805</v>
+      </c>
+      <c r="G139" t="s">
+        <v>8806</v>
+      </c>
+      <c r="J139" t="s">
+        <v>8807</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>8808</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8809</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8810</v>
+      </c>
+      <c r="D140" t="s">
+        <v>8811</v>
+      </c>
+      <c r="E140" t="s">
+        <v>8812</v>
+      </c>
+      <c r="F140" t="s">
+        <v>8813</v>
+      </c>
+      <c r="G140" t="s">
+        <v>8814</v>
+      </c>
+      <c r="J140" t="s">
+        <v>8815</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>8816</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8817</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8818</v>
+      </c>
+      <c r="D141" t="s">
+        <v>8819</v>
+      </c>
+      <c r="E141" t="s">
+        <v>8820</v>
+      </c>
+      <c r="F141" t="s">
+        <v>8821</v>
+      </c>
+      <c r="G141" t="s">
+        <v>8822</v>
+      </c>
+      <c r="J141" t="s">
+        <v>8823</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>8824</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8825</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8826</v>
+      </c>
+      <c r="D142" t="s">
+        <v>8827</v>
+      </c>
+      <c r="E142" t="s">
+        <v>8828</v>
+      </c>
+      <c r="F142" t="s">
+        <v>8829</v>
+      </c>
+      <c r="G142" t="s">
+        <v>8830</v>
+      </c>
+      <c r="J142" t="s">
+        <v>8831</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>8832</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8833</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8833</v>
+      </c>
+      <c r="D143" t="s">
+        <v>8833</v>
+      </c>
+      <c r="E143" t="s">
+        <v>8833</v>
+      </c>
+      <c r="F143" t="s">
+        <v>8833</v>
+      </c>
+      <c r="G143" t="s">
+        <v>8833</v>
+      </c>
+      <c r="J143" t="s">
+        <v>8833</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>8834</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8835</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8836</v>
+      </c>
+      <c r="D144" t="s">
+        <v>8837</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8838</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8839</v>
+      </c>
+      <c r="G144" t="s">
+        <v>8840</v>
+      </c>
+      <c r="J144" t="s">
+        <v>8841</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>8842</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8843</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8844</v>
+      </c>
+      <c r="D145" t="s">
+        <v>8845</v>
+      </c>
+      <c r="E145" t="s">
+        <v>8846</v>
+      </c>
+      <c r="F145" t="s">
+        <v>8843</v>
+      </c>
+      <c r="G145" t="s">
+        <v>8843</v>
+      </c>
+      <c r="J145" t="s">
+        <v>8843</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>8847</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8848</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8849</v>
+      </c>
+      <c r="D146" t="s">
+        <v>8850</v>
+      </c>
+      <c r="E146" t="s">
+        <v>8851</v>
+      </c>
+      <c r="F146" t="s">
+        <v>8852</v>
+      </c>
+      <c r="G146" t="s">
+        <v>8853</v>
+      </c>
+      <c r="J146" t="s">
+        <v>8854</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>8855</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8856</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8857</v>
+      </c>
+      <c r="D147" t="s">
+        <v>8858</v>
+      </c>
+      <c r="E147" t="s">
+        <v>8859</v>
+      </c>
+      <c r="F147" t="s">
+        <v>8860</v>
+      </c>
+      <c r="G147" t="s">
+        <v>8861</v>
+      </c>
+      <c r="J147" t="s">
+        <v>8862</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>8863</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8864</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8865</v>
+      </c>
+      <c r="D148" t="s">
+        <v>8866</v>
+      </c>
+      <c r="E148" t="s">
+        <v>8867</v>
+      </c>
+      <c r="F148" t="s">
+        <v>8868</v>
+      </c>
+      <c r="G148" t="s">
+        <v>8864</v>
+      </c>
+      <c r="J148" t="s">
+        <v>8869</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>8870</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8871</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8872</v>
+      </c>
+      <c r="D149" t="s">
+        <v>8871</v>
+      </c>
+      <c r="E149" t="s">
+        <v>8871</v>
+      </c>
+      <c r="F149" t="s">
+        <v>8871</v>
+      </c>
+      <c r="G149" t="s">
+        <v>8871</v>
+      </c>
+      <c r="J149" t="s">
+        <v>8871</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>8873</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8874</v>
+      </c>
+      <c r="C150" t="s">
+        <v>8875</v>
+      </c>
+      <c r="D150" t="s">
+        <v>8876</v>
+      </c>
+      <c r="E150" t="s">
+        <v>8877</v>
+      </c>
+      <c r="F150" t="s">
+        <v>8874</v>
+      </c>
+      <c r="G150" t="s">
+        <v>8874</v>
+      </c>
+      <c r="J150" t="s">
+        <v>8874</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>8878</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8879</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8880</v>
+      </c>
+      <c r="D151" t="s">
+        <v>8879</v>
+      </c>
+      <c r="E151" t="s">
+        <v>8879</v>
+      </c>
+      <c r="F151" t="s">
+        <v>8881</v>
+      </c>
+      <c r="G151" t="s">
+        <v>8879</v>
+      </c>
+      <c r="J151" t="s">
+        <v>8882</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>8883</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8884</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8885</v>
+      </c>
+      <c r="D152" t="s">
+        <v>8886</v>
+      </c>
+      <c r="E152" t="s">
+        <v>8887</v>
+      </c>
+      <c r="F152" t="s">
+        <v>8884</v>
+      </c>
+      <c r="G152" t="s">
+        <v>8884</v>
+      </c>
+      <c r="J152" t="s">
+        <v>8888</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>8889</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8890</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8891</v>
+      </c>
+      <c r="D153" t="s">
+        <v>8892</v>
+      </c>
+      <c r="E153" t="s">
+        <v>8892</v>
+      </c>
+      <c r="F153" t="s">
+        <v>8893</v>
+      </c>
+      <c r="G153" t="s">
+        <v>8894</v>
+      </c>
+      <c r="J153" t="s">
+        <v>8895</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>8896</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8897</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8898</v>
+      </c>
+      <c r="D154" t="s">
+        <v>8899</v>
+      </c>
+      <c r="E154" t="s">
+        <v>8900</v>
+      </c>
+      <c r="F154" t="s">
+        <v>8901</v>
+      </c>
+      <c r="G154" t="s">
+        <v>8902</v>
+      </c>
+      <c r="J154" t="s">
+        <v>8903</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>8904</v>
+      </c>
+      <c r="B155" t="s">
+        <v>8905</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8906</v>
+      </c>
+      <c r="D155" t="s">
+        <v>8907</v>
+      </c>
+      <c r="E155" t="s">
+        <v>8908</v>
+      </c>
+      <c r="F155" t="s">
+        <v>8909</v>
+      </c>
+      <c r="G155" t="s">
+        <v>8910</v>
+      </c>
+      <c r="J155" t="s">
+        <v>8911</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>8912</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8913</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8914</v>
+      </c>
+      <c r="D156" t="s">
+        <v>8915</v>
+      </c>
+      <c r="E156" t="s">
+        <v>8916</v>
+      </c>
+      <c r="F156" t="s">
+        <v>8917</v>
+      </c>
+      <c r="G156" t="s">
+        <v>8918</v>
+      </c>
+      <c r="J156" t="s">
+        <v>8919</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>8920</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8921</v>
+      </c>
+      <c r="C157" t="s">
+        <v>8922</v>
+      </c>
+      <c r="D157" t="s">
+        <v>8923</v>
+      </c>
+      <c r="E157" t="s">
+        <v>8924</v>
+      </c>
+      <c r="F157" t="s">
+        <v>8925</v>
+      </c>
+      <c r="G157" t="s">
+        <v>8921</v>
+      </c>
+      <c r="J157" t="s">
+        <v>8921</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>8926</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8927</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8928</v>
+      </c>
+      <c r="D158" t="s">
+        <v>8929</v>
+      </c>
+      <c r="E158" t="s">
+        <v>8929</v>
+      </c>
+      <c r="F158" t="s">
+        <v>8930</v>
+      </c>
+      <c r="G158" t="s">
+        <v>8927</v>
+      </c>
+      <c r="J158" t="s">
+        <v>8927</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>8931</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8932</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8933</v>
+      </c>
+      <c r="D159" t="s">
+        <v>8934</v>
+      </c>
+      <c r="E159" t="s">
+        <v>8935</v>
+      </c>
+      <c r="F159" t="s">
+        <v>8932</v>
+      </c>
+      <c r="G159" t="s">
+        <v>8932</v>
+      </c>
+      <c r="J159" t="s">
+        <v>8936</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>8937</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8938</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8939</v>
+      </c>
+      <c r="D160" t="s">
+        <v>8940</v>
+      </c>
+      <c r="E160" t="s">
+        <v>8941</v>
+      </c>
+      <c r="F160" t="s">
+        <v>8942</v>
+      </c>
+      <c r="G160" t="s">
+        <v>8943</v>
+      </c>
+      <c r="J160" t="s">
+        <v>8944</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>8945</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8946</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8947</v>
+      </c>
+      <c r="F161" t="s">
+        <v>8948</v>
+      </c>
+      <c r="G161" t="s">
+        <v>8949</v>
+      </c>
+      <c r="J161" t="s">
+        <v>8950</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>8951</v>
+      </c>
+      <c r="B162" t="s">
+        <v>8321</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8322</v>
+      </c>
+      <c r="F162" t="s">
+        <v>8585</v>
+      </c>
+      <c r="G162" t="s">
+        <v>8952</v>
+      </c>
+      <c r="J162" t="s">
+        <v>8327</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>8953</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8954</v>
+      </c>
+      <c r="C163" t="s">
+        <v>8955</v>
+      </c>
+      <c r="F163" t="s">
+        <v>8956</v>
+      </c>
+      <c r="G163" t="s">
+        <v>8957</v>
+      </c>
+      <c r="J163" t="s">
+        <v>8958</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>8959</v>
+      </c>
+      <c r="B164" t="s">
+        <v>8960</v>
+      </c>
+      <c r="C164" t="s">
+        <v>8961</v>
+      </c>
+      <c r="F164" t="s">
+        <v>8962</v>
+      </c>
+      <c r="G164" t="s">
+        <v>8963</v>
+      </c>
+      <c r="J164" t="s">
+        <v>8964</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>8965</v>
+      </c>
+      <c r="B165" t="s">
+        <v>8966</v>
+      </c>
+      <c r="C165" t="s">
+        <v>7189</v>
+      </c>
+      <c r="F165" t="s">
+        <v>6844</v>
+      </c>
+      <c r="G165" t="s">
+        <v>8967</v>
+      </c>
+      <c r="J165" t="s">
+        <v>8968</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>8969</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G166" t="s">
+        <v>8970</v>
+      </c>
+      <c r="J166" t="s">
+        <v>8971</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>8972</v>
+      </c>
+      <c r="B167" t="s">
+        <v>266</v>
+      </c>
+      <c r="C167" t="s">
+        <v>266</v>
+      </c>
+      <c r="F167" t="s">
+        <v>266</v>
+      </c>
+      <c r="G167" t="s">
+        <v>266</v>
+      </c>
+      <c r="J167" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>8973</v>
+      </c>
+      <c r="B168" t="s">
+        <v>8974</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8739</v>
+      </c>
+      <c r="F168" t="s">
+        <v>8975</v>
+      </c>
+      <c r="G168" t="s">
+        <v>8976</v>
+      </c>
+      <c r="J168" t="s">
+        <v>8977</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>8978</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8979</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8980</v>
+      </c>
+      <c r="F169" t="s">
+        <v>8981</v>
+      </c>
+      <c r="G169" t="s">
+        <v>8982</v>
+      </c>
+      <c r="J169" t="s">
+        <v>8983</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>8984</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8985</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8986</v>
+      </c>
+      <c r="F170" t="s">
+        <v>8987</v>
+      </c>
+      <c r="G170" t="s">
+        <v>8987</v>
+      </c>
+      <c r="J170" t="s">
+        <v>8988</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>8989</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8990</v>
+      </c>
+      <c r="C171" t="s">
+        <v>8991</v>
+      </c>
+      <c r="F171" t="s">
+        <v>8992</v>
+      </c>
+      <c r="G171" t="s">
+        <v>8993</v>
+      </c>
+      <c r="J171" t="s">
+        <v>8994</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>8995</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8996</v>
+      </c>
+      <c r="C172" t="s">
+        <v>8997</v>
+      </c>
+      <c r="F172" t="s">
+        <v>8998</v>
+      </c>
+      <c r="G172" t="s">
+        <v>8999</v>
+      </c>
+      <c r="J172" t="s">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>9001</v>
+      </c>
+      <c r="B173" t="s">
+        <v>9002</v>
+      </c>
+      <c r="C173" t="s">
+        <v>9003</v>
+      </c>
+      <c r="F173" t="s">
+        <v>9004</v>
+      </c>
+      <c r="G173" t="s">
+        <v>9005</v>
+      </c>
+      <c r="J173" t="s">
+        <v>9006</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>9007</v>
+      </c>
+      <c r="B174" t="s">
+        <v>9008</v>
+      </c>
+      <c r="C174" t="s">
+        <v>9009</v>
+      </c>
+      <c r="F174" t="s">
+        <v>9010</v>
+      </c>
+      <c r="G174" t="s">
+        <v>9011</v>
+      </c>
+      <c r="J174" t="s">
+        <v>9012</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>9013</v>
+      </c>
+      <c r="B175" t="s">
+        <v>9014</v>
+      </c>
+      <c r="C175" t="s">
+        <v>9015</v>
+      </c>
+      <c r="F175" t="s">
+        <v>9016</v>
+      </c>
+      <c r="G175" t="s">
+        <v>9017</v>
+      </c>
+      <c r="J175" t="s">
+        <v>9018</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>9019</v>
+      </c>
+      <c r="B176" t="s">
+        <v>9020</v>
+      </c>
+      <c r="C176" t="s">
+        <v>9021</v>
+      </c>
+      <c r="F176" t="s">
+        <v>9022</v>
+      </c>
+      <c r="G176" t="s">
+        <v>9023</v>
+      </c>
+      <c r="J176" t="s">
+        <v>9024</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>9025</v>
+      </c>
+      <c r="B177" t="s">
+        <v>9026</v>
+      </c>
+      <c r="C177" t="s">
+        <v>9027</v>
+      </c>
+      <c r="F177" t="s">
+        <v>9028</v>
+      </c>
+      <c r="G177" t="s">
+        <v>9029</v>
+      </c>
+      <c r="J177" t="s">
+        <v>9030</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>9031</v>
+      </c>
+      <c r="B178" t="s">
+        <v>9032</v>
+      </c>
+      <c r="C178" t="s">
+        <v>9033</v>
+      </c>
+      <c r="F178" t="s">
+        <v>9034</v>
+      </c>
+      <c r="G178" t="s">
+        <v>9035</v>
+      </c>
+      <c r="J178" t="s">
+        <v>9036</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>9037</v>
+      </c>
+      <c r="B179" t="s">
+        <v>9038</v>
+      </c>
+      <c r="C179" t="s">
+        <v>9039</v>
+      </c>
+      <c r="F179" t="s">
+        <v>9040</v>
+      </c>
+      <c r="G179" t="s">
+        <v>9041</v>
+      </c>
+      <c r="J179" t="s">
+        <v>9042</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>9043</v>
+      </c>
+      <c r="B180" t="s">
+        <v>9044</v>
+      </c>
+      <c r="C180" t="s">
+        <v>9045</v>
+      </c>
+      <c r="F180" t="s">
+        <v>9046</v>
+      </c>
+      <c r="G180" t="s">
+        <v>9047</v>
+      </c>
+      <c r="J180" t="s">
+        <v>9048</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>9049</v>
+      </c>
+      <c r="B181" t="s">
+        <v>9050</v>
+      </c>
+      <c r="C181" t="s">
+        <v>9051</v>
+      </c>
+      <c r="F181" t="s">
+        <v>9052</v>
+      </c>
+      <c r="G181" t="s">
+        <v>9053</v>
+      </c>
+      <c r="J181" t="s">
+        <v>9054</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>9055</v>
+      </c>
+      <c r="B182" t="s">
+        <v>9056</v>
+      </c>
+      <c r="C182" t="s">
+        <v>9057</v>
+      </c>
+      <c r="F182" t="s">
+        <v>9058</v>
+      </c>
+      <c r="G182" t="s">
+        <v>9059</v>
+      </c>
+      <c r="J182" t="s">
+        <v>9060</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>9061</v>
+      </c>
+      <c r="B183" t="s">
+        <v>9062</v>
+      </c>
+      <c r="C183" t="s">
+        <v>9063</v>
+      </c>
+      <c r="F183" t="s">
+        <v>9064</v>
+      </c>
+      <c r="G183" t="s">
+        <v>9065</v>
+      </c>
+      <c r="J183" t="s">
+        <v>9066</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>9067</v>
+      </c>
+      <c r="B184" t="s">
+        <v>9068</v>
+      </c>
+      <c r="C184" t="s">
+        <v>9069</v>
+      </c>
+      <c r="F184" t="s">
+        <v>9070</v>
+      </c>
+      <c r="G184" t="s">
+        <v>9071</v>
+      </c>
+      <c r="J184" t="s">
+        <v>9072</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>9073</v>
+      </c>
+      <c r="B185" t="s">
+        <v>9074</v>
+      </c>
+      <c r="C185" t="s">
+        <v>9075</v>
+      </c>
+      <c r="F185" t="s">
+        <v>9076</v>
+      </c>
+      <c r="G185" t="s">
+        <v>9077</v>
+      </c>
+      <c r="J185" t="s">
+        <v>9078</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>9079</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9080</v>
+      </c>
+      <c r="C186" t="s">
+        <v>9081</v>
+      </c>
+      <c r="F186" t="s">
+        <v>9082</v>
+      </c>
+      <c r="G186" t="s">
+        <v>9083</v>
+      </c>
+      <c r="J186" t="s">
+        <v>9084</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>9085</v>
+      </c>
+      <c r="B187" t="s">
+        <v>9086</v>
+      </c>
+      <c r="C187" t="s">
+        <v>9087</v>
+      </c>
+      <c r="F187" t="s">
+        <v>9088</v>
+      </c>
+      <c r="G187" t="s">
+        <v>9089</v>
+      </c>
+      <c r="J187" t="s">
+        <v>9090</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>9091</v>
+      </c>
+      <c r="B188" t="s">
+        <v>9092</v>
+      </c>
+      <c r="C188" t="s">
+        <v>9093</v>
+      </c>
+      <c r="F188" t="s">
+        <v>9094</v>
+      </c>
+      <c r="G188" t="s">
+        <v>9095</v>
+      </c>
+      <c r="J188" t="s">
+        <v>9096</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>9097</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9098</v>
+      </c>
+      <c r="C189" t="s">
+        <v>9099</v>
+      </c>
+      <c r="F189" t="s">
+        <v>9100</v>
+      </c>
+      <c r="G189" t="s">
+        <v>9101</v>
+      </c>
+      <c r="J189" t="s">
+        <v>9102</v>
       </c>
     </row>
   </sheetData>

--- a/_localisation.xlsx
+++ b/_localisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Projects\Identifile\project-identifile-localisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD800D7-E219-4352-AC9A-58C542FE3F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708E69D4-E5D9-46E7-A82F-CEFBCB0B553A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{DD0ADE5A-0746-48DE-8950-17139D90D8DD}"/>
+    <workbookView xWindow="4890" yWindow="2565" windowWidth="31740" windowHeight="16170" activeTab="1" xr2:uid="{DD0ADE5A-0746-48DE-8950-17139D90D8DD}"/>
   </bookViews>
   <sheets>
     <sheet name="achievements" sheetId="2" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14941" uniqueCount="11998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15127" uniqueCount="12178">
   <si>
     <t>keys</t>
   </si>
@@ -36396,12 +36396,552 @@
 X Community: 
 @NuraPixel, @_kiseki_miracle, @Lynte_, @m_artstuff, @Duwi_EXE, @Phromn_, @CunnieHoe, @ZeliotL, @trizG_, @NandooPX, @iterateinteract, @gatekid3, @NotMondayGame, @Toadzillart, @NapasGames, @PixelDominus, @TanzDev, @GabreuSenra, @DracoNoko, @Cup_Nooble_, @CursedCode, @Caronte_Caim, @moonlightmae_vt, @auralystic, @Bloopa_Loopa, @SpringloadedDev, @sudonym, @Flashkirby, @w1k3d10, @aintnoking, @HanahoneybeeVT, @Regris_Kallen, @the_polar_pop, @MeanieMoonArt, @jeminix2, @elpichonart, @arsundust, @MiniTankMayhem, @_nyunnya_, @TurtleHolder, @krait181, @lenard_pr, @funa_vt, @_theMatteBlack</t>
   </si>
+  <si>
+    <t>一击识别一个病毒</t>
+  </si>
+  <si>
+    <t>总计识别{x}个正在攻击中的歌姬病毒</t>
+  </si>
+  <si>
+    <t>使用火爆脾气击败复活岛石像</t>
+  </si>
+  <si>
+    <t>通关F盘</t>
+  </si>
+  <si>
+    <t>收集密钥碎片1和2</t>
+  </si>
+  <si>
+    <t>不花费金币的情况下通关</t>
+  </si>
+  <si>
+    <t>捡起 {x} 份文件</t>
+  </si>
+  <si>
+    <t>在木马病毒攻击期间识别出共计 {x} 个木马病毒</t>
+  </si>
+  <si>
+    <t>圆形尾迹</t>
+  </si>
+  <si>
+    <t>三角尾迹</t>
+  </si>
+  <si>
+    <t>星形尾迹</t>
+  </si>
+  <si>
+    <t>硬币尾迹</t>
+  </si>
+  <si>
+    <t>蓝盒尾迹</t>
+  </si>
+  <si>
+    <t>爱心尾迹</t>
+  </si>
+  <si>
+    <t>闪光尾迹</t>
+  </si>
+  <si>
+    <t>光标尾迹</t>
+  </si>
+  <si>
+    <t>呆呆尾迹</t>
+  </si>
+  <si>
+    <t>病毒尾迹</t>
+  </si>
+  <si>
+    <t>太空侵略者尾迹</t>
+  </si>
+  <si>
+    <t>开发者尾迹</t>
+  </si>
+  <si>
+    <t>小夹皮皮肤</t>
+  </si>
+  <si>
+    <t>痞子人生皮肤</t>
+  </si>
+  <si>
+    <t>剑形皮肤</t>
+  </si>
+  <si>
+    <t>镐子皮肤</t>
+  </si>
+  <si>
+    <t>御币皮肤</t>
+  </si>
+  <si>
+    <t>图钉皮肤</t>
+  </si>
+  <si>
+    <t>蓝盒皮肤</t>
+  </si>
+  <si>
+    <t>小鱼皮肤</t>
+  </si>
+  <si>
+    <t>魔法少女皮肤</t>
+  </si>
+  <si>
+    <t>香蕉皮肤</t>
+  </si>
+  <si>
+    <t>披萨皮肤</t>
+  </si>
+  <si>
+    <t>决心皮肤</t>
+  </si>
+  <si>
+    <t>小孢</t>
+  </si>
+  <si>
+    <t>小骷</t>
+  </si>
+  <si>
+    <t>小马</t>
+  </si>
+  <si>
+    <t>小姬</t>
+  </si>
+  <si>
+    <t>压缩炸弹</t>
+  </si>
+  <si>
+    <t>小石</t>
+  </si>
+  <si>
+    <t>阿户</t>
+  </si>
+  <si>
+    <t>小蠕</t>
+  </si>
+  <si>
+    <t>小蛛</t>
+  </si>
+  <si>
+    <t>小卵</t>
+  </si>
+  <si>
+    <t>阿助</t>
+  </si>
+  <si>
+    <t>引导区</t>
+  </si>
+  <si>
+    <t>饼干怪兽</t>
+  </si>
+  <si>
+    <t>伯德</t>
+  </si>
+  <si>
+    <t>小书</t>
+  </si>
+  <si>
+    <t>共匿者</t>
+  </si>
+  <si>
+    <t>震网</t>
+  </si>
+  <si>
+    <t>爆爆</t>
+  </si>
+  <si>
+    <t>蓝精灵</t>
+  </si>
+  <si>
+    <t>阿拉苹果</t>
+  </si>
+  <si>
+    <t>监视者</t>
+  </si>
+  <si>
+    <t>飞马</t>
+  </si>
+  <si>
+    <t>锁位</t>
+  </si>
+  <si>
+    <t>跟套件</t>
+  </si>
+  <si>
+    <t>布谷</t>
+  </si>
+  <si>
+    <t>尼姆达</t>
+  </si>
+  <si>
+    <t>未来</t>
+  </si>
+  <si>
+    <t>萨瑟</t>
+  </si>
+  <si>
+    <t>梅丽莎</t>
+  </si>
+  <si>
+    <t>Z僵尸</t>
+  </si>
+  <si>
+    <t>Bug之祖</t>
+  </si>
+  <si>
+    <t>织网者</t>
+  </si>
+  <si>
+    <t>云核X</t>
+  </si>
+  <si>
+    <t>利维_AI</t>
+  </si>
+  <si>
+    <t>蓝盒</t>
+  </si>
+  <si>
+    <t>迪娜</t>
+  </si>
+  <si>
+    <t>希维亚</t>
+  </si>
+  <si>
+    <t>乔奈</t>
+  </si>
+  <si>
+    <t>首领斗士</t>
+  </si>
+  <si>
+    <t>小兔</t>
+  </si>
+  <si>
+    <t>小古</t>
+  </si>
+  <si>
+    <t>三角头</t>
+  </si>
+  <si>
+    <t>Duwi执行档</t>
+  </si>
+  <si>
+    <t>塞丽娜</t>
+  </si>
+  <si>
+    <t>笑脸</t>
+  </si>
+  <si>
+    <t>坦祖</t>
+  </si>
+  <si>
+    <t>泡沐公主</t>
+  </si>
+  <si>
+    <t>小奇灵</t>
+  </si>
+  <si>
+    <t>美西螈</t>
+  </si>
+  <si>
+    <t>一擊識別一個病毒</t>
+  </si>
+  <si>
+    <t>總計識別{x}個正在攻擊中的歌姬病毒</t>
+  </si>
+  <si>
+    <t>使用火爆脾氣擊敗復活島石像</t>
+  </si>
+  <si>
+    <t>通關F槽</t>
+  </si>
+  <si>
+    <t>收集密鑰碎片1和2</t>
+  </si>
+  <si>
+    <t>在不花費金幣的情況下通關</t>
+  </si>
+  <si>
+    <t>撿起 {x} 份檔案</t>
+  </si>
+  <si>
+    <t>在木馬病毒攻擊期間識別出共計 {x} 個木馬病毒</t>
+  </si>
+  <si>
+    <t>圓形尾跡</t>
+  </si>
+  <si>
+    <t>三角尾跡</t>
+  </si>
+  <si>
+    <t>星形尾跡</t>
+  </si>
+  <si>
+    <t>硬幣尾跡</t>
+  </si>
+  <si>
+    <t>藍盒尾跡</t>
+  </si>
+  <si>
+    <t>愛心尾跡</t>
+  </si>
+  <si>
+    <t>閃光尾跡</t>
+  </si>
+  <si>
+    <t>游標尾跡</t>
+  </si>
+  <si>
+    <t>蠢蠢尾跡</t>
+  </si>
+  <si>
+    <t>病毒尾跡</t>
+  </si>
+  <si>
+    <t>太空侵略者尾跡</t>
+  </si>
+  <si>
+    <t>開發者尾跡</t>
+  </si>
+  <si>
+    <t>小夾皮造型</t>
+  </si>
+  <si>
+    <t>痞子人生造型</t>
+  </si>
+  <si>
+    <t>劍形造型</t>
+  </si>
+  <si>
+    <t>鎬子造型</t>
+  </si>
+  <si>
+    <t>御幣造型</t>
+  </si>
+  <si>
+    <t>圖釘造型</t>
+  </si>
+  <si>
+    <t>藍盒造型</t>
+  </si>
+  <si>
+    <t>魚魚造型</t>
+  </si>
+  <si>
+    <t>魔法少女造型</t>
+  </si>
+  <si>
+    <t>香蕉造型</t>
+  </si>
+  <si>
+    <t>披薩造型</t>
+  </si>
+  <si>
+    <t>決心造型</t>
+  </si>
+  <si>
+    <t>小馬</t>
+  </si>
+  <si>
+    <t>壓縮炸彈</t>
+  </si>
+  <si>
+    <t>阿戶</t>
+  </si>
+  <si>
+    <t>引導區</t>
+  </si>
+  <si>
+    <t>餅乾怪獸</t>
+  </si>
+  <si>
+    <t>小書</t>
+  </si>
+  <si>
+    <t>震網</t>
+  </si>
+  <si>
+    <t>藍精靈</t>
+  </si>
+  <si>
+    <t>阿拉蘋果</t>
+  </si>
+  <si>
+    <t>監視者</t>
+  </si>
+  <si>
+    <t>飛馬</t>
+  </si>
+  <si>
+    <t>鎖位</t>
+  </si>
+  <si>
+    <t>根套件</t>
+  </si>
+  <si>
+    <t>布穀</t>
+  </si>
+  <si>
+    <t>尼姆達</t>
+  </si>
+  <si>
+    <t>未來</t>
+  </si>
+  <si>
+    <t>薩瑟</t>
+  </si>
+  <si>
+    <t>梅麗莎</t>
+  </si>
+  <si>
+    <t>Z殭屍</t>
+  </si>
+  <si>
+    <t>織網者</t>
+  </si>
+  <si>
+    <t>雲核X</t>
+  </si>
+  <si>
+    <t>利維_AI</t>
+  </si>
+  <si>
+    <t>藍盒</t>
+  </si>
+  <si>
+    <t>希維亞</t>
+  </si>
+  <si>
+    <t>喬奈</t>
+  </si>
+  <si>
+    <t>首領鬥士</t>
+  </si>
+  <si>
+    <t>三角頭</t>
+  </si>
+  <si>
+    <t>Duwi執行檔</t>
+  </si>
+  <si>
+    <t>塞麗娜</t>
+  </si>
+  <si>
+    <t>笑臉</t>
+  </si>
+  <si>
+    <t>小奇靈</t>
+  </si>
+  <si>
+    <t>美西鯰</t>
+  </si>
+  <si>
+    <t>致命尖刺</t>
+  </si>
+  <si>
+    <t>病毒死亡时会射出尖刺</t>
+  </si>
+  <si>
+    <t>尸爆术</t>
+  </si>
+  <si>
+    <t>病毒死亡后会在短暂延迟后爆炸</t>
+  </si>
+  <si>
+    <t>吸血之触</t>
+  </si>
+  <si>
+    <t>病毒攻击命中玩家后会回复生命值</t>
+  </si>
+  <si>
+    <t>兜不住啦</t>
+  </si>
+  <si>
+    <t>受到伤害时有几率掉落金币</t>
+  </si>
+  <si>
+    <t>强化病毒</t>
+  </si>
+  <si>
+    <t>病毒有几率以增加 {x}% 生命值的状态生成</t>
+  </si>
+  <si>
+    <t>病毒变异</t>
+  </si>
+  <si>
+    <t>病毒有几率生成时带有随机强化效果</t>
+  </si>
+  <si>
+    <t>人固有一死</t>
+  </si>
+  <si>
+    <t>玩家受到任何伤害都会直接死亡</t>
+  </si>
+  <si>
+    <t>病毒增援</t>
+  </si>
+  <si>
+    <t>病毒死亡后有几率重新生成</t>
+  </si>
+  <si>
+    <t>搏一搏，单车变摩托</t>
+  </si>
+  <si>
+    <t>玩家造成与承受的伤害都会提升 {x} 倍</t>
+  </si>
+  <si>
+    <t>病毒再生</t>
+  </si>
+  <si>
+    <t>病毒会随时间逐渐恢复生命值</t>
+  </si>
+  <si>
+    <t>病毒死亡時會射出尖刺</t>
+  </si>
+  <si>
+    <t>屍爆術</t>
+  </si>
+  <si>
+    <t>病毒死亡後會在短暫延遲後爆炸</t>
+  </si>
+  <si>
+    <t>吸血之觸</t>
+  </si>
+  <si>
+    <t>病毒攻擊命中玩家後會回復生命值</t>
+  </si>
+  <si>
+    <t>受到傷害時有機率掉落金幣</t>
+  </si>
+  <si>
+    <t>強化病毒</t>
+  </si>
+  <si>
+    <t>病毒有機率以增加 {x}% 生命值的狀態生成</t>
+  </si>
+  <si>
+    <t>病毒變異</t>
+  </si>
+  <si>
+    <t>病毒有機率生成時帶有隨機強化效果</t>
+  </si>
+  <si>
+    <t>玩家受到任何傷害都會直接死亡</t>
+  </si>
+  <si>
+    <t>病毒死亡後有機率重新生成</t>
+  </si>
+  <si>
+    <t>搏一搏，單車變摩托</t>
+  </si>
+  <si>
+    <t>玩家造成與承受的傷害都會提升 {x} 倍</t>
+  </si>
+  <si>
+    <t>病毒會隨時間逐漸恢復生命值</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36465,6 +37005,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -36485,7 +37031,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -36508,6 +37054,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -36518,7 +37079,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -36535,6 +37096,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -37862,7 +38427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EBBEE6-3641-47DF-A45B-B07C4C2D09D6}">
   <dimension ref="A1:O204"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
+    <sheetView topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -43718,7 +44283,7 @@
   <dimension ref="A1:O223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43783,6 +44348,12 @@
       <c r="C2" t="s">
         <v>7384</v>
       </c>
+      <c r="D2" t="s">
+        <v>12143</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12143</v>
+      </c>
       <c r="F2" s="6" t="s">
         <v>6907</v>
       </c>
@@ -43812,6 +44383,12 @@
       <c r="C3" t="s">
         <v>7385</v>
       </c>
+      <c r="D3" t="s">
+        <v>12144</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12163</v>
+      </c>
       <c r="F3" s="6" t="s">
         <v>6908</v>
       </c>
@@ -43841,6 +44418,12 @@
       <c r="C4" t="s">
         <v>7386</v>
       </c>
+      <c r="D4" t="s">
+        <v>12145</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12164</v>
+      </c>
       <c r="F4" s="6" t="s">
         <v>6909</v>
       </c>
@@ -43870,6 +44453,12 @@
       <c r="C5" t="s">
         <v>7387</v>
       </c>
+      <c r="D5" t="s">
+        <v>12146</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12165</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>6910</v>
       </c>
@@ -43899,6 +44488,12 @@
       <c r="C6" t="s">
         <v>7388</v>
       </c>
+      <c r="D6" t="s">
+        <v>12147</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12166</v>
+      </c>
       <c r="F6" s="6" t="s">
         <v>6911</v>
       </c>
@@ -43928,6 +44523,12 @@
       <c r="C7" t="s">
         <v>7389</v>
       </c>
+      <c r="D7" t="s">
+        <v>12148</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12167</v>
+      </c>
       <c r="F7" s="6" t="s">
         <v>6912</v>
       </c>
@@ -43957,6 +44558,12 @@
       <c r="C8" t="s">
         <v>7390</v>
       </c>
+      <c r="D8" t="s">
+        <v>12149</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12149</v>
+      </c>
       <c r="F8" s="6" t="s">
         <v>6913</v>
       </c>
@@ -43986,6 +44593,12 @@
       <c r="C9" t="s">
         <v>7391</v>
       </c>
+      <c r="D9" t="s">
+        <v>12150</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12168</v>
+      </c>
       <c r="F9" s="6" t="s">
         <v>6914</v>
       </c>
@@ -44015,6 +44628,12 @@
       <c r="C10" t="s">
         <v>7392</v>
       </c>
+      <c r="D10" t="s">
+        <v>12151</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12169</v>
+      </c>
       <c r="F10" s="6" t="s">
         <v>6915</v>
       </c>
@@ -44044,6 +44663,12 @@
       <c r="C11" t="s">
         <v>7393</v>
       </c>
+      <c r="D11" t="s">
+        <v>12152</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12170</v>
+      </c>
       <c r="F11" s="6" t="s">
         <v>6916</v>
       </c>
@@ -44073,6 +44698,12 @@
       <c r="C12" t="s">
         <v>7394</v>
       </c>
+      <c r="D12" t="s">
+        <v>12153</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12171</v>
+      </c>
       <c r="F12" s="6" t="s">
         <v>6917</v>
       </c>
@@ -44102,6 +44733,12 @@
       <c r="C13" t="s">
         <v>7395</v>
       </c>
+      <c r="D13" t="s">
+        <v>12154</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12172</v>
+      </c>
       <c r="F13" s="6" t="s">
         <v>6918</v>
       </c>
@@ -44131,6 +44768,12 @@
       <c r="C14" t="s">
         <v>7396</v>
       </c>
+      <c r="D14" t="s">
+        <v>12155</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12155</v>
+      </c>
       <c r="F14" s="6" t="s">
         <v>5728</v>
       </c>
@@ -44160,6 +44803,12 @@
       <c r="C15" t="s">
         <v>7397</v>
       </c>
+      <c r="D15" t="s">
+        <v>12156</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12173</v>
+      </c>
       <c r="F15" s="6" t="s">
         <v>6919</v>
       </c>
@@ -44190,10 +44839,10 @@
         <v>6287</v>
       </c>
       <c r="D16" t="s">
-        <v>6287</v>
+        <v>12153</v>
       </c>
       <c r="E16" t="s">
-        <v>6287</v>
+        <v>12171</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>6287</v>
@@ -44237,10 +44886,10 @@
         <v>6287</v>
       </c>
       <c r="D17" t="s">
-        <v>6287</v>
+        <v>12154</v>
       </c>
       <c r="E17" t="s">
-        <v>6287</v>
+        <v>12172</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>6287</v>
@@ -44283,6 +44932,12 @@
       <c r="C18" t="s">
         <v>7398</v>
       </c>
+      <c r="D18" t="s">
+        <v>12157</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12157</v>
+      </c>
       <c r="F18" s="6" t="s">
         <v>6920</v>
       </c>
@@ -44312,6 +44967,12 @@
       <c r="C19" t="s">
         <v>7399</v>
       </c>
+      <c r="D19" t="s">
+        <v>12158</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12174</v>
+      </c>
       <c r="F19" s="6" t="s">
         <v>6921</v>
       </c>
@@ -44341,6 +45002,12 @@
       <c r="C20" t="s">
         <v>7400</v>
       </c>
+      <c r="D20" t="s">
+        <v>12159</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12175</v>
+      </c>
       <c r="F20" s="6" t="s">
         <v>6922</v>
       </c>
@@ -44370,6 +45037,12 @@
       <c r="C21" t="s">
         <v>7401</v>
       </c>
+      <c r="D21" t="s">
+        <v>12160</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12176</v>
+      </c>
       <c r="F21" s="6" t="s">
         <v>6923</v>
       </c>
@@ -44399,6 +45072,12 @@
       <c r="C22" t="s">
         <v>7402</v>
       </c>
+      <c r="D22" t="s">
+        <v>12161</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12161</v>
+      </c>
       <c r="F22" s="6" t="s">
         <v>6924</v>
       </c>
@@ -44428,6 +45107,12 @@
       <c r="C23" t="s">
         <v>7403</v>
       </c>
+      <c r="D23" t="s">
+        <v>12162</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12177</v>
+      </c>
       <c r="F23" s="6" t="s">
         <v>6925</v>
       </c>
@@ -44714,244 +45399,360 @@
     <row r="112" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
       <c r="F135" s="5"/>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
       <c r="F136" s="5"/>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
       <c r="F137" s="5"/>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
       <c r="F138" s="5"/>
     </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
       <c r="F139" s="5"/>
     </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
       <c r="F140" s="5"/>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
       <c r="F141" s="5"/>
     </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
       <c r="F142" s="5"/>
     </row>
-    <row r="143" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
       <c r="F143" s="5"/>
     </row>
-    <row r="144" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
       <c r="F144" s="5"/>
     </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
       <c r="F145" s="5"/>
     </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
       <c r="F146" s="5"/>
     </row>
-    <row r="147" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
       <c r="F147" s="5"/>
     </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
       <c r="F148" s="5"/>
     </row>
-    <row r="149" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
       <c r="F149" s="5"/>
     </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
       <c r="F150" s="5"/>
     </row>
-    <row r="151" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
       <c r="F151" s="5"/>
     </row>
-    <row r="152" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
       <c r="F152" s="5"/>
     </row>
-    <row r="153" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
       <c r="F153" s="5"/>
     </row>
-    <row r="154" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
       <c r="F154" s="5"/>
     </row>
-    <row r="155" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
       <c r="F155" s="5"/>
     </row>
-    <row r="156" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
       <c r="F156" s="5"/>
     </row>
-    <row r="157" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
       <c r="F157" s="5"/>
     </row>
-    <row r="158" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
       <c r="F158" s="5"/>
     </row>
-    <row r="159" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
       <c r="F159" s="5"/>
     </row>
-    <row r="160" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
       <c r="F160" s="5"/>
     </row>
-    <row r="161" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
       <c r="F161" s="5"/>
     </row>
-    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D162" s="10"/>
+      <c r="E162" s="10"/>
       <c r="F162" s="5"/>
     </row>
-    <row r="163" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D163" s="10"/>
+      <c r="E163" s="10"/>
       <c r="F163" s="5"/>
     </row>
-    <row r="164" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
       <c r="F164" s="5"/>
     </row>
-    <row r="165" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
       <c r="F165" s="5"/>
     </row>
-    <row r="166" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
       <c r="F166" s="5"/>
     </row>
-    <row r="167" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
       <c r="F167" s="5"/>
     </row>
-    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
       <c r="F168" s="5"/>
     </row>
-    <row r="169" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
       <c r="F169" s="5"/>
     </row>
-    <row r="170" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
       <c r="F170" s="5"/>
     </row>
-    <row r="171" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
       <c r="F171" s="5"/>
     </row>
-    <row r="172" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
       <c r="F172" s="5"/>
     </row>
-    <row r="173" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
       <c r="F173" s="5"/>
     </row>
-    <row r="174" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
       <c r="F174" s="5"/>
     </row>
-    <row r="175" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
       <c r="F175" s="5"/>
     </row>
-    <row r="176" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
       <c r="F176" s="5"/>
     </row>
-    <row r="177" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
       <c r="F177" s="5"/>
     </row>
-    <row r="178" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D178" s="10"/>
+      <c r="E178" s="10"/>
       <c r="F178" s="5"/>
     </row>
-    <row r="179" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
       <c r="F179" s="5"/>
     </row>
-    <row r="180" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
       <c r="F180" s="5"/>
     </row>
-    <row r="181" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D181" s="10"/>
+      <c r="E181" s="10"/>
       <c r="F181" s="5"/>
     </row>
-    <row r="182" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
       <c r="F182" s="5"/>
     </row>
-    <row r="183" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
       <c r="F183" s="5"/>
     </row>
-    <row r="184" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D184" s="10"/>
+      <c r="E184" s="10"/>
       <c r="F184" s="5"/>
     </row>
-    <row r="185" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D185" s="10"/>
+      <c r="E185" s="10"/>
       <c r="F185" s="5"/>
     </row>
-    <row r="186" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D186" s="10"/>
+      <c r="E186" s="10"/>
       <c r="F186" s="5"/>
     </row>
-    <row r="187" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D187" s="10"/>
+      <c r="E187" s="10"/>
       <c r="F187" s="5"/>
     </row>
-    <row r="188" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D188" s="10"/>
+      <c r="E188" s="10"/>
       <c r="F188" s="5"/>
     </row>
-    <row r="189" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D189" s="10"/>
+      <c r="E189" s="10"/>
       <c r="F189" s="5"/>
     </row>
-    <row r="190" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F190" s="6"/>
     </row>
-    <row r="191" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F191" s="6"/>
     </row>
-    <row r="192" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F192" s="6"/>
     </row>
     <row r="193" spans="6:6" x14ac:dyDescent="0.25">
@@ -45060,8 +45861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FBDDAB-2921-4157-8A97-8D71EE2B7C38}">
   <dimension ref="A1:O255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="E46" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47631,8 +48432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54479BFB-F3D2-4D17-B932-698CB7EE6AC8}">
   <dimension ref="A1:O323"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48187,11 +48988,11 @@
       <c r="C16" t="s">
         <v>7114</v>
       </c>
-      <c r="D16" t="s">
-        <v>4481</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4482</v>
+      <c r="D16" s="10" t="s">
+        <v>11998</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>12079</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>6753</v>
@@ -48257,10 +49058,10 @@
       <c r="C18" t="s">
         <v>7116</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="10" t="s">
         <v>5328</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="10" t="s">
         <v>5329</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -48292,11 +49093,11 @@
       <c r="C19" t="s">
         <v>7117</v>
       </c>
-      <c r="D19" t="s">
-        <v>4481</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4482</v>
+      <c r="D19" s="10" t="s">
+        <v>11999</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>12080</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>6790</v>
@@ -48362,10 +49163,10 @@
       <c r="C21" t="s">
         <v>7119</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="10" t="s">
         <v>5332</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="10" t="s">
         <v>5333</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -48397,11 +49198,11 @@
       <c r="C22" t="s">
         <v>7120</v>
       </c>
-      <c r="D22" t="s">
-        <v>4481</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4482</v>
+      <c r="D22" s="10" t="s">
+        <v>12000</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>12081</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>6792</v>
@@ -48502,11 +49303,11 @@
       <c r="C25" t="s">
         <v>7123</v>
       </c>
-      <c r="D25" t="s">
-        <v>4481</v>
-      </c>
-      <c r="E25" t="s">
-        <v>4482</v>
+      <c r="D25" s="10" t="s">
+        <v>12001</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>12082</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>6793</v>
@@ -48607,11 +49408,11 @@
       <c r="C28" t="s">
         <v>7126</v>
       </c>
-      <c r="D28" t="s">
-        <v>4481</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4482</v>
+      <c r="D28" s="10" t="s">
+        <v>12002</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>12083</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>6795</v>
@@ -48712,11 +49513,11 @@
       <c r="C31" t="s">
         <v>7129</v>
       </c>
-      <c r="D31" t="s">
-        <v>4481</v>
-      </c>
-      <c r="E31" t="s">
-        <v>4482</v>
+      <c r="D31" s="10" t="s">
+        <v>12003</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>12084</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>6796</v>
@@ -48817,11 +49618,11 @@
       <c r="C34" t="s">
         <v>7132</v>
       </c>
-      <c r="D34" t="s">
-        <v>4481</v>
-      </c>
-      <c r="E34" t="s">
-        <v>4482</v>
+      <c r="D34" s="10" t="s">
+        <v>12004</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>12085</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>6797</v>
@@ -48922,11 +49723,11 @@
       <c r="C37" t="s">
         <v>7135</v>
       </c>
-      <c r="D37" t="s">
-        <v>4481</v>
-      </c>
-      <c r="E37" t="s">
-        <v>4482</v>
+      <c r="D37" s="10" t="s">
+        <v>12005</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>12086</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>6798</v>
@@ -48957,10 +49758,10 @@
       <c r="C38" t="s">
         <v>7136</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="10" t="s">
         <v>5354</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="10" t="s">
         <v>5355</v>
       </c>
       <c r="F38" s="5" t="s">
@@ -48992,10 +49793,10 @@
       <c r="C39" t="s">
         <v>7137</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="10" t="s">
         <v>4561</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="10" t="s">
         <v>4562</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -49027,10 +49828,10 @@
       <c r="C40" t="s">
         <v>7137</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="10" t="s">
         <v>4561</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="10" t="s">
         <v>4562</v>
       </c>
       <c r="F40" s="5" t="s">
@@ -49062,10 +49863,10 @@
       <c r="C41" t="s">
         <v>7138</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="10" t="s">
         <v>5356</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="10" t="s">
         <v>5357</v>
       </c>
       <c r="F41" s="5" t="s">
@@ -49097,10 +49898,10 @@
       <c r="C42" t="s">
         <v>7137</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="10" t="s">
         <v>4561</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="10" t="s">
         <v>4562</v>
       </c>
       <c r="F42" s="5" t="s">
@@ -49132,10 +49933,10 @@
       <c r="C43" t="s">
         <v>7137</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="10" t="s">
         <v>4561</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="10" t="s">
         <v>4562</v>
       </c>
       <c r="F43" s="5" t="s">
@@ -49167,10 +49968,10 @@
       <c r="C44" t="s">
         <v>7139</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="10" t="s">
         <v>5358</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="10" t="s">
         <v>5359</v>
       </c>
       <c r="F44" s="5" t="s">
@@ -49202,10 +50003,10 @@
       <c r="C45" t="s">
         <v>7137</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="10" t="s">
         <v>4561</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="10" t="s">
         <v>4562</v>
       </c>
       <c r="F45" s="5" t="s">
@@ -49237,10 +50038,10 @@
       <c r="C46" t="s">
         <v>7137</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="10" t="s">
         <v>4561</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="10" t="s">
         <v>4562</v>
       </c>
       <c r="F46" s="5" t="s">
@@ -49348,6 +50149,12 @@
       <c r="C50" t="s">
         <v>7141</v>
       </c>
+      <c r="D50" t="s">
+        <v>12006</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12087</v>
+      </c>
       <c r="F50" s="2" t="s">
         <v>6799</v>
       </c>
@@ -49377,6 +50184,12 @@
       <c r="C51" t="s">
         <v>7142</v>
       </c>
+      <c r="D51" t="s">
+        <v>12007</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12088</v>
+      </c>
       <c r="F51" s="2" t="s">
         <v>6800</v>
       </c>
@@ -49406,6 +50219,12 @@
       <c r="C52" t="s">
         <v>7143</v>
       </c>
+      <c r="D52" t="s">
+        <v>12008</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12089</v>
+      </c>
       <c r="F52" s="2" t="s">
         <v>6801</v>
       </c>
@@ -49435,6 +50254,12 @@
       <c r="C53" t="s">
         <v>7144</v>
       </c>
+      <c r="D53" t="s">
+        <v>12009</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12090</v>
+      </c>
       <c r="F53" s="2" t="s">
         <v>6802</v>
       </c>
@@ -49464,6 +50289,12 @@
       <c r="C54" t="s">
         <v>7145</v>
       </c>
+      <c r="D54" t="s">
+        <v>12010</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12091</v>
+      </c>
       <c r="F54" s="2" t="s">
         <v>6803</v>
       </c>
@@ -49493,6 +50324,12 @@
       <c r="C55" t="s">
         <v>7146</v>
       </c>
+      <c r="D55" t="s">
+        <v>12011</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12092</v>
+      </c>
       <c r="F55" s="2" t="s">
         <v>6804</v>
       </c>
@@ -49522,6 +50359,12 @@
       <c r="C56" t="s">
         <v>7147</v>
       </c>
+      <c r="D56" t="s">
+        <v>12012</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12093</v>
+      </c>
       <c r="F56" s="2" t="s">
         <v>6805</v>
       </c>
@@ -49551,6 +50394,12 @@
       <c r="C57" t="s">
         <v>7148</v>
       </c>
+      <c r="D57" t="s">
+        <v>12013</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12094</v>
+      </c>
       <c r="F57" s="2" t="s">
         <v>6806</v>
       </c>
@@ -49580,6 +50429,12 @@
       <c r="C58" t="s">
         <v>7149</v>
       </c>
+      <c r="D58" t="s">
+        <v>12014</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12095</v>
+      </c>
       <c r="F58" s="2" t="s">
         <v>6807</v>
       </c>
@@ -49609,6 +50464,12 @@
       <c r="C59" t="s">
         <v>7150</v>
       </c>
+      <c r="D59" t="s">
+        <v>12015</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12096</v>
+      </c>
       <c r="F59" s="2" t="s">
         <v>6808</v>
       </c>
@@ -49638,6 +50499,12 @@
       <c r="C60" t="s">
         <v>7151</v>
       </c>
+      <c r="D60" t="s">
+        <v>12016</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12097</v>
+      </c>
       <c r="F60" s="2" t="s">
         <v>6192</v>
       </c>
@@ -49667,6 +50534,12 @@
       <c r="C61" t="s">
         <v>7152</v>
       </c>
+      <c r="D61" t="s">
+        <v>12017</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12098</v>
+      </c>
       <c r="F61" s="2" t="s">
         <v>6809</v>
       </c>
@@ -49702,6 +50575,12 @@
       <c r="C63" t="s">
         <v>7153</v>
       </c>
+      <c r="D63" t="s">
+        <v>12018</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12099</v>
+      </c>
       <c r="F63" s="2" t="s">
         <v>6810</v>
       </c>
@@ -49731,6 +50610,12 @@
       <c r="C64" t="s">
         <v>7154</v>
       </c>
+      <c r="D64" t="s">
+        <v>12019</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12100</v>
+      </c>
       <c r="F64" s="2" t="s">
         <v>6811</v>
       </c>
@@ -49760,6 +50645,12 @@
       <c r="C65" t="s">
         <v>7155</v>
       </c>
+      <c r="D65" t="s">
+        <v>12020</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12101</v>
+      </c>
       <c r="F65" s="2" t="s">
         <v>6812</v>
       </c>
@@ -49789,6 +50680,12 @@
       <c r="C66" t="s">
         <v>7156</v>
       </c>
+      <c r="D66" t="s">
+        <v>12021</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12102</v>
+      </c>
       <c r="F66" s="2" t="s">
         <v>6813</v>
       </c>
@@ -49818,6 +50715,12 @@
       <c r="C67" t="s">
         <v>7157</v>
       </c>
+      <c r="D67" t="s">
+        <v>12022</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12103</v>
+      </c>
       <c r="F67" s="2" t="s">
         <v>6814</v>
       </c>
@@ -49847,6 +50750,12 @@
       <c r="C68" t="s">
         <v>7158</v>
       </c>
+      <c r="D68" t="s">
+        <v>12023</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12104</v>
+      </c>
       <c r="F68" s="2" t="s">
         <v>6815</v>
       </c>
@@ -49876,6 +50785,12 @@
       <c r="C69" t="s">
         <v>7159</v>
       </c>
+      <c r="D69" t="s">
+        <v>12024</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12105</v>
+      </c>
       <c r="F69" s="2" t="s">
         <v>6816</v>
       </c>
@@ -49905,6 +50820,12 @@
       <c r="C70" t="s">
         <v>7160</v>
       </c>
+      <c r="D70" t="s">
+        <v>12025</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12106</v>
+      </c>
       <c r="F70" s="2" t="s">
         <v>6817</v>
       </c>
@@ -49934,6 +50855,12 @@
       <c r="C71" t="s">
         <v>7161</v>
       </c>
+      <c r="D71" t="s">
+        <v>12026</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12107</v>
+      </c>
       <c r="F71" s="2" t="s">
         <v>6818</v>
       </c>
@@ -49963,6 +50890,12 @@
       <c r="C72" t="s">
         <v>7162</v>
       </c>
+      <c r="D72" t="s">
+        <v>12027</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12108</v>
+      </c>
       <c r="F72" s="2" t="s">
         <v>6819</v>
       </c>
@@ -49992,6 +50925,12 @@
       <c r="C73" t="s">
         <v>7163</v>
       </c>
+      <c r="D73" t="s">
+        <v>12028</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12109</v>
+      </c>
       <c r="F73" s="2" t="s">
         <v>6820</v>
       </c>
@@ -50011,7 +50950,7 @@
         <v>11479</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>5801</v>
       </c>
@@ -50021,6 +50960,12 @@
       <c r="C74" t="s">
         <v>7164</v>
       </c>
+      <c r="D74" t="s">
+        <v>12029</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12110</v>
+      </c>
       <c r="F74" s="2" t="s">
         <v>6821</v>
       </c>
@@ -50040,7 +50985,7 @@
         <v>6205</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>5803</v>
       </c>
@@ -50050,6 +50995,12 @@
       <c r="C75" t="s">
         <v>7165</v>
       </c>
+      <c r="D75" s="12" t="s">
+        <v>12030</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>12030</v>
+      </c>
       <c r="F75" s="2" t="s">
         <v>6822</v>
       </c>
@@ -50069,7 +51020,7 @@
         <v>6206</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>5805</v>
       </c>
@@ -50079,6 +51030,12 @@
       <c r="C76" t="s">
         <v>7166</v>
       </c>
+      <c r="D76" s="12" t="s">
+        <v>12031</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>12031</v>
+      </c>
       <c r="F76" s="2" t="s">
         <v>6823</v>
       </c>
@@ -50098,7 +51055,7 @@
         <v>6207</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>5807</v>
       </c>
@@ -50108,6 +51065,12 @@
       <c r="C77" t="s">
         <v>7167</v>
       </c>
+      <c r="D77" s="12" t="s">
+        <v>12032</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>12111</v>
+      </c>
       <c r="F77" s="2" t="s">
         <v>5808</v>
       </c>
@@ -50127,7 +51090,7 @@
         <v>6208</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>5809</v>
       </c>
@@ -50137,6 +51100,12 @@
       <c r="C78" t="s">
         <v>7168</v>
       </c>
+      <c r="D78" s="12" t="s">
+        <v>12033</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>12033</v>
+      </c>
       <c r="F78" s="2" t="s">
         <v>5810</v>
       </c>
@@ -50156,7 +51125,7 @@
         <v>5810</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>5811</v>
       </c>
@@ -50166,6 +51135,12 @@
       <c r="C79" t="s">
         <v>7169</v>
       </c>
+      <c r="D79" s="12" t="s">
+        <v>12034</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>12112</v>
+      </c>
       <c r="F79" s="2" t="s">
         <v>5812</v>
       </c>
@@ -50185,7 +51160,7 @@
         <v>11480</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>5813</v>
       </c>
@@ -50195,6 +51170,12 @@
       <c r="C80" t="s">
         <v>7170</v>
       </c>
+      <c r="D80" s="12" t="s">
+        <v>12035</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>12035</v>
+      </c>
       <c r="F80" s="2" t="s">
         <v>5814</v>
       </c>
@@ -50214,7 +51195,7 @@
         <v>5814</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>5815</v>
       </c>
@@ -50224,6 +51205,12 @@
       <c r="C81" t="s">
         <v>1112</v>
       </c>
+      <c r="D81" s="12" t="s">
+        <v>12036</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>12113</v>
+      </c>
       <c r="F81" s="2" t="s">
         <v>6824</v>
       </c>
@@ -50243,7 +51230,7 @@
         <v>6210</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>5817</v>
       </c>
@@ -50253,6 +51240,12 @@
       <c r="C82" t="s">
         <v>7171</v>
       </c>
+      <c r="D82" s="12" t="s">
+        <v>12037</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>12037</v>
+      </c>
       <c r="F82" s="2" t="s">
         <v>5818</v>
       </c>
@@ -50272,7 +51265,7 @@
         <v>6211</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>5819</v>
       </c>
@@ -50282,6 +51275,12 @@
       <c r="C83" t="s">
         <v>7172</v>
       </c>
+      <c r="D83" s="12" t="s">
+        <v>12038</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>12038</v>
+      </c>
       <c r="F83" s="2" t="s">
         <v>6825</v>
       </c>
@@ -50301,7 +51300,7 @@
         <v>11481</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>5820</v>
       </c>
@@ -50311,6 +51310,12 @@
       <c r="C84" t="s">
         <v>7173</v>
       </c>
+      <c r="D84" s="12" t="s">
+        <v>12039</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>12039</v>
+      </c>
       <c r="F84" s="2" t="s">
         <v>6826</v>
       </c>
@@ -50330,7 +51335,7 @@
         <v>11482</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>5821</v>
       </c>
@@ -50340,6 +51345,12 @@
       <c r="C85" t="s">
         <v>7174</v>
       </c>
+      <c r="D85" s="12" t="s">
+        <v>12040</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>12040</v>
+      </c>
       <c r="F85" s="2" t="s">
         <v>6827</v>
       </c>
@@ -50359,7 +51370,7 @@
         <v>6214</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>5823</v>
       </c>
@@ -50369,6 +51380,12 @@
       <c r="C86" t="s">
         <v>7175</v>
       </c>
+      <c r="D86" s="12" t="s">
+        <v>12041</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>12114</v>
+      </c>
       <c r="F86" s="2" t="s">
         <v>5824</v>
       </c>
@@ -50388,7 +51405,7 @@
         <v>11483</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>5825</v>
       </c>
@@ -50398,6 +51415,12 @@
       <c r="C87" t="s">
         <v>7176</v>
       </c>
+      <c r="D87" s="12" t="s">
+        <v>12042</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>12115</v>
+      </c>
       <c r="F87" s="2" t="s">
         <v>6828</v>
       </c>
@@ -50417,7 +51440,7 @@
         <v>11484</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>5827</v>
       </c>
@@ -50427,6 +51450,12 @@
       <c r="C88" t="s">
         <v>7177</v>
       </c>
+      <c r="D88" s="12" t="s">
+        <v>12043</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>12043</v>
+      </c>
       <c r="F88" s="2" t="s">
         <v>5828</v>
       </c>
@@ -50446,7 +51475,7 @@
         <v>6216</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>5829</v>
       </c>
@@ -50456,6 +51485,12 @@
       <c r="C89" t="s">
         <v>7178</v>
       </c>
+      <c r="D89" s="12" t="s">
+        <v>12044</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>12116</v>
+      </c>
       <c r="F89" s="2" t="s">
         <v>6829</v>
       </c>
@@ -50475,7 +51510,7 @@
         <v>6217</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>5831</v>
       </c>
@@ -50485,6 +51520,12 @@
       <c r="C90" t="s">
         <v>7179</v>
       </c>
+      <c r="D90" s="12" t="s">
+        <v>12045</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>12045</v>
+      </c>
       <c r="F90" s="2" t="s">
         <v>5832</v>
       </c>
@@ -50504,7 +51545,7 @@
         <v>5832</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>5833</v>
       </c>
@@ -50514,6 +51555,12 @@
       <c r="C91" t="s">
         <v>7180</v>
       </c>
+      <c r="D91" s="12" t="s">
+        <v>12046</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>12117</v>
+      </c>
       <c r="F91" s="2" t="s">
         <v>5834</v>
       </c>
@@ -50533,7 +51580,7 @@
         <v>5834</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>5835</v>
       </c>
@@ -50543,6 +51590,12 @@
       <c r="C92" t="s">
         <v>7181</v>
       </c>
+      <c r="D92" s="12" t="s">
+        <v>12047</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>12047</v>
+      </c>
       <c r="F92" s="2" t="s">
         <v>5836</v>
       </c>
@@ -50562,7 +51615,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>5837</v>
       </c>
@@ -50572,6 +51625,12 @@
       <c r="C93" t="s">
         <v>7182</v>
       </c>
+      <c r="D93" s="12" t="s">
+        <v>12048</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>12118</v>
+      </c>
       <c r="F93" s="2" t="s">
         <v>5838</v>
       </c>
@@ -50591,7 +51650,7 @@
         <v>5838</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>5839</v>
       </c>
@@ -50601,6 +51660,12 @@
       <c r="C94" t="s">
         <v>5840</v>
       </c>
+      <c r="D94" s="12" t="s">
+        <v>12049</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>12119</v>
+      </c>
       <c r="F94" s="2" t="s">
         <v>5840</v>
       </c>
@@ -50620,7 +51685,7 @@
         <v>5840</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>5841</v>
       </c>
@@ -50630,6 +51695,12 @@
       <c r="C95" t="s">
         <v>5842</v>
       </c>
+      <c r="D95" s="12" t="s">
+        <v>12050</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>12120</v>
+      </c>
       <c r="F95" s="2" t="s">
         <v>5842</v>
       </c>
@@ -50649,7 +51720,7 @@
         <v>11485</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>5843</v>
       </c>
@@ -50659,6 +51730,12 @@
       <c r="C96" t="s">
         <v>7183</v>
       </c>
+      <c r="D96" s="12" t="s">
+        <v>12051</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>12121</v>
+      </c>
       <c r="F96" s="2" t="s">
         <v>5844</v>
       </c>
@@ -50678,7 +51755,7 @@
         <v>11486</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>5845</v>
       </c>
@@ -50688,6 +51765,12 @@
       <c r="C97" t="s">
         <v>7184</v>
       </c>
+      <c r="D97" s="12" t="s">
+        <v>12052</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>12122</v>
+      </c>
       <c r="F97" s="2" t="s">
         <v>5846</v>
       </c>
@@ -50707,7 +51790,7 @@
         <v>6222</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>5847</v>
       </c>
@@ -50717,6 +51800,12 @@
       <c r="C98" t="s">
         <v>7185</v>
       </c>
+      <c r="D98" s="12" t="s">
+        <v>12053</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>12123</v>
+      </c>
       <c r="F98" s="2" t="s">
         <v>5848</v>
       </c>
@@ -50736,7 +51825,7 @@
         <v>5848</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>5849</v>
       </c>
@@ -50746,6 +51835,12 @@
       <c r="C99" t="s">
         <v>7186</v>
       </c>
+      <c r="D99" s="12" t="s">
+        <v>12054</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>12124</v>
+      </c>
       <c r="F99" s="2" t="s">
         <v>5850</v>
       </c>
@@ -50765,7 +51860,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>5851</v>
       </c>
@@ -50775,6 +51870,12 @@
       <c r="C100" t="s">
         <v>5852</v>
       </c>
+      <c r="D100" s="12" t="s">
+        <v>12055</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>12125</v>
+      </c>
       <c r="F100" s="2" t="s">
         <v>5852</v>
       </c>
@@ -50794,7 +51895,7 @@
         <v>5852</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>5853</v>
       </c>
@@ -50804,6 +51905,12 @@
       <c r="C101" t="s">
         <v>7187</v>
       </c>
+      <c r="D101" s="12" t="s">
+        <v>12056</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>12126</v>
+      </c>
       <c r="F101" s="2" t="s">
         <v>5854</v>
       </c>
@@ -50823,7 +51930,7 @@
         <v>5854</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>5855</v>
       </c>
@@ -50833,6 +51940,12 @@
       <c r="C102" t="s">
         <v>7188</v>
       </c>
+      <c r="D102" s="12" t="s">
+        <v>12057</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>12127</v>
+      </c>
       <c r="F102" s="2" t="s">
         <v>5856</v>
       </c>
@@ -50852,7 +51965,7 @@
         <v>5856</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>5857</v>
       </c>
@@ -50862,6 +51975,12 @@
       <c r="C103" t="s">
         <v>7189</v>
       </c>
+      <c r="D103" s="12" t="s">
+        <v>12058</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>12128</v>
+      </c>
       <c r="F103" s="2" t="s">
         <v>5858</v>
       </c>
@@ -50881,7 +52000,7 @@
         <v>5858</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>5859</v>
       </c>
@@ -50891,6 +52010,12 @@
       <c r="C104" t="s">
         <v>7190</v>
       </c>
+      <c r="D104" s="12" t="s">
+        <v>12059</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>12129</v>
+      </c>
       <c r="F104" s="2" t="s">
         <v>5860</v>
       </c>
@@ -50910,7 +52035,7 @@
         <v>11487</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>11940</v>
       </c>
@@ -50920,6 +52045,12 @@
       <c r="C105" t="s">
         <v>7191</v>
       </c>
+      <c r="D105" s="12" t="s">
+        <v>12060</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>12060</v>
+      </c>
       <c r="F105" s="2" t="s">
         <v>6830</v>
       </c>
@@ -50939,7 +52070,7 @@
         <v>11488</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>11941</v>
       </c>
@@ -50949,6 +52080,12 @@
       <c r="C106" t="s">
         <v>7192</v>
       </c>
+      <c r="D106" s="12" t="s">
+        <v>12061</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>12130</v>
+      </c>
       <c r="F106" s="2" t="s">
         <v>6831</v>
       </c>
@@ -50968,7 +52105,7 @@
         <v>11489</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>11942</v>
       </c>
@@ -50978,6 +52115,12 @@
       <c r="C107" t="s">
         <v>7193</v>
       </c>
+      <c r="D107" s="12" t="s">
+        <v>12062</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>12131</v>
+      </c>
       <c r="F107" s="2" t="s">
         <v>6832</v>
       </c>
@@ -50997,7 +52140,7 @@
         <v>11490</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>11943</v>
       </c>
@@ -51007,6 +52150,12 @@
       <c r="C108" t="s">
         <v>5864</v>
       </c>
+      <c r="D108" s="12" t="s">
+        <v>12063</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>12132</v>
+      </c>
       <c r="F108" s="2" t="s">
         <v>5864</v>
       </c>
@@ -51026,7 +52175,7 @@
         <v>5864</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>11944</v>
       </c>
@@ -51036,6 +52185,12 @@
       <c r="C109" t="s">
         <v>7194</v>
       </c>
+      <c r="D109" s="12" t="s">
+        <v>12064</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>12133</v>
+      </c>
       <c r="F109" s="2" t="s">
         <v>6833</v>
       </c>
@@ -51055,7 +52210,7 @@
         <v>11491</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>11945</v>
       </c>
@@ -51065,6 +52220,12 @@
       <c r="C110" t="s">
         <v>7195</v>
       </c>
+      <c r="D110" s="12" t="s">
+        <v>12065</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>12065</v>
+      </c>
       <c r="F110" s="2" t="s">
         <v>5866</v>
       </c>
@@ -51084,7 +52245,7 @@
         <v>5866</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>11946</v>
       </c>
@@ -51094,6 +52255,12 @@
       <c r="C111" t="s">
         <v>7196</v>
       </c>
+      <c r="D111" s="12" t="s">
+        <v>12066</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>12134</v>
+      </c>
       <c r="F111" s="2" t="s">
         <v>5867</v>
       </c>
@@ -51113,7 +52280,7 @@
         <v>5867</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>11947</v>
       </c>
@@ -51123,6 +52290,12 @@
       <c r="C112" t="s">
         <v>7197</v>
       </c>
+      <c r="D112" s="12" t="s">
+        <v>12067</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>12135</v>
+      </c>
       <c r="F112" s="2" t="s">
         <v>5868</v>
       </c>
@@ -51142,7 +52315,7 @@
         <v>5868</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>11948</v>
       </c>
@@ -51152,6 +52325,12 @@
       <c r="C113" t="s">
         <v>7198</v>
       </c>
+      <c r="D113" s="12" t="s">
+        <v>12068</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>12136</v>
+      </c>
       <c r="F113" s="2" t="s">
         <v>5869</v>
       </c>
@@ -51171,7 +52350,7 @@
         <v>11492</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>11949</v>
       </c>
@@ -51181,6 +52360,12 @@
       <c r="C114" t="s">
         <v>7199</v>
       </c>
+      <c r="D114" s="12" t="s">
+        <v>12069</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>12069</v>
+      </c>
       <c r="F114" s="2" t="s">
         <v>5870</v>
       </c>
@@ -51200,7 +52385,7 @@
         <v>5870</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>11950</v>
       </c>
@@ -51210,6 +52395,12 @@
       <c r="C115" t="s">
         <v>7200</v>
       </c>
+      <c r="D115" s="12" t="s">
+        <v>12070</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>12070</v>
+      </c>
       <c r="F115" s="2" t="s">
         <v>5871</v>
       </c>
@@ -51229,7 +52420,7 @@
         <v>5871</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>11951</v>
       </c>
@@ -51239,6 +52430,12 @@
       <c r="C116" t="s">
         <v>7201</v>
       </c>
+      <c r="D116" s="12" t="s">
+        <v>12071</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>12137</v>
+      </c>
       <c r="F116" s="2" t="s">
         <v>6834</v>
       </c>
@@ -51258,7 +52455,7 @@
         <v>11493</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>11952</v>
       </c>
@@ -51268,6 +52465,12 @@
       <c r="C117" t="s">
         <v>7202</v>
       </c>
+      <c r="D117" s="12" t="s">
+        <v>12072</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>12138</v>
+      </c>
       <c r="F117" s="2" t="s">
         <v>5873</v>
       </c>
@@ -51287,7 +52490,7 @@
         <v>5873</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>11953</v>
       </c>
@@ -51297,6 +52500,12 @@
       <c r="C118" t="s">
         <v>7203</v>
       </c>
+      <c r="D118" s="12" t="s">
+        <v>12073</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>12139</v>
+      </c>
       <c r="F118" s="2" t="s">
         <v>5874</v>
       </c>
@@ -51316,7 +52525,7 @@
         <v>5874</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>11954</v>
       </c>
@@ -51326,6 +52535,12 @@
       <c r="C119" t="s">
         <v>7204</v>
       </c>
+      <c r="D119" s="12" t="s">
+        <v>12074</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>12140</v>
+      </c>
       <c r="F119" s="2" t="s">
         <v>6835</v>
       </c>
@@ -51345,7 +52560,7 @@
         <v>11494</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>11955</v>
       </c>
@@ -51355,6 +52570,12 @@
       <c r="C120" t="s">
         <v>5876</v>
       </c>
+      <c r="D120" s="12" t="s">
+        <v>12075</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>12075</v>
+      </c>
       <c r="F120" s="2" t="s">
         <v>5876</v>
       </c>
@@ -51374,7 +52595,7 @@
         <v>5876</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>11956</v>
       </c>
@@ -51384,6 +52605,12 @@
       <c r="C121" t="s">
         <v>7205</v>
       </c>
+      <c r="D121" s="12" t="s">
+        <v>12076</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>12076</v>
+      </c>
       <c r="F121" s="2" t="s">
         <v>5877</v>
       </c>
@@ -51403,7 +52630,7 @@
         <v>6230</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>11957</v>
       </c>
@@ -51413,6 +52640,12 @@
       <c r="C122" t="s">
         <v>7206</v>
       </c>
+      <c r="D122" s="12" t="s">
+        <v>12077</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>12141</v>
+      </c>
       <c r="F122" s="2" t="s">
         <v>5878</v>
       </c>
@@ -51432,7 +52665,7 @@
         <v>5878</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>11958</v>
       </c>
@@ -51441,6 +52674,12 @@
       </c>
       <c r="C123" t="s">
         <v>7207</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>12078</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>12142</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>5879</v>
@@ -53350,7 +54589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBA198A-82A8-4E0B-B616-B0C234568614}">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -55826,7 +57065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607EE55B-01B9-43A2-ABDF-547288CE50DD}">
   <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
@@ -59089,7 +60328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8757A3A2-1687-42DC-847A-464A3A95A6DE}">
   <dimension ref="A1:O175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A141" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
@@ -65245,7 +66484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADBB5F6-192B-4660-A6DC-9C225D90B84F}">
   <dimension ref="A1:O399"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A365" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -79300,7 +80539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F90AF4D-9877-467E-81BF-A9F8CCE99B88}">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
